--- a/基金总结.xlsx
+++ b/基金总结.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0B3366-6915-4252-ABF1-87AF063F2B45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3725C9-698C-4519-8643-96D796115D46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2290" yWindow="1160" windowWidth="16910" windowHeight="7990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="动平衡策略" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>今年收益率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,7 +300,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020/11/010</t>
+    <t>2020/11/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/11/12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -471,6 +475,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -658,6 +665,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>7.6100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.1600000000000006E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -778,7 +788,7 @@
             <c:strRef>
               <c:f>日定投策略!$A$5:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2020/10/29</c:v>
                 </c:pt>
@@ -786,7 +796,10 @@
                   <c:v>2020/11/07</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2020/11/010</c:v>
+                  <c:v>2020/11/10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020/11/12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -808,6 +821,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1000000000000004E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1297,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:K20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1318,48 +1334,48 @@
       <c r="A1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>44465.8</v>
+        <v>44485.8</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="20">
-        <v>103079.93</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="C2" s="21">
+        <v>102826.82</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>417.73</v>
+        <v>416.88</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="9">
         <f>SUM(A2:A19)</f>
-        <v>66373.73000000001</v>
+        <v>66428.41</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="6">
         <f>C2-E2-C3</f>
-        <v>36706.199999999983</v>
+        <v>36398.410000000003</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>378.6</v>
+        <v>377.99</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -1376,7 +1392,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>21111.599999999999</v>
+        <v>21147.74</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -1525,7 +1541,7 @@
       </c>
       <c r="F14" s="13">
         <f>$K$22</f>
-        <v>26.268339057899901</v>
+        <v>25.925073601570169</v>
       </c>
       <c r="G14">
         <v>16</v>
@@ -1535,15 +1551,15 @@
       </c>
       <c r="I14">
         <f>E3/C2</f>
-        <v>0.35609453751084219</v>
+        <v>0.35397778517316786</v>
       </c>
       <c r="J14">
         <f>IF(((H14-F14)/(H14-G14))&lt;0,0,((H14-F14)/(H14-G14)))*0.7+0.3</f>
-        <v>0.3</v>
+        <v>0.30524484789008816</v>
       </c>
       <c r="K14" s="14">
         <f>(C2*J14-E3)*J14</f>
-        <v>-1734.666299999996</v>
+        <v>-1529.5981016207943</v>
       </c>
       <c r="L14" s="11"/>
     </row>
@@ -1559,14 +1575,14 @@
       <c r="E15" s="3">
         <v>5.7799999999999997E-2</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
     </row>
     <row r="16" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
@@ -1580,12 +1596,12 @@
       <c r="E16" s="3">
         <v>6.3200000000000006E-2</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
     </row>
     <row r="17" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
@@ -1599,12 +1615,12 @@
       <c r="E17" s="3">
         <v>6.54E-2</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
     </row>
     <row r="18" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
@@ -1618,12 +1634,12 @@
       <c r="E18" s="3">
         <v>6.0199999999999997E-2</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
     </row>
     <row r="19" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
@@ -1637,12 +1653,12 @@
       <c r="E19" s="3">
         <v>6.2899999999999998E-2</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
     </row>
     <row r="20" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
@@ -1656,12 +1672,12 @@
       <c r="E20" s="3">
         <v>7.1900000000000006E-2</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
@@ -1711,18 +1727,33 @@
         <v>2319</v>
       </c>
       <c r="G22" s="12">
-        <v>33.979999999999997</v>
+        <v>33.46</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12">
         <v>1757</v>
       </c>
       <c r="J22" s="12">
-        <v>16.09</v>
+        <v>15.98</v>
       </c>
       <c r="K22" s="12">
         <f>(F22*G22+I22*J22)/(F22+I22)</f>
-        <v>26.268339057899901</v>
+        <v>25.925073601570169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="19">
+        <v>12181.32</v>
+      </c>
+      <c r="D23" s="19">
+        <v>25.93</v>
+      </c>
+      <c r="E23" s="3">
+        <v>8.1600000000000006E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1746,7 +1777,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1760,31 +1791,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="20">
-        <v>1953.27</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="B2" s="21">
+        <v>2330.48</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="23"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1793,10 +1824,10 @@
       <c r="A4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="23">
         <v>-1.49</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="3">
         <v>0</v>
       </c>
@@ -1805,10 +1836,10 @@
       <c r="A5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="23">
         <v>-0.06</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="3">
         <v>-3.0000000000000001E-3</v>
       </c>
@@ -1817,10 +1848,10 @@
       <c r="A6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="23">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -1829,94 +1860,96 @@
       <c r="A7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="23">
         <v>14.52</v>
       </c>
-      <c r="C7" s="22"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="3">
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="23">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="3">
+        <v>5.1000000000000004E-3</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="3"/>
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B14:C14"/>
@@ -1932,6 +1965,10 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1945,7 +1982,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>

--- a/基金总结.xlsx
+++ b/基金总结.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3725C9-698C-4519-8643-96D796115D46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439D33AE-6846-4FE7-A00C-4D6D7B6905B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2290" yWindow="1160" windowWidth="16910" windowHeight="7990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="动平衡策略" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
   <si>
     <t>今年收益率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -305,6 +305,14 @@
   </si>
   <si>
     <t>2020/11/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/11/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/11/21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -475,6 +483,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -668,6 +682,12 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>8.1600000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.0799999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.9399999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -788,7 +808,7 @@
             <c:strRef>
               <c:f>日定投策略!$A$5:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2020/10/29</c:v>
                 </c:pt>
@@ -800,6 +820,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2020/11/12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020/11/15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020/11/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -824,6 +850,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1313,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1334,49 +1366,47 @@
       <c r="A1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>44485.8</v>
+        <v>44614.27</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="21">
-        <v>102826.82</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="23">
+        <v>103074.07</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>416.88</v>
+        <v>21968.01</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="9">
         <f>SUM(A2:A19)</f>
-        <v>66428.41</v>
+        <v>66582.28</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="6">
         <f>C2-E2-C3</f>
-        <v>36398.410000000003</v>
+        <v>36491.790000000008</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>377.99</v>
-      </c>
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1391,9 +1421,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>21147.74</v>
-      </c>
+      <c r="A5" s="10"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1541,7 +1569,7 @@
       </c>
       <c r="F14" s="13">
         <f>$K$22</f>
-        <v>25.925073601570169</v>
+        <v>26.137458455522967</v>
       </c>
       <c r="G14">
         <v>16</v>
@@ -1551,15 +1579,15 @@
       </c>
       <c r="I14">
         <f>E3/C2</f>
-        <v>0.35397778517316786</v>
+        <v>0.35403462771965838</v>
       </c>
       <c r="J14">
         <f>IF(((H14-F14)/(H14-G14))&lt;0,0,((H14-F14)/(H14-G14)))*0.7+0.3</f>
-        <v>0.30524484789008816</v>
+        <v>0.3</v>
       </c>
       <c r="K14" s="14">
         <f>(C2*J14-E3)*J14</f>
-        <v>-1529.5981016207943</v>
+        <v>-1670.870700000002</v>
       </c>
       <c r="L14" s="11"/>
     </row>
@@ -1575,14 +1603,14 @@
       <c r="E15" s="3">
         <v>5.7799999999999997E-2</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
     </row>
     <row r="16" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
@@ -1596,12 +1624,12 @@
       <c r="E16" s="3">
         <v>6.3200000000000006E-2</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
     </row>
     <row r="17" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
@@ -1615,12 +1643,12 @@
       <c r="E17" s="3">
         <v>6.54E-2</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
     </row>
     <row r="18" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
@@ -1634,12 +1662,12 @@
       <c r="E18" s="3">
         <v>6.0199999999999997E-2</v>
       </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
@@ -1653,12 +1681,12 @@
       <c r="E19" s="3">
         <v>6.2899999999999998E-2</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
@@ -1672,12 +1700,12 @@
       <c r="E20" s="3">
         <v>7.1900000000000006E-2</v>
       </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
     </row>
     <row r="21" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
@@ -1724,21 +1752,21 @@
         <v>7.6100000000000001E-2</v>
       </c>
       <c r="F22" s="12">
-        <v>2319</v>
+        <v>2326</v>
       </c>
       <c r="G22" s="12">
-        <v>33.46</v>
+        <v>33.69</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12">
-        <v>1757</v>
+        <v>1766</v>
       </c>
       <c r="J22" s="12">
-        <v>15.98</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="K22" s="12">
         <f>(F22*G22+I22*J22)/(F22+I22)</f>
-        <v>25.925073601570169</v>
+        <v>26.137458455522967</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1754,6 +1782,36 @@
       </c>
       <c r="E23" s="3">
         <v>8.1600000000000006E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="20">
+        <v>12095.71</v>
+      </c>
+      <c r="D24" s="20">
+        <v>25.81</v>
+      </c>
+      <c r="E24" s="3">
+        <v>8.0799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="21">
+        <v>12631.63</v>
+      </c>
+      <c r="D25" s="21">
+        <v>26.14</v>
+      </c>
+      <c r="E25" s="3">
+        <v>7.9399999999999998E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1777,7 +1835,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1791,31 +1849,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="21">
-        <v>2330.48</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="23">
+        <v>4043</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1824,10 +1882,10 @@
       <c r="A4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="25">
         <v>-1.49</v>
       </c>
-      <c r="C4" s="23"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="3">
         <v>0</v>
       </c>
@@ -1836,10 +1894,10 @@
       <c r="A5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="25">
         <v>-0.06</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="3">
         <v>-3.0000000000000001E-3</v>
       </c>
@@ -1848,10 +1906,10 @@
       <c r="A6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="25">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -1860,10 +1918,10 @@
       <c r="A7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="25">
         <v>14.52</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="3">
         <v>1.1999999999999999E-3</v>
       </c>
@@ -1872,79 +1930,91 @@
       <c r="A8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="25">
         <v>9.6300000000000008</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="3">
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="25">
+        <v>4.66</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="3">
+        <v>4.4999999999999997E-3</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="25">
+        <v>14.48</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="3">
+        <v>1.8E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="3"/>
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/基金总结.xlsx
+++ b/基金总结.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439D33AE-6846-4FE7-A00C-4D6D7B6905B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C281457B-5E3E-434E-8E1F-27EEC8F2435C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
   <si>
     <t>今年收益率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,6 +313,10 @@
   </si>
   <si>
     <t>2020/11/21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/11/29</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -483,6 +487,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -688,6 +695,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>7.9399999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.8E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -808,7 +818,7 @@
             <c:strRef>
               <c:f>日定投策略!$A$5:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2020/10/29</c:v>
                 </c:pt>
@@ -826,6 +836,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2020/11/21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020/11/29</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -856,6 +869,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4000000000000003E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1345,10 +1361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1366,43 +1382,43 @@
       <c r="A1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>44614.27</v>
+        <v>44801</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="23">
-        <v>103074.07</v>
-      </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24">
+        <v>102731</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>21968.01</v>
+        <v>22147.119999999999</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="9">
         <f>SUM(A2:A19)</f>
-        <v>66582.28</v>
+        <v>66948.12</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="6">
         <f>C2-E2-C3</f>
-        <v>36491.790000000008</v>
+        <v>35782.880000000005</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1569,25 +1585,25 @@
       </c>
       <c r="F14" s="13">
         <f>$K$22</f>
-        <v>26.137458455522967</v>
+        <v>25.893182150694955</v>
       </c>
       <c r="G14">
         <v>16</v>
       </c>
       <c r="H14">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="I14">
         <f>E3/C2</f>
-        <v>0.35403462771965838</v>
+        <v>0.34831628232957923</v>
       </c>
       <c r="J14">
         <f>IF(((H14-F14)/(H14-G14))&lt;0,0,((H14-F14)/(H14-G14)))*0.7+0.3</f>
-        <v>0.3</v>
+        <v>0.34045452328700299</v>
       </c>
       <c r="K14" s="14">
         <f>(C2*J14-E3)*J14</f>
-        <v>-1670.870700000002</v>
+        <v>-274.96685927099725</v>
       </c>
       <c r="L14" s="11"/>
     </row>
@@ -1603,14 +1619,14 @@
       <c r="E15" s="3">
         <v>5.7799999999999997E-2</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
     </row>
     <row r="16" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
@@ -1624,12 +1640,12 @@
       <c r="E16" s="3">
         <v>6.3200000000000006E-2</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
     </row>
     <row r="17" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
@@ -1643,12 +1659,12 @@
       <c r="E17" s="3">
         <v>6.54E-2</v>
       </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
     </row>
     <row r="18" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
@@ -1662,12 +1678,12 @@
       <c r="E18" s="3">
         <v>6.0199999999999997E-2</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
     </row>
     <row r="19" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
@@ -1681,12 +1697,12 @@
       <c r="E19" s="3">
         <v>6.2899999999999998E-2</v>
       </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
     </row>
     <row r="20" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
@@ -1700,12 +1716,12 @@
       <c r="E20" s="3">
         <v>7.1900000000000006E-2</v>
       </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
     </row>
     <row r="21" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
@@ -1752,21 +1768,21 @@
         <v>7.6100000000000001E-2</v>
       </c>
       <c r="F22" s="12">
-        <v>2326</v>
+        <v>2332</v>
       </c>
       <c r="G22" s="12">
-        <v>33.69</v>
+        <v>33.14</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12">
-        <v>1766</v>
+        <v>1769</v>
       </c>
       <c r="J22" s="12">
-        <v>16.190000000000001</v>
+        <v>16.34</v>
       </c>
       <c r="K22" s="12">
         <f>(F22*G22+I22*J22)/(F22+I22)</f>
-        <v>26.137458455522967</v>
+        <v>25.893182150694955</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1812,6 +1828,21 @@
       </c>
       <c r="E25" s="3">
         <v>7.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="22">
+        <v>12200.58</v>
+      </c>
+      <c r="D26" s="22">
+        <v>25.89</v>
+      </c>
+      <c r="E26" s="3">
+        <v>7.8E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1835,7 +1866,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1849,31 +1880,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="24">
         <v>4043</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1882,10 +1913,10 @@
       <c r="A4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="26">
         <v>-1.49</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="3">
         <v>0</v>
       </c>
@@ -1894,10 +1925,10 @@
       <c r="A5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="26">
         <v>-0.06</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="3">
         <v>-3.0000000000000001E-3</v>
       </c>
@@ -1906,10 +1937,10 @@
       <c r="A6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="26">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -1918,10 +1949,10 @@
       <c r="A7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="26">
         <v>14.52</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="3">
         <v>1.1999999999999999E-3</v>
       </c>
@@ -1930,10 +1961,10 @@
       <c r="A8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="26">
         <v>9.6300000000000008</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="3">
         <v>5.1000000000000004E-3</v>
       </c>
@@ -1942,10 +1973,10 @@
       <c r="A9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="26">
         <v>4.66</v>
       </c>
-      <c r="C9" s="25"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="3">
         <v>4.4999999999999997E-3</v>
       </c>
@@ -1954,72 +1985,82 @@
       <c r="A10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="26">
         <v>14.48</v>
       </c>
-      <c r="C10" s="25"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="3">
         <v>1.8E-3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="26">
+        <v>24.22</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="3">
+        <v>4.4000000000000003E-3</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="3"/>
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B14:C14"/>
@@ -2035,10 +2076,6 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/基金总结.xlsx
+++ b/基金总结.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C281457B-5E3E-434E-8E1F-27EEC8F2435C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E523F7-1D07-4273-9F22-C795FE5BD103}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
   <si>
     <t>今年收益率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -317,6 +317,10 @@
   </si>
   <si>
     <t>2020/11/29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/12/06</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -501,6 +505,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -510,10 +517,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -698,6 +705,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>7.8E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.4099999999999994E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -818,7 +828,7 @@
             <c:strRef>
               <c:f>日定投策略!$A$5:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2020/10/29</c:v>
                 </c:pt>
@@ -839,6 +849,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2020/11/29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020/12/06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -872,6 +885,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1361,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1382,43 +1398,43 @@
       <c r="A1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>44801</v>
+        <v>44954.080000000002</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="24">
-        <v>102731</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25">
+        <v>103715.99</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>22147.119999999999</v>
+        <v>22578.01</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="9">
         <f>SUM(A2:A19)</f>
-        <v>66948.12</v>
+        <v>67532.09</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="6">
         <f>C2-E2-C3</f>
-        <v>35782.880000000005</v>
+        <v>36183.900000000009</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1585,7 +1601,7 @@
       </c>
       <c r="F14" s="13">
         <f>$K$22</f>
-        <v>25.893182150694955</v>
+        <v>26.396900243309005</v>
       </c>
       <c r="G14">
         <v>16</v>
@@ -1595,15 +1611,15 @@
       </c>
       <c r="I14">
         <f>E3/C2</f>
-        <v>0.34831628232957923</v>
+        <v>0.34887484562409332</v>
       </c>
       <c r="J14">
         <f>IF(((H14-F14)/(H14-G14))&lt;0,0,((H14-F14)/(H14-G14)))*0.7+0.3</f>
-        <v>0.34045452328700299</v>
+        <v>0.30687331711273297</v>
       </c>
       <c r="K14" s="14">
         <f>(C2*J14-E3)*J14</f>
-        <v>-274.96685927099725</v>
+        <v>-1336.8107842901027</v>
       </c>
       <c r="L14" s="11"/>
     </row>
@@ -1619,14 +1635,14 @@
       <c r="E15" s="3">
         <v>5.7799999999999997E-2</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
     </row>
     <row r="16" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
@@ -1640,12 +1656,12 @@
       <c r="E16" s="3">
         <v>6.3200000000000006E-2</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
     </row>
     <row r="17" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
@@ -1659,12 +1675,12 @@
       <c r="E17" s="3">
         <v>6.54E-2</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
     </row>
     <row r="18" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
@@ -1678,12 +1694,12 @@
       <c r="E18" s="3">
         <v>6.0199999999999997E-2</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
     </row>
     <row r="19" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
@@ -1697,12 +1713,12 @@
       <c r="E19" s="3">
         <v>6.2899999999999998E-2</v>
       </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
     </row>
     <row r="20" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
@@ -1716,12 +1732,12 @@
       <c r="E20" s="3">
         <v>7.1900000000000006E-2</v>
       </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
     </row>
     <row r="21" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
@@ -1768,21 +1784,21 @@
         <v>7.6100000000000001E-2</v>
       </c>
       <c r="F22" s="12">
-        <v>2332</v>
+        <v>2336</v>
       </c>
       <c r="G22" s="12">
-        <v>33.14</v>
+        <v>33.89</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12">
-        <v>1769</v>
+        <v>1774</v>
       </c>
       <c r="J22" s="12">
-        <v>16.34</v>
+        <v>16.53</v>
       </c>
       <c r="K22" s="12">
         <f>(F22*G22+I22*J22)/(F22+I22)</f>
-        <v>25.893182150694955</v>
+        <v>26.396900243309005</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1843,6 +1859,21 @@
       </c>
       <c r="E26" s="3">
         <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="23">
+        <v>13144.84</v>
+      </c>
+      <c r="D27" s="23">
+        <v>26.4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>8.4099999999999994E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1866,7 +1897,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1880,22 +1911,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="24">
-        <v>4043</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="25">
+        <v>7129.57</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1913,10 +1944,10 @@
       <c r="A4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="28">
         <v>-1.49</v>
       </c>
-      <c r="C4" s="26"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="3">
         <v>0</v>
       </c>
@@ -1925,10 +1956,10 @@
       <c r="A5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="28">
         <v>-0.06</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="3">
         <v>-3.0000000000000001E-3</v>
       </c>
@@ -1937,10 +1968,10 @@
       <c r="A6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="28">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -1949,10 +1980,10 @@
       <c r="A7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="28">
         <v>14.52</v>
       </c>
-      <c r="C7" s="26"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="3">
         <v>1.1999999999999999E-3</v>
       </c>
@@ -1961,10 +1992,10 @@
       <c r="A8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="28">
         <v>9.6300000000000008</v>
       </c>
-      <c r="C8" s="26"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="3">
         <v>5.1000000000000004E-3</v>
       </c>
@@ -1973,10 +2004,10 @@
       <c r="A9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="28">
         <v>4.66</v>
       </c>
-      <c r="C9" s="26"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="3">
         <v>4.4999999999999997E-3</v>
       </c>
@@ -1985,10 +2016,10 @@
       <c r="A10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="28">
         <v>14.48</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="3">
         <v>1.8E-3</v>
       </c>
@@ -1997,66 +2028,75 @@
       <c r="A11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="28">
         <v>24.22</v>
       </c>
-      <c r="C11" s="26"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="3">
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="28">
+        <v>51.62</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="3">
+        <v>7.3000000000000001E-3</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="3"/>
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
@@ -2073,9 +2113,6 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/基金总结.xlsx
+++ b/基金总结.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E523F7-1D07-4273-9F22-C795FE5BD103}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239AA278-8539-46C3-9E42-035135EE4BE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -517,10 +517,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1018,15 +1018,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
+      <xdr:colOff>130174</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2832100</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1380,7 +1380,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1897,7 +1897,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1932,10 +1932,10 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1944,10 +1944,10 @@
       <c r="A4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="27">
         <v>-1.49</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="3">
         <v>0</v>
       </c>
@@ -1956,10 +1956,10 @@
       <c r="A5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="27">
         <v>-0.06</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="3">
         <v>-3.0000000000000001E-3</v>
       </c>
@@ -1968,10 +1968,10 @@
       <c r="A6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="27">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C6" s="28"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -1980,10 +1980,10 @@
       <c r="A7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="27">
         <v>14.52</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="3">
         <v>1.1999999999999999E-3</v>
       </c>
@@ -1992,10 +1992,10 @@
       <c r="A8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="27">
         <v>9.6300000000000008</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="3">
         <v>5.1000000000000004E-3</v>
       </c>
@@ -2004,10 +2004,10 @@
       <c r="A9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="27">
         <v>4.66</v>
       </c>
-      <c r="C9" s="28"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="3">
         <v>4.4999999999999997E-3</v>
       </c>
@@ -2016,10 +2016,10 @@
       <c r="A10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="27">
         <v>14.48</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="3">
         <v>1.8E-3</v>
       </c>
@@ -2028,10 +2028,10 @@
       <c r="A11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="27">
         <v>24.22</v>
       </c>
-      <c r="C11" s="28"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="3">
         <v>4.4000000000000003E-3</v>
       </c>
@@ -2040,67 +2040,60 @@
       <c r="A12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="27">
         <v>51.62</v>
       </c>
-      <c r="C12" s="28"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="3">
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="3"/>
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B14:C14"/>
@@ -2113,6 +2106,13 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/基金总结.xlsx
+++ b/基金总结.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239AA278-8539-46C3-9E42-035135EE4BE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3CFECA-8961-4F0A-8785-3F8DAA07541A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,13 +12,14 @@
     <sheet name="日定投策略" sheetId="4" r:id="rId2"/>
     <sheet name="投资总结" sheetId="6" r:id="rId3"/>
     <sheet name="投资准则" sheetId="2" r:id="rId4"/>
+    <sheet name="草稿" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="156">
   <si>
     <t>今年收益率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020/7/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基金投资</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -56,14 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020/8/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020/8/9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>现总金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,14 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020/9/06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020/9/13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>实际仓位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,10 +190,6 @@
   </si>
   <si>
     <t>债券求和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020/10/13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -264,34 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>月份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>九月份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十月份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2020/11/7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,6 +270,382 @@
   </si>
   <si>
     <t>2020/12/06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构持仓比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>519769</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银优选回报灵活配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李娜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>519771</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银优择回报灵活配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>519732</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银定期支付双息平衡混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨浩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001182</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达安心回报混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张清华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>519697</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银优势行业混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何帅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000751</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉实新兴产业股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归凯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>519736</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银施罗德新成长混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王崇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银施罗德持续成长主题混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>163406</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴权合润分级混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢治宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达中小盘混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张坤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>519772</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银施罗德新生活力灵活配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003494</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国天惠成长混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱少醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>519700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银主题优选混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈楠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧盛世成长混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生加银策略精选灵活配置混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000940</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国中小盘混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹晋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>008315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上投摩根慧选成长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李德辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>519704</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银施罗德先进制造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>519066</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富蓝筹稳健混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷鸣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>166011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农银研究精选灵活配置混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵诣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005421</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧嘉泽灵活配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许文星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002307</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银华多元视野灵活配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000584</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新华鑫益灵活配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栾超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓位控制频率变化高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银华富裕主题混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦巍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>660010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农银汇理策略精选混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002555</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博时沪港深优质企业灵活配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王俊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001714</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银瑞信文体产业股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁芳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>260108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景顺长城新兴成长混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘彦春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161903</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万家行业优选混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄兴亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进攻性基金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/12/20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,7 +772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -508,6 +833,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -523,6 +851,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -574,7 +904,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>动平衡策略!$B$5:$B$22</c:f>
+              <c:f>动平衡策略!$B$5:$B$26</c:f>
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
@@ -584,62 +914,62 @@
                   <c:v>2020/6/26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2020/7/5</c:v>
+                  <c:v>2020/7/12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2020/7/12</c:v>
+                  <c:v>2020/7/26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2020/7/26</c:v>
+                  <c:v>2020/8/16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2020/8/2</c:v>
+                  <c:v>2020/8/23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2020/8/9</c:v>
+                  <c:v>2020/9/20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2020/8/16</c:v>
+                  <c:v>2020/9/26</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2020/8/23</c:v>
+                  <c:v>2020/9/28</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2020/9/06</c:v>
+                  <c:v>2020/10/25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2020/9/13</c:v>
+                  <c:v>2020/10/29</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2020/9/20</c:v>
+                  <c:v>2020/11/7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2020/9/26</c:v>
+                  <c:v>2020/11/12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2020/9/28</c:v>
+                  <c:v>2020/11/15</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2020/10/13</c:v>
+                  <c:v>2020/11/21</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2020/10/25</c:v>
+                  <c:v>2020/11/29</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2020/10/29</c:v>
+                  <c:v>2020/12/06</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2020/11/7</c:v>
+                  <c:v>2020/12/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>动平衡策略!$E$5:$E$28</c:f>
+              <c:f>动平衡策略!$E$5:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1.67E-2</c:v>
                 </c:pt>
@@ -647,67 +977,52 @@
                   <c:v>2.9899999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.56E-2</c:v>
+                  <c:v>5.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2999999999999999E-2</c:v>
+                  <c:v>5.8700000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8700000000000002E-2</c:v>
+                  <c:v>5.9200000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.7799999999999997E-2</c:v>
+                  <c:v>6.3799999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.4399999999999999E-2</c:v>
+                  <c:v>6.3200000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.9200000000000003E-2</c:v>
+                  <c:v>6.54E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.3799999999999996E-2</c:v>
+                  <c:v>6.0199999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.17E-2</c:v>
+                  <c:v>7.1900000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.7799999999999997E-2</c:v>
+                  <c:v>6.6699999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.3200000000000006E-2</c:v>
+                  <c:v>7.6100000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.54E-2</c:v>
+                  <c:v>8.1600000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.0199999999999997E-2</c:v>
+                  <c:v>8.0799999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.2899999999999998E-2</c:v>
+                  <c:v>7.9399999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.1900000000000006E-2</c:v>
+                  <c:v>7.8E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.6699999999999995E-2</c:v>
+                  <c:v>8.4099999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.6100000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.1600000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8.0799999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7.9399999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.8E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8.4099999999999994E-2</c:v>
+                  <c:v>8.4500000000000006E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -828,7 +1143,7 @@
             <c:strRef>
               <c:f>日定投策略!$A$5:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2020/10/29</c:v>
                 </c:pt>
@@ -852,6 +1167,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2020/12/06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020/12/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -888,6 +1206,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>7.3000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.8999999999999999E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1377,10 +1698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1396,45 +1717,45 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+        <v>42</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>44954.080000000002</v>
+        <v>44425.45</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="25">
-        <v>103715.99</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+        <v>8</v>
+      </c>
+      <c r="C2" s="26">
+        <v>104552.73</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>22578.01</v>
+        <v>23557.99</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" s="9">
-        <f>SUM(A2:A19)</f>
-        <v>67532.09</v>
+        <f>SUM(A2:A14)</f>
+        <v>67983.44</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" s="6">
         <f>C2-E2-C3</f>
-        <v>36183.900000000009</v>
+        <v>36569.289999999994</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1446,7 +1767,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>0</v>
@@ -1481,14 +1802,14 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="17">
-        <v>5769.18</v>
+        <v>7855.73</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="3">
-        <v>3.56E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1497,111 +1818,111 @@
         <v>7</v>
       </c>
       <c r="C8" s="17">
-        <v>7855.73</v>
+        <v>7626.98</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="3">
-        <v>5.2999999999999999E-2</v>
+        <v>5.8700000000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C9" s="17">
-        <v>7626.98</v>
+        <v>9451.59</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="3">
-        <v>5.8700000000000002E-2</v>
+        <v>5.9200000000000003E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C10" s="17">
-        <v>9057.7900000000009</v>
+        <v>9607.81</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="3">
-        <v>5.7799999999999997E-2</v>
+        <v>6.3799999999999996E-2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C11" s="17">
-        <v>9471.3700000000008</v>
+        <v>10187.49</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="3">
-        <v>6.4399999999999999E-2</v>
+        <v>6.3200000000000006E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C12" s="17">
-        <v>9451.59</v>
+        <v>9719.7099999999991</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="3">
-        <v>5.9200000000000003E-2</v>
+        <v>6.54E-2</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C13" s="17">
-        <v>9607.81</v>
+        <v>9118.0400000000009</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="3">
-        <v>6.3799999999999996E-2</v>
+        <v>6.0199999999999997E-2</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C14" s="17">
-        <v>10621</v>
+        <v>10050.39</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="3">
-        <v>7.17E-2</v>
+        <v>7.1900000000000006E-2</v>
       </c>
       <c r="F14" s="13">
         <f>$K$22</f>
-        <v>26.396900243309005</v>
+        <v>26.004658430232556</v>
       </c>
       <c r="G14">
         <v>16</v>
@@ -1611,269 +1932,206 @@
       </c>
       <c r="I14">
         <f>E3/C2</f>
-        <v>0.34887484562409332</v>
+        <v>0.34976886782391997</v>
       </c>
       <c r="J14">
         <f>IF(((H14-F14)/(H14-G14))&lt;0,0,((H14-F14)/(H14-G14)))*0.7+0.3</f>
-        <v>0.30687331711273297</v>
+        <v>0.33302277131782954</v>
       </c>
       <c r="K14" s="14">
         <f>(C2*J14-E3)*J14</f>
-        <v>-1336.8107842901027</v>
+        <v>-583.07295464713616</v>
       </c>
       <c r="L14" s="11"/>
     </row>
     <row r="15" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C15" s="17">
-        <v>9248.4500000000007</v>
-      </c>
-      <c r="D15" s="17"/>
+        <v>10782.94</v>
+      </c>
+      <c r="D15" s="17">
+        <v>25.67</v>
+      </c>
       <c r="E15" s="3">
-        <v>5.7799999999999997E-2</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
     </row>
     <row r="16" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="C16" s="17">
-        <v>10187.49</v>
-      </c>
-      <c r="D16" s="17"/>
+        <v>12238.76</v>
+      </c>
+      <c r="D16" s="17">
+        <v>25.93</v>
+      </c>
       <c r="E16" s="3">
-        <v>6.3200000000000006E-2</v>
-      </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
+        <v>7.6100000000000001E-2</v>
+      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
     </row>
     <row r="17" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="17">
-        <v>9719.7099999999991</v>
-      </c>
-      <c r="D17" s="17"/>
+        <v>57</v>
+      </c>
+      <c r="C17" s="19">
+        <v>12181.32</v>
+      </c>
+      <c r="D17" s="19">
+        <v>25.93</v>
+      </c>
       <c r="E17" s="3">
-        <v>6.54E-2</v>
-      </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
     </row>
     <row r="18" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="17">
-        <v>9118.0400000000009</v>
-      </c>
-      <c r="D18" s="17"/>
+        <v>58</v>
+      </c>
+      <c r="C18" s="20">
+        <v>12095.71</v>
+      </c>
+      <c r="D18" s="20">
+        <v>25.81</v>
+      </c>
       <c r="E18" s="3">
-        <v>6.0199999999999997E-2</v>
-      </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
+        <v>8.0799999999999997E-2</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="17">
-        <v>11337.72</v>
-      </c>
-      <c r="D19" s="17"/>
+        <v>59</v>
+      </c>
+      <c r="C19" s="21">
+        <v>12631.63</v>
+      </c>
+      <c r="D19" s="21">
+        <v>26.14</v>
+      </c>
       <c r="E19" s="3">
-        <v>6.2899999999999998E-2</v>
-      </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="17">
-        <v>10050.39</v>
-      </c>
-      <c r="D20" s="17"/>
+        <v>60</v>
+      </c>
+      <c r="C20" s="22">
+        <v>12200.58</v>
+      </c>
+      <c r="D20" s="22">
+        <v>25.89</v>
+      </c>
       <c r="E20" s="3">
-        <v>7.1900000000000006E-2</v>
-      </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
+        <v>7.8E-2</v>
+      </c>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
     </row>
     <row r="21" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="17">
-        <v>10782.94</v>
-      </c>
-      <c r="D21" s="17">
-        <v>25.67</v>
+        <v>61</v>
+      </c>
+      <c r="C21" s="23">
+        <v>13144.84</v>
+      </c>
+      <c r="D21" s="23">
+        <v>26.4</v>
       </c>
       <c r="E21" s="3">
-        <v>6.6699999999999995E-2</v>
+        <v>8.4099999999999994E-2</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I21" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J21" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K21" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="17">
-        <v>12238.76</v>
-      </c>
-      <c r="D22" s="17">
-        <v>25.93</v>
+        <v>155</v>
+      </c>
+      <c r="C22" s="24">
+        <v>13208.35</v>
+      </c>
+      <c r="D22" s="24">
+        <v>26</v>
       </c>
       <c r="E22" s="3">
-        <v>7.6100000000000001E-2</v>
+        <v>8.4500000000000006E-2</v>
       </c>
       <c r="F22" s="12">
-        <v>2336</v>
+        <v>2343</v>
       </c>
       <c r="G22" s="12">
-        <v>33.89</v>
+        <v>33.36</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12">
-        <v>1774</v>
+        <v>1785</v>
       </c>
       <c r="J22" s="12">
-        <v>16.53</v>
+        <v>16.350000000000001</v>
       </c>
       <c r="K22" s="12">
         <f>(F22*G22+I22*J22)/(F22+I22)</f>
-        <v>26.396900243309005</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="19">
-        <v>12181.32</v>
-      </c>
-      <c r="D23" s="19">
-        <v>25.93</v>
-      </c>
-      <c r="E23" s="3">
-        <v>8.1600000000000006E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="20">
-        <v>12095.71</v>
-      </c>
-      <c r="D24" s="20">
-        <v>25.81</v>
-      </c>
-      <c r="E24" s="3">
-        <v>8.0799999999999997E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="21">
-        <v>12631.63</v>
-      </c>
-      <c r="D25" s="21">
-        <v>26.14</v>
-      </c>
-      <c r="E25" s="3">
-        <v>7.9399999999999998E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="22">
-        <v>12200.58</v>
-      </c>
-      <c r="D26" s="22">
-        <v>25.89</v>
-      </c>
-      <c r="E26" s="3">
-        <v>7.8E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="23">
-        <v>13144.84</v>
-      </c>
-      <c r="D27" s="23">
-        <v>26.4</v>
-      </c>
-      <c r="E27" s="3">
-        <v>8.4099999999999994E-2</v>
+        <v>26.004658430232556</v>
       </c>
     </row>
   </sheetData>
@@ -1897,7 +2155,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1911,189 +2169,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="A1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="25">
-        <v>7129.57</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+        <v>8</v>
+      </c>
+      <c r="B2" s="26">
+        <v>10450.040000000001</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="27">
+        <v>45</v>
+      </c>
+      <c r="B4" s="28">
         <v>-1.49</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="27">
+        <v>53</v>
+      </c>
+      <c r="B5" s="28">
         <v>-0.06</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="3">
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="27">
+        <v>55</v>
+      </c>
+      <c r="B6" s="28">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="27">
+        <v>56</v>
+      </c>
+      <c r="B7" s="28">
         <v>14.52</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="3">
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="27">
+        <v>57</v>
+      </c>
+      <c r="B8" s="28">
         <v>9.6300000000000008</v>
       </c>
-      <c r="C8" s="27"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="3">
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="27">
+        <v>58</v>
+      </c>
+      <c r="B9" s="28">
         <v>4.66</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="3">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="27">
+        <v>59</v>
+      </c>
+      <c r="B10" s="28">
         <v>14.48</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="3">
         <v>1.8E-3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="27">
+        <v>60</v>
+      </c>
+      <c r="B11" s="28">
         <v>24.22</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="3">
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="27">
+        <v>61</v>
+      </c>
+      <c r="B12" s="28">
         <v>51.62</v>
       </c>
-      <c r="C12" s="27"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="3">
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="28">
+        <v>72.09</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="3">
+        <v>6.8999999999999999E-3</v>
+      </c>
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B14:C14"/>
@@ -2109,10 +2377,6 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2123,63 +2387,639 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385D7E77-67F2-482F-B51B-B693BEB5C855}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="16">
-        <v>-5.2299999999999999E-2</v>
-      </c>
-      <c r="C2" s="16">
-        <v>-6.1800000000000001E-2</v>
-      </c>
-      <c r="D2" s="16">
-        <v>-5.6300000000000003E-2</v>
-      </c>
-      <c r="E2" s="16">
-        <v>-1.0109999999999999E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="16">
-        <v>2E-3</v>
-      </c>
-      <c r="C3" s="16">
-        <v>2.5499999999999998E-2</v>
-      </c>
-      <c r="D3" s="16">
-        <v>3.15E-2</v>
-      </c>
-      <c r="E3" s="16">
-        <v>1.085E-2</v>
+      <c r="F1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="31">
+        <v>44425</v>
+      </c>
+      <c r="F2" s="16">
+        <v>0.90039999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="31">
+        <v>23557</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0.69120000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>17</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="31">
+        <v>5162</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0.14810000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="31">
+        <v>4691</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>21</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="31">
+        <v>3930</v>
+      </c>
+      <c r="F6" s="16">
+        <v>4.36E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>23</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="31">
+        <v>3425</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0.1152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>26</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="31">
+        <v>2905</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0.53869999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="31">
+        <v>2315</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0.83460000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>29</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="31">
+        <v>2233</v>
+      </c>
+      <c r="F10" s="16">
+        <v>8.3699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>24</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="31">
+        <v>1890</v>
+      </c>
+      <c r="F11" s="16">
+        <v>5.6500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>27</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="31">
+        <v>1556</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0.4289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="31">
+        <v>1301</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0.1487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>25</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="31">
+        <v>829</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0.7077</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="31">
+        <v>813</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0.3054</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>28</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="31">
+        <v>707</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0.28949999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>18</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="31">
+        <v>693</v>
+      </c>
+      <c r="F17" s="16">
+        <v>7.7399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="31">
+        <v>676</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0.13969999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="31">
+        <v>645</v>
+      </c>
+      <c r="F19" s="16">
+        <v>0.61729999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>22</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="31">
+        <v>586</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0.29260000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="31">
+        <v>488</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0.3054</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="31">
+        <v>438</v>
+      </c>
+      <c r="F22" s="16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>14</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="31">
+        <v>326</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0.22270000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>13</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="31">
+        <v>215</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0.66259999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>30</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="31">
+        <v>196</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0.56579999999999997</v>
+      </c>
+      <c r="G25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="31">
+        <v>157</v>
+      </c>
+      <c r="F26" s="16">
+        <v>7.3099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>15</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="31">
+        <v>133</v>
+      </c>
+      <c r="F27" s="16">
+        <v>0.26529999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" s="31">
+        <v>101</v>
+      </c>
+      <c r="F28" s="16">
+        <v>0.98650000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>9</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="31">
+        <v>57</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0.76180000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="31">
+        <v>53</v>
+      </c>
+      <c r="F30" s="16">
+        <v>6.59E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" s="31">
+        <v>10</v>
+      </c>
+      <c r="F31" s="16">
+        <v>0.12529999999999999</v>
+      </c>
+      <c r="G31" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2201,108 +3041,123 @@
   <sheetData>
     <row r="3" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC77FD9-C0E5-4CBC-A5BB-A4000BE166D8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/基金总结.xlsx
+++ b/基金总结.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3CFECA-8961-4F0A-8785-3F8DAA07541A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68AC8C5-EC53-446B-9E12-6170BD012BD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="动平衡策略" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="155">
   <si>
     <t>今年收益率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -429,18 +429,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>519700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交银主题优选混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沈楠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>004233</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -565,10 +553,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>仓位控制频率变化高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>180012</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -641,11 +625,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进攻性基金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2020/12/20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸿德远见回报混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邬传雁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重仓股票占比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -836,6 +832,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -845,14 +843,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1700,7 +1696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -1719,12 +1715,12 @@
       <c r="A1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
@@ -1733,11 +1729,11 @@
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="28">
         <v>104552.73</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
@@ -1958,14 +1954,14 @@
       <c r="E15" s="3">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
     </row>
     <row r="16" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
@@ -1981,12 +1977,12 @@
       <c r="E16" s="3">
         <v>7.6100000000000001E-2</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
     </row>
     <row r="17" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
@@ -2002,12 +1998,12 @@
       <c r="E17" s="3">
         <v>8.1600000000000006E-2</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
     </row>
     <row r="18" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
@@ -2023,12 +2019,12 @@
       <c r="E18" s="3">
         <v>8.0799999999999997E-2</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
     </row>
     <row r="19" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
@@ -2044,12 +2040,12 @@
       <c r="E19" s="3">
         <v>7.9399999999999998E-2</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
     </row>
     <row r="20" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
@@ -2065,12 +2061,12 @@
       <c r="E20" s="3">
         <v>7.8E-2</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
     </row>
     <row r="21" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
@@ -2105,7 +2101,7 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C22" s="24">
         <v>13208.35</v>
@@ -2169,31 +2165,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="28">
         <v>10450.040000000001</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2202,10 +2198,10 @@
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="31">
         <v>-1.49</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="3">
         <v>0</v>
       </c>
@@ -2214,10 +2210,10 @@
       <c r="A5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="31">
         <v>-0.06</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="3">
         <v>-3.0000000000000001E-3</v>
       </c>
@@ -2226,10 +2222,10 @@
       <c r="A6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="31">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C6" s="28"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -2238,10 +2234,10 @@
       <c r="A7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="31">
         <v>14.52</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="3">
         <v>1.1999999999999999E-3</v>
       </c>
@@ -2250,10 +2246,10 @@
       <c r="A8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="31">
         <v>9.6300000000000008</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="3">
         <v>5.1000000000000004E-3</v>
       </c>
@@ -2262,10 +2258,10 @@
       <c r="A9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="31">
         <v>4.66</v>
       </c>
-      <c r="C9" s="28"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="3">
         <v>4.4999999999999997E-3</v>
       </c>
@@ -2274,10 +2270,10 @@
       <c r="A10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="31">
         <v>14.48</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="3">
         <v>1.8E-3</v>
       </c>
@@ -2286,10 +2282,10 @@
       <c r="A11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="31">
         <v>24.22</v>
       </c>
-      <c r="C11" s="28"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="3">
         <v>4.4000000000000003E-3</v>
       </c>
@@ -2298,22 +2294,22 @@
       <c r="A12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="31">
         <v>51.62</v>
       </c>
-      <c r="C12" s="28"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="3">
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B13" s="28">
+        <v>150</v>
+      </c>
+      <c r="B13" s="31">
         <v>72.09</v>
       </c>
-      <c r="C13" s="28"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="3">
         <v>6.8999999999999999E-3</v>
       </c>
@@ -2321,43 +2317,46 @@
     </row>
     <row r="14" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
@@ -2374,9 +2373,6 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2387,15 +2383,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385D7E77-67F2-482F-B51B-B693BEB5C855}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>62</v>
       </c>
@@ -2414,615 +2416,701 @@
       <c r="F1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="15"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G1" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="26">
+        <v>813</v>
+      </c>
+      <c r="F2" s="16">
+        <v>0.3054</v>
+      </c>
+      <c r="G2" s="16">
+        <v>0.35010000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="26">
+        <v>676</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0.13969999999999999</v>
+      </c>
+      <c r="G3" s="16">
+        <v>0.52429999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="26">
+        <v>1301</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0.1487</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0.37340000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="26">
+        <v>101</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.47960000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="26">
         <v>10</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="F6" s="16">
+        <v>0.12529999999999999</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0.70030000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="26">
+        <v>23557</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0.69120000000000004</v>
+      </c>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="26">
+        <v>488</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0.3054</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0.35010000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="26">
+        <v>53</v>
+      </c>
+      <c r="F9" s="16">
+        <v>6.59E-2</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0.65329999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="26">
+        <v>57</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0.76180000000000003</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0.33350000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C11" t="s">
         <v>69</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D11" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E11" s="26">
         <v>44425</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F11" s="16">
         <v>0.90039999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="31">
-        <v>23557</v>
-      </c>
-      <c r="F3" s="16">
-        <v>0.69120000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>17</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="31">
-        <v>5162</v>
-      </c>
-      <c r="F4" s="16">
-        <v>0.14810000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B12" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C12" t="s">
         <v>77</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D12" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E12" s="26">
         <v>4691</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F12" s="16">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>21</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="31">
-        <v>3930</v>
-      </c>
-      <c r="F6" s="16">
-        <v>4.36E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>23</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="31">
-        <v>3425</v>
-      </c>
-      <c r="F7" s="16">
-        <v>0.1152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>26</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="31">
-        <v>2905</v>
-      </c>
-      <c r="F8" s="16">
-        <v>0.53869999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>20</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="31">
-        <v>2315</v>
-      </c>
-      <c r="F9" s="16">
-        <v>0.83460000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>29</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="31">
-        <v>2233</v>
-      </c>
-      <c r="F10" s="16">
-        <v>8.3699999999999997E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>24</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="31">
-        <v>1890</v>
-      </c>
-      <c r="F11" s="16">
-        <v>5.6500000000000002E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>27</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="31">
-        <v>1556</v>
-      </c>
-      <c r="F12" s="16">
-        <v>0.4289</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="16">
+        <v>0.24179999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>98</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>132</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="31">
-        <v>1301</v>
+        <v>134</v>
+      </c>
+      <c r="E13" s="26">
+        <v>157</v>
       </c>
       <c r="F13" s="16">
-        <v>0.1487</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7.3099999999999998E-2</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0.67710000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>25</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>101</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>126</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="31">
-        <v>829</v>
+        <v>127</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="26">
+        <v>215</v>
       </c>
       <c r="F14" s="16">
-        <v>0.7077</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.66259999999999997</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0.35560000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>105</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" t="s">
+        <v>124</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="31">
-        <v>813</v>
+        <v>125</v>
+      </c>
+      <c r="E15" s="26">
+        <v>326</v>
       </c>
       <c r="F15" s="16">
-        <v>0.3054</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.22270000000000001</v>
+      </c>
+      <c r="G15" s="16">
+        <v>0.46539999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>28</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>107</v>
+        <v>15</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>135</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="31">
-        <v>707</v>
+        <v>137</v>
+      </c>
+      <c r="E16" s="26">
+        <v>133</v>
       </c>
       <c r="F16" s="16">
-        <v>0.28949999999999998</v>
+        <v>0.26529999999999998</v>
+      </c>
+      <c r="G16" s="16">
+        <v>0.52059999999999995</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>18</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>110</v>
+        <v>16</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" s="31">
-        <v>693</v>
+        <v>122</v>
+      </c>
+      <c r="E17" s="26">
+        <v>438</v>
       </c>
       <c r="F17" s="16">
-        <v>7.7399999999999997E-2</v>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G17" s="16">
+        <v>0.61419999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18" s="31">
-        <v>676</v>
+        <v>17</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="26">
+        <v>5162</v>
       </c>
       <c r="F18" s="16">
-        <v>0.13969999999999999</v>
+        <v>0.14810000000000001</v>
+      </c>
+      <c r="G18" s="16">
+        <v>0.44259999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>116</v>
+        <v>18</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>107</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
-      </c>
-      <c r="E19" s="31">
-        <v>645</v>
+        <v>109</v>
+      </c>
+      <c r="E19" s="26">
+        <v>693</v>
       </c>
       <c r="F19" s="16">
-        <v>0.61729999999999996</v>
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="G19" s="16">
+        <v>0.46889999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>22</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>119</v>
+        <v>19</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>113</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" s="31">
-        <v>586</v>
+        <v>115</v>
+      </c>
+      <c r="E20" s="26">
+        <v>645</v>
       </c>
       <c r="F20" s="16">
-        <v>0.29260000000000003</v>
+        <v>0.61729999999999996</v>
+      </c>
+      <c r="G20" s="16">
+        <v>0.41980000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>7</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" s="31">
-        <v>488</v>
+        <v>20</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="26">
+        <v>2315</v>
       </c>
       <c r="F21" s="16">
-        <v>0.3054</v>
+        <v>0.83460000000000001</v>
+      </c>
+      <c r="G21" s="16">
+        <v>0.56789999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>16</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>123</v>
+        <v>21</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
-      </c>
-      <c r="E22" s="31">
-        <v>438</v>
+        <v>81</v>
+      </c>
+      <c r="E22" s="26">
+        <v>3930</v>
       </c>
       <c r="F22" s="16">
-        <v>3.0000000000000001E-3</v>
+        <v>4.36E-2</v>
+      </c>
+      <c r="G22" s="16">
+        <v>0.47339999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>14</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>126</v>
+        <v>22</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>116</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" s="31">
-        <v>326</v>
+        <v>117</v>
+      </c>
+      <c r="D23" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="26">
+        <v>586</v>
       </c>
       <c r="F23" s="16">
-        <v>0.22270000000000001</v>
+        <v>0.29260000000000003</v>
+      </c>
+      <c r="G23" s="16">
+        <v>0.45290000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>13</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>129</v>
+        <v>23</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="E24" s="31">
-        <v>215</v>
+        <v>83</v>
+      </c>
+      <c r="D24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="26">
+        <v>3425</v>
       </c>
       <c r="F24" s="16">
-        <v>0.66259999999999997</v>
+        <v>0.1152</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0.45450000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>30</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>132</v>
+        <v>24</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" s="31">
-        <v>196</v>
+        <v>95</v>
+      </c>
+      <c r="E25" s="26">
+        <v>1890</v>
       </c>
       <c r="F25" s="16">
-        <v>0.56579999999999997</v>
-      </c>
-      <c r="G25" t="s">
-        <v>135</v>
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="G25" s="16">
+        <v>0.70250000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>12</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>136</v>
+        <v>25</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>151</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="D26" t="s">
-        <v>138</v>
-      </c>
-      <c r="E26" s="31">
-        <v>157</v>
+        <v>153</v>
+      </c>
+      <c r="E26" s="26">
+        <v>10</v>
       </c>
       <c r="F26" s="16">
-        <v>7.3099999999999998E-2</v>
+        <v>0.75549999999999995</v>
+      </c>
+      <c r="G26" s="16">
+        <v>0.74129999999999996</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>15</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>139</v>
+        <v>26</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="D27" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" s="31">
-        <v>133</v>
+        <v>87</v>
+      </c>
+      <c r="E27" s="26">
+        <v>2905</v>
       </c>
       <c r="F27" s="16">
-        <v>0.26529999999999998</v>
+        <v>0.53869999999999996</v>
+      </c>
+      <c r="G27" s="16">
+        <v>0.57589999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>142</v>
+        <v>27</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28" s="31">
-        <v>101</v>
+        <v>75</v>
+      </c>
+      <c r="E28" s="26">
+        <v>1556</v>
       </c>
       <c r="F28" s="16">
-        <v>0.98650000000000004</v>
+        <v>0.4289</v>
+      </c>
+      <c r="G28" s="16">
+        <v>0.55430000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>9</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>145</v>
+        <v>28</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="D29" t="s">
-        <v>147</v>
-      </c>
-      <c r="E29" s="31">
-        <v>57</v>
+        <v>106</v>
+      </c>
+      <c r="E29" s="26">
+        <v>707</v>
       </c>
       <c r="F29" s="16">
-        <v>0.76180000000000003</v>
+        <v>0.28949999999999998</v>
+      </c>
+      <c r="G29" s="16">
+        <v>0.58589999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>8</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>148</v>
+        <v>29</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>150</v>
-      </c>
-      <c r="E30" s="31">
-        <v>53</v>
+        <v>92</v>
+      </c>
+      <c r="E30" s="26">
+        <v>2233</v>
       </c>
       <c r="F30" s="16">
-        <v>6.59E-2</v>
+        <v>8.3699999999999997E-2</v>
+      </c>
+      <c r="G30" s="16">
+        <v>0.40889999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>5</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>151</v>
+        <v>30</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="C31" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="D31" t="s">
-        <v>153</v>
-      </c>
-      <c r="E31" s="31">
-        <v>10</v>
+        <v>131</v>
+      </c>
+      <c r="E31" s="26">
+        <v>196</v>
       </c>
       <c r="F31" s="16">
-        <v>0.12529999999999999</v>
-      </c>
-      <c r="G31" t="s">
-        <v>154</v>
+        <v>0.56579999999999997</v>
+      </c>
+      <c r="G31" s="16">
+        <v>0.38379999999999997</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F32">
+    <sortCondition ref="A1:A32"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/基金总结.xlsx
+++ b/基金总结.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68AC8C5-EC53-446B-9E12-6170BD012BD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79699BBD-CE82-4C65-A0CB-5ABDE28BC7CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -843,10 +843,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2186,10 +2186,10 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2198,10 +2198,10 @@
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="30">
         <v>-1.49</v>
       </c>
-      <c r="C4" s="31"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="3">
         <v>0</v>
       </c>
@@ -2210,10 +2210,10 @@
       <c r="A5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="30">
         <v>-0.06</v>
       </c>
-      <c r="C5" s="31"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="3">
         <v>-3.0000000000000001E-3</v>
       </c>
@@ -2222,10 +2222,10 @@
       <c r="A6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="30">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C6" s="31"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -2234,10 +2234,10 @@
       <c r="A7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="30">
         <v>14.52</v>
       </c>
-      <c r="C7" s="31"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="3">
         <v>1.1999999999999999E-3</v>
       </c>
@@ -2246,10 +2246,10 @@
       <c r="A8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="30">
         <v>9.6300000000000008</v>
       </c>
-      <c r="C8" s="31"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="3">
         <v>5.1000000000000004E-3</v>
       </c>
@@ -2258,10 +2258,10 @@
       <c r="A9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="30">
         <v>4.66</v>
       </c>
-      <c r="C9" s="31"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="3">
         <v>4.4999999999999997E-3</v>
       </c>
@@ -2270,10 +2270,10 @@
       <c r="A10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="30">
         <v>14.48</v>
       </c>
-      <c r="C10" s="31"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="3">
         <v>1.8E-3</v>
       </c>
@@ -2282,10 +2282,10 @@
       <c r="A11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="30">
         <v>24.22</v>
       </c>
-      <c r="C11" s="31"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="3">
         <v>4.4000000000000003E-3</v>
       </c>
@@ -2294,10 +2294,10 @@
       <c r="A12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="30">
         <v>51.62</v>
       </c>
-      <c r="C12" s="31"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="3">
         <v>7.3000000000000001E-3</v>
       </c>
@@ -2306,10 +2306,10 @@
       <c r="A13" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="30">
         <v>72.09</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="3">
         <v>6.8999999999999999E-3</v>
       </c>
@@ -2317,50 +2317,43 @@
     </row>
     <row r="14" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B14:C14"/>
@@ -2373,6 +2366,13 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2385,8 +2385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385D7E77-67F2-482F-B51B-B693BEB5C855}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>

--- a/基金总结.xlsx
+++ b/基金总结.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79699BBD-CE82-4C65-A0CB-5ABDE28BC7CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="动平衡策略" sheetId="1" r:id="rId1"/>
@@ -14,12 +13,12 @@
     <sheet name="投资准则" sheetId="2" r:id="rId4"/>
     <sheet name="草稿" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="157">
   <si>
     <t>今年收益率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -644,11 +643,19 @@
     <t>重仓股票占比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2020/12/22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/12/22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -768,7 +775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -834,6 +841,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -867,7 +877,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -881,6 +891,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -902,7 +913,7 @@
             <c:strRef>
               <c:f>动平衡策略!$B$5:$B$26</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>2020/5/17</c:v>
                 </c:pt>
@@ -956,6 +967,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2020/12/20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020/12/22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1024,7 +1038,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EB63-4157-8834-0BCD530F2FDA}"/>
             </c:ext>
@@ -1038,12 +1052,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="125967360"/>
-        <c:axId val="136049408"/>
+        <c:axId val="65476864"/>
+        <c:axId val="80168064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="125967360"/>
+        <c:axId val="65476864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1063,7 +1078,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136049408"/>
+        <c:crossAx val="80168064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1071,7 +1086,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136049408"/>
+        <c:axId val="80168064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1082,13 +1097,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125967360"/>
+        <c:crossAx val="65476864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1104,7 +1120,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1118,6 +1134,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1139,7 +1156,7 @@
             <c:strRef>
               <c:f>日定投策略!$A$5:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2020/10/29</c:v>
                 </c:pt>
@@ -1166,6 +1183,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2020/12/20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020/12/22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1206,11 +1226,14 @@
                 <c:pt idx="9">
                   <c:v>6.8999999999999999E-3</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F617-4238-8B1A-FAB98821962D}"/>
             </c:ext>
@@ -1224,12 +1247,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="125967360"/>
-        <c:axId val="136049408"/>
+        <c:axId val="80189696"/>
+        <c:axId val="98705408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="125967360"/>
+        <c:axId val="80189696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1249,7 +1273,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136049408"/>
+        <c:crossAx val="98705408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1257,7 +1281,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136049408"/>
+        <c:axId val="98705408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1268,13 +1292,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125967360"/>
+        <c:crossAx val="80189696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1309,7 +1334,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,7 +1375,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EA48FDF-88FB-4FE0-9CAA-591832A03EF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7EA48FDF-88FB-4FE0-9CAA-591832A03EF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1416,7 +1441,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1449,26 +1474,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1501,23 +1509,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1693,68 +1684,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="5" width="12.6328125" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="11" max="11" width="51.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.6328125" customWidth="1"/>
+    <col min="11" max="11" width="51.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.625" customWidth="1"/>
     <col min="15" max="16" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="10">
-        <v>44425.45</v>
+        <v>44489</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="28">
-        <v>104552.73</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C2" s="29">
+        <v>104940</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
-        <v>23557.99</v>
+        <v>24397</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="9">
         <f>SUM(A2:A14)</f>
-        <v>67983.44</v>
+        <v>68886</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="6">
         <f>C2-E2-C3</f>
-        <v>36569.289999999994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>36054</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -1769,7 +1760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -1782,7 +1773,7 @@
         <v>1.67E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -1795,7 +1786,7 @@
         <v>2.9899999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -1808,7 +1799,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -1821,7 +1812,7 @@
         <v>5.8700000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -1834,7 +1825,7 @@
         <v>5.9200000000000003E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="2" t="s">
         <v>12</v>
@@ -1847,7 +1838,7 @@
         <v>6.3799999999999996E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="2" t="s">
         <v>14</v>
@@ -1860,7 +1851,7 @@
         <v>6.3200000000000006E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="2" t="s">
         <v>40</v>
@@ -1873,7 +1864,7 @@
         <v>6.54E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="2" t="s">
         <v>41</v>
@@ -1904,7 +1895,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="2" t="s">
         <v>47</v>
@@ -1918,7 +1909,7 @@
       </c>
       <c r="F14" s="13">
         <f>$K$22</f>
-        <v>26.004658430232556</v>
+        <v>25.955203488372089</v>
       </c>
       <c r="G14">
         <v>16</v>
@@ -1928,19 +1919,19 @@
       </c>
       <c r="I14">
         <f>E3/C2</f>
-        <v>0.34976886782391997</v>
+        <v>0.34356775300171527</v>
       </c>
       <c r="J14">
         <f>IF(((H14-F14)/(H14-G14))&lt;0,0,((H14-F14)/(H14-G14)))*0.7+0.3</f>
-        <v>0.33302277131782954</v>
+        <v>0.33631976744186076</v>
       </c>
       <c r="K14" s="14">
         <f>(C2*J14-E3)*J14</f>
-        <v>-583.07295464713616</v>
+        <v>-255.80602743170871</v>
       </c>
       <c r="L14" s="11"/>
     </row>
-    <row r="15" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="2" t="s">
         <v>53</v>
@@ -1954,16 +1945,16 @@
       <c r="E15" s="3">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-    </row>
-    <row r="16" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+    </row>
+    <row r="16" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="2" t="s">
         <v>54</v>
@@ -1977,14 +1968,14 @@
       <c r="E16" s="3">
         <v>7.6100000000000001E-2</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-    </row>
-    <row r="17" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+    </row>
+    <row r="17" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="B17" s="2" t="s">
         <v>57</v>
@@ -1998,14 +1989,14 @@
       <c r="E17" s="3">
         <v>8.1600000000000006E-2</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-    </row>
-    <row r="18" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+    </row>
+    <row r="18" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="2" t="s">
         <v>58</v>
@@ -2019,14 +2010,14 @@
       <c r="E18" s="3">
         <v>8.0799999999999997E-2</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-    </row>
-    <row r="19" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+    </row>
+    <row r="19" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="2" t="s">
         <v>59</v>
@@ -2040,14 +2031,14 @@
       <c r="E19" s="3">
         <v>7.9399999999999998E-2</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-    </row>
-    <row r="20" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+    </row>
+    <row r="20" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="2" t="s">
         <v>60</v>
@@ -2061,14 +2052,14 @@
       <c r="E20" s="3">
         <v>7.8E-2</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-    </row>
-    <row r="21" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+    </row>
+    <row r="21" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="2" t="s">
         <v>61</v>
@@ -2098,7 +2089,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="2" t="s">
         <v>150</v>
@@ -2116,22 +2107,37 @@
         <v>2343</v>
       </c>
       <c r="G22" s="12">
-        <v>33.36</v>
+        <v>33.409999999999997</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12">
         <v>1785</v>
       </c>
       <c r="J22" s="12">
-        <v>16.350000000000001</v>
+        <v>16.170000000000002</v>
       </c>
       <c r="K22" s="12">
         <f>(F22*G22+I22*J22)/(F22+I22)</f>
-        <v>26.004658430232556</v>
+        <v>25.955203488372089</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" s="10"/>
+      <c r="B23" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="27">
+        <v>14101.95</v>
+      </c>
+      <c r="D23" s="27">
+        <v>25.96</v>
+      </c>
+      <c r="E23" s="3">
+        <v>8.7099999999999997E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:B28">
+  <sortState ref="B5:B28">
     <sortCondition ref="B5"/>
   </sortState>
   <mergeCells count="3">
@@ -2147,213 +2153,223 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65D2E28-2B0A-4104-8C2C-76EB54B87C60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="12.6328125" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13" customWidth="1"/>
-    <col min="10" max="10" width="41.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6328125" customWidth="1"/>
+    <col min="10" max="10" width="41.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.625" customWidth="1"/>
     <col min="14" max="15" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="28">
-        <v>10450.040000000001</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="29">
+        <v>11045.7</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="31"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="31">
         <v>-1.49</v>
       </c>
-      <c r="C4" s="30"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="31">
         <v>-0.06</v>
       </c>
-      <c r="C5" s="30"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="3">
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="31">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="31">
         <v>14.52</v>
       </c>
-      <c r="C7" s="30"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="3">
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="31">
         <v>9.6300000000000008</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="3">
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="31">
         <v>4.66</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="3">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="31">
         <v>14.48</v>
       </c>
-      <c r="C10" s="30"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="3">
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="31">
         <v>24.22</v>
       </c>
-      <c r="C11" s="30"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="3">
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="31">
         <v>51.62</v>
       </c>
-      <c r="C12" s="30"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="3">
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="31">
         <v>72.09</v>
       </c>
-      <c r="C13" s="30"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="3">
         <v>6.8999999999999999E-3</v>
       </c>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="31">
+        <v>76.31</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B14:C14"/>
@@ -2369,10 +2385,6 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2382,22 +2394,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385D7E77-67F2-482F-B51B-B693BEB5C855}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="30.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>62</v>
       </c>
@@ -2421,695 +2433,695 @@
       </c>
       <c r="H1" s="15"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2">
+        <v>25</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="26">
+        <v>10</v>
+      </c>
+      <c r="F2" s="16">
+        <v>0.75549999999999995</v>
+      </c>
+      <c r="G2" s="16">
+        <v>0.74129999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>24</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="26">
+        <v>1890</v>
+      </c>
+      <c r="F3" s="16">
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="G3" s="16">
+        <v>0.70250000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="26">
+        <v>10</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0.12529999999999999</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0.70030000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="26">
+        <v>157</v>
+      </c>
+      <c r="F5" s="16">
+        <v>7.3099999999999998E-2</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.67710000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="26">
+        <v>53</v>
+      </c>
+      <c r="F6" s="16">
+        <v>6.59E-2</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0.65329999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="26">
+        <v>438</v>
+      </c>
+      <c r="F7" s="16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0.61419999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>28</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="26">
+        <v>707</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0.28949999999999998</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0.58589999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>26</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="26">
+        <v>2905</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0.53869999999999996</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0.57589999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="26">
+        <v>2315</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0.83460000000000001</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0.56789999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>27</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="26">
+        <v>1556</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0.4289</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0.55430000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="26">
+        <v>676</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0.13969999999999999</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0.52429999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="26">
+        <v>133</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0.26529999999999998</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0.52059999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="26">
+        <v>101</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0.47960000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>21</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="26">
+        <v>3930</v>
+      </c>
+      <c r="F15" s="16">
+        <v>4.36E-2</v>
+      </c>
+      <c r="G15" s="16">
+        <v>0.47339999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>18</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="26">
+        <v>693</v>
+      </c>
+      <c r="F16" s="16">
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="G16" s="16">
+        <v>0.46889999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="26">
+        <v>326</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0.22270000000000001</v>
+      </c>
+      <c r="G17" s="16">
+        <v>0.46539999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>23</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="26">
+        <v>3425</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0.1152</v>
+      </c>
+      <c r="G18" s="16">
+        <v>0.45450000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>22</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="26">
+        <v>586</v>
+      </c>
+      <c r="F19" s="16">
+        <v>0.29260000000000003</v>
+      </c>
+      <c r="G19" s="16">
+        <v>0.45290000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="26">
+        <v>5162</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0.14810000000000001</v>
+      </c>
+      <c r="G20" s="16">
+        <v>0.44259999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="26">
+        <v>645</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0.61729999999999996</v>
+      </c>
+      <c r="G21" s="16">
+        <v>0.41980000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>29</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="26">
+        <v>2233</v>
+      </c>
+      <c r="F22" s="16">
+        <v>8.3699999999999997E-2</v>
+      </c>
+      <c r="G22" s="16">
+        <v>0.40889999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>30</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="26">
+        <v>196</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0.56579999999999997</v>
+      </c>
+      <c r="G23" s="16">
+        <v>0.38379999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="26">
+        <v>1301</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0.1487</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0.37340000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>13</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" s="26">
+        <v>215</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0.66259999999999997</v>
+      </c>
+      <c r="G25" s="16">
+        <v>0.35560000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B26" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C26" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D26" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E26" s="26">
         <v>813</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F26" s="16">
         <v>0.3054</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G26" s="16">
         <v>0.35010000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="26">
-        <v>676</v>
-      </c>
-      <c r="F3" s="16">
-        <v>0.13969999999999999</v>
-      </c>
-      <c r="G3" s="16">
-        <v>0.52429999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="26">
-        <v>1301</v>
-      </c>
-      <c r="F4" s="16">
-        <v>0.1487</v>
-      </c>
-      <c r="G4" s="16">
-        <v>0.37340000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" s="26">
-        <v>101</v>
-      </c>
-      <c r="F5" s="16">
-        <v>0.98650000000000004</v>
-      </c>
-      <c r="G5" s="16">
-        <v>0.47960000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="26">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="26">
+        <v>488</v>
+      </c>
+      <c r="F27" s="16">
+        <v>0.3054</v>
+      </c>
+      <c r="G27" s="16">
+        <v>0.35010000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="26">
+        <v>57</v>
+      </c>
+      <c r="F28" s="16">
+        <v>0.76180000000000003</v>
+      </c>
+      <c r="G28" s="16">
+        <v>0.33350000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>11</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="26">
+        <v>4691</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0.64</v>
+      </c>
+      <c r="G29" s="16">
+        <v>0.24179999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="26">
+        <v>23557</v>
+      </c>
+      <c r="F30" s="16">
+        <v>0.69120000000000004</v>
+      </c>
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31">
         <v>10</v>
       </c>
-      <c r="F6" s="16">
-        <v>0.12529999999999999</v>
-      </c>
-      <c r="G6" s="16">
-        <v>0.70030000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B31" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="26">
-        <v>23557</v>
-      </c>
-      <c r="F7" s="16">
-        <v>0.69120000000000004</v>
-      </c>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="26">
-        <v>488</v>
-      </c>
-      <c r="F8" s="16">
-        <v>0.3054</v>
-      </c>
-      <c r="G8" s="16">
-        <v>0.35010000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" s="26">
-        <v>53</v>
-      </c>
-      <c r="F9" s="16">
-        <v>6.59E-2</v>
-      </c>
-      <c r="G9" s="16">
-        <v>0.65329999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E10" s="26">
-        <v>57</v>
-      </c>
-      <c r="F10" s="16">
-        <v>0.76180000000000003</v>
-      </c>
-      <c r="G10" s="16">
-        <v>0.33350000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="26">
+      <c r="E31" s="26">
         <v>44425</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F31" s="16">
         <v>0.90039999999999998</v>
       </c>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="26">
-        <v>4691</v>
-      </c>
-      <c r="F12" s="16">
-        <v>0.64</v>
-      </c>
-      <c r="G12" s="16">
-        <v>0.24179999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" s="26">
-        <v>157</v>
-      </c>
-      <c r="F13" s="16">
-        <v>7.3099999999999998E-2</v>
-      </c>
-      <c r="G13" s="16">
-        <v>0.67710000000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="E14" s="26">
-        <v>215</v>
-      </c>
-      <c r="F14" s="16">
-        <v>0.66259999999999997</v>
-      </c>
-      <c r="G14" s="16">
-        <v>0.35560000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="E15" s="26">
-        <v>326</v>
-      </c>
-      <c r="F15" s="16">
-        <v>0.22270000000000001</v>
-      </c>
-      <c r="G15" s="16">
-        <v>0.46539999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16" s="26">
-        <v>133</v>
-      </c>
-      <c r="F16" s="16">
-        <v>0.26529999999999998</v>
-      </c>
-      <c r="G16" s="16">
-        <v>0.52059999999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="26">
-        <v>438</v>
-      </c>
-      <c r="F17" s="16">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G17" s="16">
-        <v>0.61419999999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="26">
-        <v>5162</v>
-      </c>
-      <c r="F18" s="16">
-        <v>0.14810000000000001</v>
-      </c>
-      <c r="G18" s="16">
-        <v>0.44259999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="26">
-        <v>693</v>
-      </c>
-      <c r="F19" s="16">
-        <v>7.7399999999999997E-2</v>
-      </c>
-      <c r="G19" s="16">
-        <v>0.46889999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20" s="26">
-        <v>645</v>
-      </c>
-      <c r="F20" s="16">
-        <v>0.61729999999999996</v>
-      </c>
-      <c r="G20" s="16">
-        <v>0.41980000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="26">
-        <v>2315</v>
-      </c>
-      <c r="F21" s="16">
-        <v>0.83460000000000001</v>
-      </c>
-      <c r="G21" s="16">
-        <v>0.56789999999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="26">
-        <v>3930</v>
-      </c>
-      <c r="F22" s="16">
-        <v>4.36E-2</v>
-      </c>
-      <c r="G22" s="16">
-        <v>0.47339999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" t="s">
-        <v>118</v>
-      </c>
-      <c r="E23" s="26">
-        <v>586</v>
-      </c>
-      <c r="F23" s="16">
-        <v>0.29260000000000003</v>
-      </c>
-      <c r="G23" s="16">
-        <v>0.45290000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="26">
-        <v>3425</v>
-      </c>
-      <c r="F24" s="16">
-        <v>0.1152</v>
-      </c>
-      <c r="G24" s="16">
-        <v>0.45450000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="26">
-        <v>1890</v>
-      </c>
-      <c r="F25" s="16">
-        <v>5.6500000000000002E-2</v>
-      </c>
-      <c r="G25" s="16">
-        <v>0.70250000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" t="s">
-        <v>152</v>
-      </c>
-      <c r="D26" t="s">
-        <v>153</v>
-      </c>
-      <c r="E26" s="26">
-        <v>10</v>
-      </c>
-      <c r="F26" s="16">
-        <v>0.75549999999999995</v>
-      </c>
-      <c r="G26" s="16">
-        <v>0.74129999999999996</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="26">
-        <v>2905</v>
-      </c>
-      <c r="F27" s="16">
-        <v>0.53869999999999996</v>
-      </c>
-      <c r="G27" s="16">
-        <v>0.57589999999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="26">
-        <v>1556</v>
-      </c>
-      <c r="F28" s="16">
-        <v>0.4289</v>
-      </c>
-      <c r="G28" s="16">
-        <v>0.55430000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29" s="26">
-        <v>707</v>
-      </c>
-      <c r="F29" s="16">
-        <v>0.28949999999999998</v>
-      </c>
-      <c r="G29" s="16">
-        <v>0.58589999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" s="26">
-        <v>2233</v>
-      </c>
-      <c r="F30" s="16">
-        <v>8.3699999999999997E-2</v>
-      </c>
-      <c r="G30" s="16">
-        <v>0.40889999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="C31" t="s">
-        <v>130</v>
-      </c>
-      <c r="D31" t="s">
-        <v>131</v>
-      </c>
-      <c r="E31" s="26">
-        <v>196</v>
-      </c>
-      <c r="F31" s="16">
-        <v>0.56579999999999997</v>
-      </c>
-      <c r="G31" s="16">
-        <v>0.38379999999999997</v>
-      </c>
+      <c r="G31" s="16"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F32">
-    <sortCondition ref="A1:A32"/>
+  <sortState ref="A2:G31">
+    <sortCondition descending="1" ref="G1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3118,16 +3130,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:I17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
         <v>16</v>
       </c>
@@ -3135,7 +3147,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>17</v>
       </c>
@@ -3143,7 +3155,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>18</v>
       </c>
@@ -3151,7 +3163,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
         <v>19</v>
       </c>
@@ -3159,7 +3171,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>20</v>
       </c>
@@ -3167,7 +3179,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>21</v>
       </c>
@@ -3175,7 +3187,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -3183,7 +3195,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
         <v>23</v>
       </c>
@@ -3191,7 +3203,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
         <v>24</v>
       </c>
@@ -3199,32 +3211,32 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
         <v>30</v>
       </c>
@@ -3236,14 +3248,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC77FD9-C0E5-4CBC-A5BB-A4000BE166D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/基金总结.xlsx
+++ b/基金总结.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613CB9D5-CC88-49D1-81E1-C7DE6AFE8A69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="动平衡策略" sheetId="1" r:id="rId1"/>
@@ -13,12 +14,12 @@
     <sheet name="投资准则" sheetId="2" r:id="rId4"/>
     <sheet name="草稿" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="152">
   <si>
     <t>今年收益率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020/7/12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2020/7/26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,10 +70,6 @@
   </si>
   <si>
     <t>实际仓位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020/9/20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -272,10 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -576,18 +565,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>002555</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博时沪港深优质企业灵活配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王俊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>001714</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -649,13 +626,17 @@
   </si>
   <si>
     <t>2020/12/22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/12/26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -840,7 +821,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -853,10 +836,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -877,7 +860,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -891,7 +874,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -911,9 +893,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>动平衡策略!$B$5:$B$26</c:f>
+              <c:f>动平衡策略!$B$5:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2020/5/17</c:v>
                 </c:pt>
@@ -921,55 +903,52 @@
                   <c:v>2020/6/26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2020/7/12</c:v>
+                  <c:v>2020/7/26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2020/7/26</c:v>
+                  <c:v>2020/8/16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2020/8/16</c:v>
+                  <c:v>2020/8/23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2020/8/23</c:v>
+                  <c:v>2020/9/26</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2020/9/20</c:v>
+                  <c:v>2020/9/28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2020/9/26</c:v>
+                  <c:v>2020/10/25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2020/9/28</c:v>
+                  <c:v>2020/10/29</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2020/10/25</c:v>
+                  <c:v>2020/11/7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2020/10/29</c:v>
+                  <c:v>2020/11/12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2020/11/7</c:v>
+                  <c:v>2020/11/15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2020/11/12</c:v>
+                  <c:v>2020/11/21</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2020/11/15</c:v>
+                  <c:v>2020/11/29</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2020/11/21</c:v>
+                  <c:v>2020/12/06</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2020/11/29</c:v>
+                  <c:v>2020/12/20</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2020/12/06</c:v>
+                  <c:v>2020/12/22</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2020/12/20</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2020/12/22</c:v>
+                  <c:v>2020/12/26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -987,58 +966,58 @@
                   <c:v>2.9899999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2999999999999999E-2</c:v>
+                  <c:v>5.8700000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8700000000000002E-2</c:v>
+                  <c:v>5.9200000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.9200000000000003E-2</c:v>
+                  <c:v>6.3799999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.3799999999999996E-2</c:v>
+                  <c:v>6.54E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.3200000000000006E-2</c:v>
+                  <c:v>6.0199999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.54E-2</c:v>
+                  <c:v>7.1900000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.0199999999999997E-2</c:v>
+                  <c:v>6.6699999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.1900000000000006E-2</c:v>
+                  <c:v>7.6100000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6699999999999995E-2</c:v>
+                  <c:v>8.1600000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.6100000000000001E-2</c:v>
+                  <c:v>8.0799999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.1600000000000006E-2</c:v>
+                  <c:v>7.9399999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.0799999999999997E-2</c:v>
+                  <c:v>7.8E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.9399999999999998E-2</c:v>
+                  <c:v>8.4099999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.8E-2</c:v>
+                  <c:v>8.4500000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.4099999999999994E-2</c:v>
+                  <c:v>8.7099999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.4500000000000006E-2</c:v>
+                  <c:v>9.3899999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EB63-4157-8834-0BCD530F2FDA}"/>
             </c:ext>
@@ -1052,7 +1031,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="65476864"/>
         <c:axId val="80168064"/>
@@ -1104,7 +1082,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1120,7 +1097,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1134,7 +1111,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1156,7 +1132,7 @@
             <c:strRef>
               <c:f>日定投策略!$A$5:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2020/10/29</c:v>
                 </c:pt>
@@ -1186,6 +1162,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2020/12/22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020/12/26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1229,11 +1208,14 @@
                 <c:pt idx="10">
                   <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.12E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F617-4238-8B1A-FAB98821962D}"/>
             </c:ext>
@@ -1247,7 +1229,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="80189696"/>
         <c:axId val="98705408"/>
@@ -1299,7 +1280,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1334,7 +1314,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1375,7 +1355,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7EA48FDF-88FB-4FE0-9CAA-591832A03EF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EA48FDF-88FB-4FE0-9CAA-591832A03EF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1441,7 +1421,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1474,9 +1454,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1509,6 +1506,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1684,27 +1698,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="11" max="11" width="51.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.625" customWidth="1"/>
+    <col min="11" max="11" width="51.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6328125" customWidth="1"/>
     <col min="15" max="16" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>5</v>
@@ -1713,39 +1727,39 @@
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>44489</v>
+        <v>44854.87</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="29">
-        <v>104940</v>
+        <v>106282.97</v>
       </c>
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>24397</v>
+        <v>24586.1</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="9">
+        <f>SUM(A2:A13)</f>
+        <v>69440.97</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="9">
-        <f>SUM(A2:A14)</f>
-        <v>68886</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="E3" s="6">
         <f>C2-E2-C3</f>
-        <v>36054</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+        <v>36842</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -1754,13 +1768,13 @@
         <v>2</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -1773,7 +1787,7 @@
         <v>1.67E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -1786,130 +1800,134 @@
         <v>2.9899999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="17">
-        <v>7855.73</v>
+        <v>7626.98</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="3">
-        <v>5.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+        <v>5.8700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8" s="17">
-        <v>7626.98</v>
+        <v>9451.59</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="3">
-        <v>5.8700000000000002E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+        <v>5.9200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="17">
-        <v>9451.59</v>
+        <v>9607.81</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="3">
-        <v>5.9200000000000003E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+        <v>6.3799999999999996E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C10" s="17">
-        <v>9607.81</v>
+        <v>9719.7099999999991</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="3">
-        <v>6.3799999999999996E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+        <v>6.54E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C11" s="17">
-        <v>10187.49</v>
+        <v>9118.0400000000009</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="3">
-        <v>6.3200000000000006E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+        <v>6.0199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C12" s="17">
-        <v>9719.7099999999991</v>
+        <v>10050.39</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="3">
-        <v>6.54E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7.1900000000000006E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="17">
+        <v>10782.94</v>
+      </c>
+      <c r="D13" s="17">
+        <v>25.67</v>
+      </c>
+      <c r="E13" s="3">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="17">
-        <v>9118.0400000000009</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="3">
-        <v>6.0199999999999997E-2</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="H13" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="K13" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C14" s="17">
-        <v>10050.39</v>
-      </c>
-      <c r="D14" s="17"/>
+        <v>12238.76</v>
+      </c>
+      <c r="D14" s="17">
+        <v>25.93</v>
+      </c>
       <c r="E14" s="3">
-        <v>7.1900000000000006E-2</v>
+        <v>7.6100000000000001E-2</v>
       </c>
       <c r="F14" s="13">
         <f>$K$22</f>
-        <v>25.955203488372089</v>
+        <v>26.166555232558142</v>
       </c>
       <c r="G14">
         <v>16</v>
@@ -1919,34 +1937,34 @@
       </c>
       <c r="I14">
         <f>E3/C2</f>
-        <v>0.34356775300171527</v>
+        <v>0.34664067065495063</v>
       </c>
       <c r="J14">
         <f>IF(((H14-F14)/(H14-G14))&lt;0,0,((H14-F14)/(H14-G14)))*0.7+0.3</f>
-        <v>0.33631976744186076</v>
+        <v>0.32222965116279051</v>
       </c>
       <c r="K14" s="14">
         <f>(C2*J14-E3)*J14</f>
-        <v>-255.80602743170871</v>
+        <v>-836.01698440859786</v>
       </c>
       <c r="L14" s="11"/>
     </row>
-    <row r="15" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="17">
-        <v>10782.94</v>
-      </c>
-      <c r="D15" s="17">
-        <v>25.67</v>
+        <v>55</v>
+      </c>
+      <c r="C15" s="19">
+        <v>12181.32</v>
+      </c>
+      <c r="D15" s="19">
+        <v>25.93</v>
       </c>
       <c r="E15" s="3">
-        <v>6.6699999999999995E-2</v>
+        <v>8.1600000000000006E-2</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G15" s="30"/>
       <c r="H15" s="30"/>
@@ -1954,19 +1972,19 @@
       <c r="J15" s="30"/>
       <c r="K15" s="30"/>
     </row>
-    <row r="16" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="17">
-        <v>12238.76</v>
-      </c>
-      <c r="D16" s="17">
-        <v>25.93</v>
+        <v>56</v>
+      </c>
+      <c r="C16" s="20">
+        <v>12095.71</v>
+      </c>
+      <c r="D16" s="20">
+        <v>25.81</v>
       </c>
       <c r="E16" s="3">
-        <v>7.6100000000000001E-2</v>
+        <v>8.0799999999999997E-2</v>
       </c>
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
@@ -1975,19 +1993,19 @@
       <c r="J16" s="30"/>
       <c r="K16" s="30"/>
     </row>
-    <row r="17" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="19">
-        <v>12181.32</v>
-      </c>
-      <c r="D17" s="19">
-        <v>25.93</v>
+      <c r="C17" s="21">
+        <v>12631.63</v>
+      </c>
+      <c r="D17" s="21">
+        <v>26.14</v>
       </c>
       <c r="E17" s="3">
-        <v>8.1600000000000006E-2</v>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
@@ -1996,19 +2014,19 @@
       <c r="J17" s="30"/>
       <c r="K17" s="30"/>
     </row>
-    <row r="18" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="20">
-        <v>12095.71</v>
-      </c>
-      <c r="D18" s="20">
-        <v>25.81</v>
+      <c r="C18" s="22">
+        <v>12200.58</v>
+      </c>
+      <c r="D18" s="22">
+        <v>25.89</v>
       </c>
       <c r="E18" s="3">
-        <v>8.0799999999999997E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
@@ -2017,19 +2035,19 @@
       <c r="J18" s="30"/>
       <c r="K18" s="30"/>
     </row>
-    <row r="19" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="21">
-        <v>12631.63</v>
-      </c>
-      <c r="D19" s="21">
-        <v>26.14</v>
+      <c r="C19" s="23">
+        <v>13144.84</v>
+      </c>
+      <c r="D19" s="23">
+        <v>26.4</v>
       </c>
       <c r="E19" s="3">
-        <v>7.9399999999999998E-2</v>
+        <v>8.4099999999999994E-2</v>
       </c>
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
@@ -2038,19 +2056,19 @@
       <c r="J19" s="30"/>
       <c r="K19" s="30"/>
     </row>
-    <row r="20" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="22">
-        <v>12200.58</v>
-      </c>
-      <c r="D20" s="22">
-        <v>25.89</v>
+        <v>144</v>
+      </c>
+      <c r="C20" s="24">
+        <v>13208.35</v>
+      </c>
+      <c r="D20" s="24">
+        <v>26</v>
       </c>
       <c r="E20" s="3">
-        <v>7.8E-2</v>
+        <v>8.4500000000000006E-2</v>
       </c>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
@@ -2059,85 +2077,70 @@
       <c r="J20" s="30"/>
       <c r="K20" s="30"/>
     </row>
-    <row r="21" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="23">
-        <v>13144.84</v>
-      </c>
-      <c r="D21" s="23">
-        <v>26.4</v>
+        <v>150</v>
+      </c>
+      <c r="C21" s="26">
+        <v>14101.95</v>
+      </c>
+      <c r="D21" s="26">
+        <v>25.96</v>
       </c>
       <c r="E21" s="3">
-        <v>8.4099999999999994E-2</v>
+        <v>8.7099999999999997E-2</v>
       </c>
       <c r="F21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" t="s">
         <v>49</v>
       </c>
-      <c r="G21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" t="s">
-        <v>48</v>
-      </c>
-      <c r="J21" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C22" s="24">
-        <v>13208.35</v>
-      </c>
-      <c r="D22" s="24">
-        <v>26</v>
+        <v>151</v>
+      </c>
+      <c r="C22" s="27">
+        <v>14690.65</v>
+      </c>
+      <c r="D22" s="27">
+        <v>26.1</v>
       </c>
       <c r="E22" s="3">
-        <v>8.4500000000000006E-2</v>
+        <v>9.3899999999999997E-2</v>
       </c>
       <c r="F22" s="12">
         <v>2343</v>
       </c>
       <c r="G22" s="12">
-        <v>33.409999999999997</v>
+        <v>33.630000000000003</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12">
         <v>1785</v>
       </c>
       <c r="J22" s="12">
-        <v>16.170000000000002</v>
+        <v>16.37</v>
       </c>
       <c r="K22" s="12">
         <f>(F22*G22+I22*J22)/(F22+I22)</f>
-        <v>25.955203488372089</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C23" s="27">
-        <v>14101.95</v>
-      </c>
-      <c r="D23" s="27">
-        <v>25.96</v>
-      </c>
-      <c r="E23" s="3">
-        <v>8.7099999999999997E-2</v>
+        <v>26.166555232558142</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B5:B28">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:B27">
     <sortCondition ref="B5"/>
   </sortState>
   <mergeCells count="3">
@@ -2153,24 +2156,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="12.6328125" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13" customWidth="1"/>
-    <col min="10" max="10" width="41.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.625" customWidth="1"/>
+    <col min="10" max="10" width="41.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.6328125" customWidth="1"/>
     <col min="14" max="15" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>5</v>
       </c>
@@ -2178,194 +2181,203 @@
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="29">
-        <v>11045.7</v>
+        <v>12144.04</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="32"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="31">
+        <v>43</v>
+      </c>
+      <c r="B4" s="32">
         <v>-1.49</v>
       </c>
-      <c r="C4" s="31"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="31">
+        <v>51</v>
+      </c>
+      <c r="B5" s="32">
         <v>-0.06</v>
       </c>
-      <c r="C5" s="31"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="3">
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="31">
+        <v>53</v>
+      </c>
+      <c r="B6" s="32">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C6" s="31"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="31">
+        <v>54</v>
+      </c>
+      <c r="B7" s="32">
         <v>14.52</v>
       </c>
-      <c r="C7" s="31"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="3">
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="31">
+        <v>55</v>
+      </c>
+      <c r="B8" s="32">
         <v>9.6300000000000008</v>
       </c>
-      <c r="C8" s="31"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="3">
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="31">
+        <v>56</v>
+      </c>
+      <c r="B9" s="32">
         <v>4.66</v>
       </c>
-      <c r="C9" s="31"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="3">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="31">
+        <v>57</v>
+      </c>
+      <c r="B10" s="32">
         <v>14.48</v>
       </c>
-      <c r="C10" s="31"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="3">
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="31">
+        <v>58</v>
+      </c>
+      <c r="B11" s="32">
         <v>24.22</v>
       </c>
-      <c r="C11" s="31"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="3">
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="31">
+        <v>59</v>
+      </c>
+      <c r="B12" s="32">
         <v>51.62</v>
       </c>
-      <c r="C12" s="31"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="3">
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" s="31">
+        <v>144</v>
+      </c>
+      <c r="B13" s="32">
         <v>72.09</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="3">
         <v>6.8999999999999999E-3</v>
       </c>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B14" s="31">
+        <v>149</v>
+      </c>
+      <c r="B14" s="32">
         <v>76.31</v>
       </c>
-      <c r="C14" s="31"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="32">
+        <v>134.65</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="3">
+        <v>1.12E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
@@ -2382,9 +2394,6 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2394,734 +2403,622 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="F1" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="B2" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="C2" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1" s="15"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>25</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="26">
-        <v>10</v>
-      </c>
-      <c r="F2" s="16">
-        <v>0.75549999999999995</v>
-      </c>
-      <c r="G2" s="16">
-        <v>0.74129999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>24</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>93</v>
+      <c r="D2">
+        <v>44854</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0.90039999999999998</v>
+      </c>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="26">
-        <v>1890</v>
-      </c>
-      <c r="F3" s="16">
-        <v>5.6500000000000002E-2</v>
-      </c>
-      <c r="G3" s="16">
-        <v>0.70250000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>147</v>
+        <v>67</v>
+      </c>
+      <c r="D3">
+        <v>24586</v>
+      </c>
+      <c r="E3" s="16">
+        <v>0.69120000000000004</v>
+      </c>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" s="26">
-        <v>10</v>
+        <v>72</v>
+      </c>
+      <c r="D4">
+        <v>5317</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0.14810000000000001</v>
       </c>
       <c r="F4" s="16">
-        <v>0.12529999999999999</v>
-      </c>
-      <c r="G4" s="16">
-        <v>0.70030000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>12</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>132</v>
+        <v>0.44259999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="26">
-        <v>157</v>
+        <v>75</v>
+      </c>
+      <c r="D5">
+        <v>4761</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.64</v>
       </c>
       <c r="F5" s="16">
-        <v>7.3099999999999998E-2</v>
-      </c>
-      <c r="G5" s="16">
-        <v>0.67710000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>8</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>144</v>
+        <v>0.24179999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6" s="26">
-        <v>53</v>
+        <v>78</v>
+      </c>
+      <c r="D6">
+        <v>4047</v>
+      </c>
+      <c r="E6" s="16">
+        <v>4.36E-2</v>
       </c>
       <c r="F6" s="16">
-        <v>6.59E-2</v>
-      </c>
-      <c r="G6" s="16">
-        <v>0.65329999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>16</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>120</v>
+        <v>0.47339999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" s="26">
-        <v>438</v>
+        <v>81</v>
+      </c>
+      <c r="D7">
+        <v>3528</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.1152</v>
       </c>
       <c r="F7" s="16">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G7" s="16">
-        <v>0.61419999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>28</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>104</v>
+        <v>0.45450000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="26">
-        <v>707</v>
+        <v>84</v>
+      </c>
+      <c r="D8">
+        <v>3037</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.53869999999999996</v>
       </c>
       <c r="F8" s="16">
-        <v>0.28949999999999998</v>
-      </c>
-      <c r="G8" s="16">
-        <v>0.58589999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>26</v>
-      </c>
-      <c r="B9" s="25" t="s">
+        <v>0.57589999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>85</v>
       </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
       <c r="C9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9">
+        <v>2387</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0.83460000000000001</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0.56789999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="26">
-        <v>2905</v>
-      </c>
-      <c r="F9" s="16">
-        <v>0.53869999999999996</v>
-      </c>
-      <c r="G9" s="16">
-        <v>0.57589999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>20</v>
-      </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" t="s">
         <v>88</v>
       </c>
       <c r="C10" t="s">
         <v>89</v>
       </c>
-      <c r="D10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="26">
-        <v>2315</v>
+      <c r="D10">
+        <v>2274</v>
+      </c>
+      <c r="E10" s="16">
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="F10" s="16">
-        <v>0.83460000000000001</v>
-      </c>
-      <c r="G10" s="16">
-        <v>0.56789999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>27</v>
-      </c>
-      <c r="B11" s="25" t="s">
+        <v>0.40889999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11">
+        <v>1809</v>
+      </c>
+      <c r="E11" s="16">
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0.70250000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12">
+        <v>1615</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0.4289</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0.55430000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" t="s">
         <v>96</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>97</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D13">
+        <v>1355</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0.1487</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0.37340000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>870</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0.3054</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0.35010000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15">
+        <v>723</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0.13969999999999999</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0.52429999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16">
+        <v>720</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0.28949999999999998</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0.58589999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17">
+        <v>691</v>
+      </c>
+      <c r="E17" s="16">
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0.46889999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18">
+        <v>671</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0.61729999999999996</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0.41980000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19">
+        <v>594</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0.29260000000000003</v>
+      </c>
+      <c r="F19" s="16">
+        <v>0.45290000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>510</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0.3054</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0.35010000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21">
+        <v>482</v>
+      </c>
+      <c r="E21" s="16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0.61419999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22">
+        <v>329</v>
+      </c>
+      <c r="E22" s="16">
+        <v>0.22270000000000001</v>
+      </c>
+      <c r="F22" s="16">
+        <v>0.46539999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23">
+        <v>243</v>
+      </c>
+      <c r="E23" s="16">
+        <v>0.56579999999999997</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0.38379999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24">
+        <v>238</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0.66259999999999997</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0.35560000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25">
+        <v>177</v>
+      </c>
+      <c r="E25" s="16">
+        <v>7.3099999999999998E-2</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0.67710000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26">
+        <v>133</v>
+      </c>
+      <c r="E26" s="16">
+        <v>0.26529999999999998</v>
+      </c>
+      <c r="F26" s="16">
+        <v>0.52059999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27">
+        <v>89</v>
+      </c>
+      <c r="E27" s="16">
+        <v>0.76180000000000003</v>
+      </c>
+      <c r="F27" s="16">
+        <v>0.33350000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28">
         <v>75</v>
       </c>
-      <c r="E11" s="26">
-        <v>1556</v>
-      </c>
-      <c r="F11" s="16">
-        <v>0.4289</v>
-      </c>
-      <c r="G11" s="16">
-        <v>0.55430000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" s="26">
-        <v>676</v>
-      </c>
-      <c r="F12" s="16">
-        <v>0.13969999999999999</v>
-      </c>
-      <c r="G12" s="16">
-        <v>0.52429999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>15</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="26">
-        <v>133</v>
-      </c>
-      <c r="F13" s="16">
-        <v>0.26529999999999998</v>
-      </c>
-      <c r="G13" s="16">
-        <v>0.52059999999999995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" s="26">
-        <v>101</v>
-      </c>
-      <c r="F14" s="16">
-        <v>0.98650000000000004</v>
-      </c>
-      <c r="G14" s="16">
-        <v>0.47960000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>21</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="26">
-        <v>3930</v>
-      </c>
-      <c r="F15" s="16">
-        <v>4.36E-2</v>
-      </c>
-      <c r="G15" s="16">
-        <v>0.47339999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>18</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="26">
-        <v>693</v>
-      </c>
-      <c r="F16" s="16">
-        <v>7.7399999999999997E-2</v>
-      </c>
-      <c r="G16" s="16">
-        <v>0.46889999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="E17" s="26">
-        <v>326</v>
-      </c>
-      <c r="F17" s="16">
-        <v>0.22270000000000001</v>
-      </c>
-      <c r="G17" s="16">
-        <v>0.46539999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>23</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="26">
-        <v>3425</v>
-      </c>
-      <c r="F18" s="16">
-        <v>0.1152</v>
-      </c>
-      <c r="G18" s="16">
-        <v>0.45450000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>22</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" t="s">
-        <v>118</v>
-      </c>
-      <c r="E19" s="26">
-        <v>586</v>
-      </c>
-      <c r="F19" s="16">
-        <v>0.29260000000000003</v>
-      </c>
-      <c r="G19" s="16">
-        <v>0.45290000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="26">
-        <v>5162</v>
-      </c>
-      <c r="F20" s="16">
-        <v>0.14810000000000001</v>
-      </c>
-      <c r="G20" s="16">
-        <v>0.44259999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" t="s">
-        <v>115</v>
-      </c>
-      <c r="E21" s="26">
-        <v>645</v>
-      </c>
-      <c r="F21" s="16">
-        <v>0.61729999999999996</v>
-      </c>
-      <c r="G21" s="16">
-        <v>0.41980000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>29</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" s="26">
-        <v>2233</v>
-      </c>
-      <c r="F22" s="16">
-        <v>8.3699999999999997E-2</v>
-      </c>
-      <c r="G22" s="16">
-        <v>0.40889999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>30</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="C23" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23" t="s">
-        <v>131</v>
-      </c>
-      <c r="E23" s="26">
-        <v>196</v>
-      </c>
-      <c r="F23" s="16">
-        <v>0.56579999999999997</v>
-      </c>
-      <c r="G23" s="16">
-        <v>0.38379999999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" s="26">
-        <v>1301</v>
-      </c>
-      <c r="F24" s="16">
-        <v>0.1487</v>
-      </c>
-      <c r="G24" s="16">
-        <v>0.37340000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <v>13</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="E25" s="26">
-        <v>215</v>
-      </c>
-      <c r="F25" s="16">
-        <v>0.66259999999999997</v>
-      </c>
-      <c r="G25" s="16">
-        <v>0.35560000000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" s="26">
-        <v>813</v>
-      </c>
-      <c r="F26" s="16">
-        <v>0.3054</v>
-      </c>
-      <c r="G26" s="16">
-        <v>0.35010000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <v>7</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="26">
-        <v>488</v>
-      </c>
-      <c r="F27" s="16">
-        <v>0.3054</v>
-      </c>
-      <c r="G27" s="16">
-        <v>0.35010000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <v>9</v>
-      </c>
-      <c r="B28" s="25" t="s">
+      <c r="E28" s="16">
+        <v>6.59E-2</v>
+      </c>
+      <c r="F28" s="16">
+        <v>0.65329999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29">
+        <v>20</v>
+      </c>
+      <c r="E29" s="16">
+        <v>0.75549999999999995</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0.74129999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C28" t="s">
+      <c r="B30" t="s">
         <v>142</v>
       </c>
-      <c r="D28" t="s">
+      <c r="C30" t="s">
         <v>143</v>
       </c>
-      <c r="E28" s="26">
-        <v>57</v>
-      </c>
-      <c r="F28" s="16">
-        <v>0.76180000000000003</v>
-      </c>
-      <c r="G28" s="16">
-        <v>0.33350000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>11</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="26">
-        <v>4691</v>
-      </c>
-      <c r="F29" s="16">
-        <v>0.64</v>
-      </c>
-      <c r="G29" s="16">
-        <v>0.24179999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30">
-        <v>6</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="26">
-        <v>23557</v>
+      <c r="D30">
+        <v>20</v>
+      </c>
+      <c r="E30" s="16">
+        <v>0.12529999999999999</v>
       </c>
       <c r="F30" s="16">
-        <v>0.69120000000000004</v>
-      </c>
-      <c r="G30" s="16"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <v>10</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="26">
-        <v>44425</v>
-      </c>
-      <c r="F31" s="16">
-        <v>0.90039999999999998</v>
-      </c>
-      <c r="G31" s="16"/>
+        <v>0.70030000000000003</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G31">
-    <sortCondition descending="1" ref="G1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F30">
+    <sortCondition descending="1" ref="D1:D30"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3130,115 +3027,115 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C3:I17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C4" t="s">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C5" t="s">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C6" t="s">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C7" t="s">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C8" t="s">
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C9" t="s">
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C10" t="s">
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="I10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C11" t="s">
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="I11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C12" t="s">
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C13" t="s">
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C14" t="s">
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C15" t="s">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C17" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3248,14 +3145,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/基金总结.xlsx
+++ b/基金总结.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613CB9D5-CC88-49D1-81E1-C7DE6AFE8A69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3B71B7-4630-47E5-BF11-4FDB68AD175E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="动平衡策略" sheetId="1" r:id="rId1"/>
@@ -836,10 +836,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1701,8 +1701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2195,10 +2195,10 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="31"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2207,10 +2207,10 @@
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="31">
         <v>-1.49</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="3">
         <v>0</v>
       </c>
@@ -2219,10 +2219,10 @@
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="31">
         <v>-0.06</v>
       </c>
-      <c r="C5" s="32"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="3">
         <v>-3.0000000000000001E-3</v>
       </c>
@@ -2231,10 +2231,10 @@
       <c r="A6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="31">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C6" s="32"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -2243,10 +2243,10 @@
       <c r="A7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="31">
         <v>14.52</v>
       </c>
-      <c r="C7" s="32"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="3">
         <v>1.1999999999999999E-3</v>
       </c>
@@ -2255,10 +2255,10 @@
       <c r="A8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="31">
         <v>9.6300000000000008</v>
       </c>
-      <c r="C8" s="32"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="3">
         <v>5.1000000000000004E-3</v>
       </c>
@@ -2267,10 +2267,10 @@
       <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="31">
         <v>4.66</v>
       </c>
-      <c r="C9" s="32"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="3">
         <v>4.4999999999999997E-3</v>
       </c>
@@ -2279,10 +2279,10 @@
       <c r="A10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="31">
         <v>14.48</v>
       </c>
-      <c r="C10" s="32"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="3">
         <v>1.8E-3</v>
       </c>
@@ -2291,10 +2291,10 @@
       <c r="A11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="31">
         <v>24.22</v>
       </c>
-      <c r="C11" s="32"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="3">
         <v>4.4000000000000003E-3</v>
       </c>
@@ -2303,10 +2303,10 @@
       <c r="A12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="31">
         <v>51.62</v>
       </c>
-      <c r="C12" s="32"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="3">
         <v>7.3000000000000001E-3</v>
       </c>
@@ -2315,10 +2315,10 @@
       <c r="A13" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="31">
         <v>72.09</v>
       </c>
-      <c r="C13" s="32"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="3">
         <v>6.8999999999999999E-3</v>
       </c>
@@ -2328,10 +2328,10 @@
       <c r="A14" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="31">
         <v>76.31</v>
       </c>
-      <c r="C14" s="32"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
@@ -2340,48 +2340,41 @@
       <c r="A15" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="31">
         <v>134.65</v>
       </c>
-      <c r="C15" s="32"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="3">
         <v>1.12E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B14:C14"/>
@@ -2394,6 +2387,13 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2406,7 +2406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>

--- a/基金总结.xlsx
+++ b/基金总结.xlsx
@@ -3,23 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3B71B7-4630-47E5-BF11-4FDB68AD175E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6945236B-CAB3-4C89-B900-D8CA263F84E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="动平衡策略" sheetId="1" r:id="rId1"/>
-    <sheet name="日定投策略" sheetId="4" r:id="rId2"/>
+    <sheet name="动平衡策略2021" sheetId="8" r:id="rId1"/>
+    <sheet name="日定投策略2021" sheetId="9" r:id="rId2"/>
     <sheet name="投资总结" sheetId="6" r:id="rId3"/>
-    <sheet name="投资准则" sheetId="2" r:id="rId4"/>
-    <sheet name="草稿" sheetId="7" r:id="rId5"/>
+    <sheet name="动平衡策略2020" sheetId="1" r:id="rId4"/>
+    <sheet name="日定投策略2020" sheetId="4" r:id="rId5"/>
+    <sheet name="投资准则" sheetId="2" r:id="rId6"/>
+    <sheet name="草稿" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="153">
   <si>
     <t>今年收益率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -630,6 +632,10 @@
   </si>
   <si>
     <t>2020/12/26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/12/31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -756,7 +762,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -817,14 +823,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -893,125 +902,23 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>动平衡策略!$B$5:$B$22</c:f>
+              <c:f>动平衡策略2021!$B$5:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>2020/5/17</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020/6/26</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2020/7/26</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2020/8/16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2020/8/23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2020/9/26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2020/9/28</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020/10/25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2020/10/29</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2020/11/7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2020/11/12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2020/11/15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2020/11/21</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2020/11/29</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2020/12/06</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2020/12/20</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2020/12/22</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2020/12/26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>动平衡策略!$E$5:$E$22</c:f>
+              <c:f>动平衡策略2021!$E$5:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1.67E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.9899999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.8700000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.9200000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.3799999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.54E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.0199999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.1900000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.6699999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.6100000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.1600000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.0799999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.9399999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.8E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.4099999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.4500000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.7099999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9.3899999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1019,7 +926,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EB63-4157-8834-0BCD530F2FDA}"/>
+              <c16:uniqueId val="{00000000-BBF4-4D0D-8E02-26CC045C6C86}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1129,41 +1036,192 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
+            <c:numRef>
+              <c:f>日定投策略2021!$A$5:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日"yyyy"年"</c:formatCode>
+                <c:ptCount val="23"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>日定投策略2021!$D$4:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D938-45C6-B97E-CB794A5F4D62}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="80189696"/>
+        <c:axId val="98705408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="80189696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;yyyy&quot;年&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="eaVert"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="98705408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="98705408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80189696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>今年收益率</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
             <c:strRef>
-              <c:f>日定投策略!$A$5:$A$27</c:f>
+              <c:f>动平衡策略2020!$B$5:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>2020/5/17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020/6/26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020/7/26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020/8/16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020/8/23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020/9/26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020/9/28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020/10/25</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2020/10/29</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020/11/07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2020/11/10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2020/11/12</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
+                  <c:v>2020/11/7</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2020/11/15</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="11">
                   <c:v>2020/11/21</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>2020/11/29</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
                   <c:v>2020/12/06</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="14">
                   <c:v>2020/12/20</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="15">
                   <c:v>2020/12/22</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="16">
                   <c:v>2020/12/26</c:v>
                 </c:pt>
               </c:strCache>
@@ -1171,7 +1229,223 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日定投策略!$D$4:$D$27</c:f>
+              <c:f>动平衡策略2020!$E$5:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.67E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8700000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9200000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3799999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.54E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0199999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1900000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6699999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.6100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.0799999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.9399999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.8E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.4099999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.4500000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.7099999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.3899999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EB63-4157-8834-0BCD530F2FDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="65476864"/>
+        <c:axId val="80168064"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="65476864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="eaVert"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80168064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="80168064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65476864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>今年收益率</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>日定投策略2020!$A$5:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2020/10/29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020/11/07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020/11/10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020/11/12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020/11/15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020/11/21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020/11/29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020/12/06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020/12/20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020/12/22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020/12/26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020/12/31</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>日定投策略2020!$D$4:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1210,6 +1484,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.12E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7399999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1311,6 +1588,92 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4081951-3721-4A88-8266-BD319FBE980C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>130174</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30C67DF5-BC88-4A2F-85A6-2F0304B2CAB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2870200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -1335,7 +1698,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1698,11 +2061,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BB7658-6EAC-4FE6-A4FE-B920758165AD}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1720,54 +2083,56 @@
       <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>44854.87</v>
+        <v>45170.7</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="29">
-        <v>106282.97</v>
-      </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="30">
+        <v>113160</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>24586.1</v>
+        <v>24744.43</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="9">
         <f>SUM(A2:A13)</f>
-        <v>69440.97</v>
+        <v>73726.23000000001</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="6">
         <f>C2-E2-C3</f>
-        <v>36842</v>
+        <v>39433.76999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="10">
+        <v>3811.1</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="28" t="s">
         <v>49</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -1779,6 +2144,1146 @@
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C5" s="27">
+        <v>2342.16</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="3">
+        <v>1.67E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="13">
+        <f>$K$22</f>
+        <v>26.83467296511628</v>
+      </c>
+      <c r="G14">
+        <v>16</v>
+      </c>
+      <c r="H14">
+        <v>26.5</v>
+      </c>
+      <c r="I14">
+        <f>E3/C2</f>
+        <v>0.34847799575821836</v>
+      </c>
+      <c r="J14">
+        <f>IF(((H14-F14)/(H14-G14))&lt;0,0,((H14-F14)/(H14-G14)))*0.7+0.3</f>
+        <v>0.3</v>
+      </c>
+      <c r="K14" s="14">
+        <f>(C2*J14-E3)*J14</f>
+        <v>-1645.7309999999968</v>
+      </c>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+    </row>
+    <row r="16" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+    </row>
+    <row r="17" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+    </row>
+    <row r="18" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+    </row>
+    <row r="19" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+    </row>
+    <row r="20" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+    </row>
+    <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="3"/>
+      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="12">
+        <v>2343</v>
+      </c>
+      <c r="G22" s="12">
+        <v>34.51</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12">
+        <v>1785</v>
+      </c>
+      <c r="J22" s="12">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="K22" s="12">
+        <f>(F22*G22+I22*J22)/(F22+I22)</f>
+        <v>26.83467296511628</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F15:K20"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98601414-D147-462A-838B-4D41594349C1}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="12.6328125" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13" customWidth="1"/>
+    <col min="10" max="10" width="41.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.6328125" customWidth="1"/>
+    <col min="14" max="15" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="30">
+        <v>13546.06</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="32">
+        <v>-1.49</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="3"/>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2">
+        <v>44854</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0.90039999999999998</v>
+      </c>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3">
+        <v>24586</v>
+      </c>
+      <c r="E3" s="16">
+        <v>0.69120000000000004</v>
+      </c>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4">
+        <v>5317</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0.14810000000000001</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0.44259999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5">
+        <v>4761</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.64</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0.24179999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6">
+        <v>4047</v>
+      </c>
+      <c r="E6" s="16">
+        <v>4.36E-2</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0.47339999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7">
+        <v>3528</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.1152</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0.45450000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8">
+        <v>3037</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.53869999999999996</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0.57589999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9">
+        <v>2387</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0.83460000000000001</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0.56789999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10">
+        <v>2274</v>
+      </c>
+      <c r="E10" s="16">
+        <v>8.3699999999999997E-2</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0.40889999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11">
+        <v>1809</v>
+      </c>
+      <c r="E11" s="16">
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0.70250000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12">
+        <v>1615</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0.4289</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0.55430000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13">
+        <v>1355</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0.1487</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0.37340000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>870</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0.3054</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0.35010000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15">
+        <v>723</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0.13969999999999999</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0.52429999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16">
+        <v>720</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0.28949999999999998</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0.58589999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17">
+        <v>691</v>
+      </c>
+      <c r="E17" s="16">
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0.46889999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18">
+        <v>671</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0.61729999999999996</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0.41980000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19">
+        <v>594</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0.29260000000000003</v>
+      </c>
+      <c r="F19" s="16">
+        <v>0.45290000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>510</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0.3054</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0.35010000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21">
+        <v>482</v>
+      </c>
+      <c r="E21" s="16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0.61419999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22">
+        <v>329</v>
+      </c>
+      <c r="E22" s="16">
+        <v>0.22270000000000001</v>
+      </c>
+      <c r="F22" s="16">
+        <v>0.46539999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23">
+        <v>243</v>
+      </c>
+      <c r="E23" s="16">
+        <v>0.56579999999999997</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0.38379999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24">
+        <v>238</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0.66259999999999997</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0.35560000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25">
+        <v>177</v>
+      </c>
+      <c r="E25" s="16">
+        <v>7.3099999999999998E-2</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0.67710000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26">
+        <v>133</v>
+      </c>
+      <c r="E26" s="16">
+        <v>0.26529999999999998</v>
+      </c>
+      <c r="F26" s="16">
+        <v>0.52059999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27">
+        <v>89</v>
+      </c>
+      <c r="E27" s="16">
+        <v>0.76180000000000003</v>
+      </c>
+      <c r="F27" s="16">
+        <v>0.33350000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28">
+        <v>75</v>
+      </c>
+      <c r="E28" s="16">
+        <v>6.59E-2</v>
+      </c>
+      <c r="F28" s="16">
+        <v>0.65329999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29">
+        <v>20</v>
+      </c>
+      <c r="E29" s="16">
+        <v>0.75549999999999995</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0.74129999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30">
+        <v>20</v>
+      </c>
+      <c r="E30" s="16">
+        <v>0.12529999999999999</v>
+      </c>
+      <c r="F30" s="16">
+        <v>0.70030000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F30">
+    <sortCondition descending="1" ref="D1:D30"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="11" max="11" width="51.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6328125" customWidth="1"/>
+    <col min="15" max="16" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>45170.7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="30">
+        <v>113160</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>24744.43</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="9">
+        <f>SUM(A2:A13)</f>
+        <v>73726.23000000001</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6">
+        <f>C2-E2-C3</f>
+        <v>39433.76999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>3811.1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C5" s="17">
         <v>2342.16</v>
       </c>
@@ -1927,7 +3432,7 @@
       </c>
       <c r="F14" s="13">
         <f>$K$22</f>
-        <v>26.166555232558142</v>
+        <v>26.83467296511628</v>
       </c>
       <c r="G14">
         <v>16</v>
@@ -1937,159 +3442,159 @@
       </c>
       <c r="I14">
         <f>E3/C2</f>
-        <v>0.34664067065495063</v>
+        <v>0.34847799575821836</v>
       </c>
       <c r="J14">
         <f>IF(((H14-F14)/(H14-G14))&lt;0,0,((H14-F14)/(H14-G14)))*0.7+0.3</f>
-        <v>0.32222965116279051</v>
+        <v>0.3</v>
       </c>
       <c r="K14" s="14">
         <f>(C2*J14-E3)*J14</f>
-        <v>-836.01698440859786</v>
+        <v>-1645.7309999999968</v>
       </c>
       <c r="L14" s="11"/>
     </row>
     <row r="15" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" s="19">
-        <v>12181.32</v>
+        <v>12095.71</v>
       </c>
       <c r="D15" s="19">
-        <v>25.93</v>
+        <v>25.81</v>
       </c>
       <c r="E15" s="3">
-        <v>8.1600000000000006E-2</v>
-      </c>
-      <c r="F15" s="30" t="s">
+        <v>8.0799999999999997E-2</v>
+      </c>
+      <c r="F15" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
     </row>
     <row r="16" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16" s="20">
-        <v>12095.71</v>
+        <v>12631.63</v>
       </c>
       <c r="D16" s="20">
-        <v>25.81</v>
+        <v>26.14</v>
       </c>
       <c r="E16" s="3">
-        <v>8.0799999999999997E-2</v>
-      </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
     </row>
     <row r="17" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" s="21">
-        <v>12631.63</v>
+        <v>12200.58</v>
       </c>
       <c r="D17" s="21">
-        <v>26.14</v>
+        <v>25.89</v>
       </c>
       <c r="E17" s="3">
-        <v>7.9399999999999998E-2</v>
-      </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
+        <v>7.8E-2</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
     </row>
     <row r="18" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18" s="22">
-        <v>12200.58</v>
+        <v>13144.84</v>
       </c>
       <c r="D18" s="22">
-        <v>25.89</v>
+        <v>26.4</v>
       </c>
       <c r="E18" s="3">
-        <v>7.8E-2</v>
-      </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
     </row>
     <row r="19" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="2" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="C19" s="23">
-        <v>13144.84</v>
+        <v>13208.35</v>
       </c>
       <c r="D19" s="23">
-        <v>26.4</v>
+        <v>26</v>
       </c>
       <c r="E19" s="3">
-        <v>8.4099999999999994E-2</v>
-      </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
+        <v>8.4500000000000006E-2</v>
+      </c>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
     </row>
     <row r="20" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" s="24">
-        <v>13208.35</v>
-      </c>
-      <c r="D20" s="24">
-        <v>26</v>
+        <v>150</v>
+      </c>
+      <c r="C20" s="25">
+        <v>14101.95</v>
+      </c>
+      <c r="D20" s="25">
+        <v>25.96</v>
       </c>
       <c r="E20" s="3">
-        <v>8.4500000000000006E-2</v>
-      </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
     </row>
     <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C21" s="26">
-        <v>14101.95</v>
+        <v>14690.65</v>
       </c>
       <c r="D21" s="26">
-        <v>25.96</v>
+        <v>26.1</v>
       </c>
       <c r="E21" s="3">
-        <v>8.7099999999999997E-2</v>
+        <v>9.3899999999999997E-2</v>
       </c>
       <c r="F21" t="s">
         <v>47</v>
@@ -2110,33 +3615,33 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C22" s="27">
-        <v>14690.65</v>
+        <v>16361.16</v>
       </c>
       <c r="D22" s="27">
-        <v>26.1</v>
+        <v>26.83</v>
       </c>
       <c r="E22" s="3">
-        <v>9.3899999999999997E-2</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="F22" s="12">
         <v>2343</v>
       </c>
       <c r="G22" s="12">
-        <v>33.630000000000003</v>
+        <v>34.51</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12">
         <v>1785</v>
       </c>
       <c r="J22" s="12">
-        <v>16.37</v>
+        <v>16.760000000000002</v>
       </c>
       <c r="K22" s="12">
         <f>(F22*G22+I22*J22)/(F22+I22)</f>
-        <v>26.166555232558142</v>
+        <v>26.83467296511628</v>
       </c>
     </row>
   </sheetData>
@@ -2155,12 +3660,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2174,31 +3679,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="29">
-        <v>12144.04</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="30">
+        <v>13546.06</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="32"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2207,10 +3712,10 @@
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="32">
         <v>-1.49</v>
       </c>
-      <c r="C4" s="31"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="3">
         <v>0</v>
       </c>
@@ -2219,10 +3724,10 @@
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="32">
         <v>-0.06</v>
       </c>
-      <c r="C5" s="31"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="3">
         <v>-3.0000000000000001E-3</v>
       </c>
@@ -2231,10 +3736,10 @@
       <c r="A6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="32">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C6" s="31"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -2243,10 +3748,10 @@
       <c r="A7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="32">
         <v>14.52</v>
       </c>
-      <c r="C7" s="31"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="3">
         <v>1.1999999999999999E-3</v>
       </c>
@@ -2255,10 +3760,10 @@
       <c r="A8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="32">
         <v>9.6300000000000008</v>
       </c>
-      <c r="C8" s="31"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="3">
         <v>5.1000000000000004E-3</v>
       </c>
@@ -2267,10 +3772,10 @@
       <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="32">
         <v>4.66</v>
       </c>
-      <c r="C9" s="31"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="3">
         <v>4.4999999999999997E-3</v>
       </c>
@@ -2279,10 +3784,10 @@
       <c r="A10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="32">
         <v>14.48</v>
       </c>
-      <c r="C10" s="31"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="3">
         <v>1.8E-3</v>
       </c>
@@ -2291,10 +3796,10 @@
       <c r="A11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="32">
         <v>24.22</v>
       </c>
-      <c r="C11" s="31"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="3">
         <v>4.4000000000000003E-3</v>
       </c>
@@ -2303,10 +3808,10 @@
       <c r="A12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="32">
         <v>51.62</v>
       </c>
-      <c r="C12" s="31"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="3">
         <v>7.3000000000000001E-3</v>
       </c>
@@ -2315,10 +3820,10 @@
       <c r="A13" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="32">
         <v>72.09</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="3">
         <v>6.8999999999999999E-3</v>
       </c>
@@ -2328,10 +3833,10 @@
       <c r="A14" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="32">
         <v>76.31</v>
       </c>
-      <c r="C14" s="31"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
@@ -2340,41 +3845,51 @@
       <c r="A15" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="32">
         <v>134.65</v>
       </c>
-      <c r="C15" s="31"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="3">
         <v>1.12E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="3"/>
+      <c r="A16" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="32">
+        <v>236.67</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="3">
+        <v>1.7399999999999999E-2</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B14:C14"/>
@@ -2390,10 +3905,6 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2402,631 +3913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="30.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="G1" s="15"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2">
-        <v>44854</v>
-      </c>
-      <c r="E2" s="16">
-        <v>0.90039999999999998</v>
-      </c>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3">
-        <v>24586</v>
-      </c>
-      <c r="E3" s="16">
-        <v>0.69120000000000004</v>
-      </c>
-      <c r="F3" s="16"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4">
-        <v>5317</v>
-      </c>
-      <c r="E4" s="16">
-        <v>0.14810000000000001</v>
-      </c>
-      <c r="F4" s="16">
-        <v>0.44259999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5">
-        <v>4761</v>
-      </c>
-      <c r="E5" s="16">
-        <v>0.64</v>
-      </c>
-      <c r="F5" s="16">
-        <v>0.24179999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6">
-        <v>4047</v>
-      </c>
-      <c r="E6" s="16">
-        <v>4.36E-2</v>
-      </c>
-      <c r="F6" s="16">
-        <v>0.47339999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7">
-        <v>3528</v>
-      </c>
-      <c r="E7" s="16">
-        <v>0.1152</v>
-      </c>
-      <c r="F7" s="16">
-        <v>0.45450000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8">
-        <v>3037</v>
-      </c>
-      <c r="E8" s="16">
-        <v>0.53869999999999996</v>
-      </c>
-      <c r="F8" s="16">
-        <v>0.57589999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9">
-        <v>2387</v>
-      </c>
-      <c r="E9" s="16">
-        <v>0.83460000000000001</v>
-      </c>
-      <c r="F9" s="16">
-        <v>0.56789999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10">
-        <v>2274</v>
-      </c>
-      <c r="E10" s="16">
-        <v>8.3699999999999997E-2</v>
-      </c>
-      <c r="F10" s="16">
-        <v>0.40889999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11">
-        <v>1809</v>
-      </c>
-      <c r="E11" s="16">
-        <v>5.6500000000000002E-2</v>
-      </c>
-      <c r="F11" s="16">
-        <v>0.70250000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12">
-        <v>1615</v>
-      </c>
-      <c r="E12" s="16">
-        <v>0.4289</v>
-      </c>
-      <c r="F12" s="16">
-        <v>0.55430000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13">
-        <v>1355</v>
-      </c>
-      <c r="E13" s="16">
-        <v>0.1487</v>
-      </c>
-      <c r="F13" s="16">
-        <v>0.37340000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14">
-        <v>870</v>
-      </c>
-      <c r="E14" s="16">
-        <v>0.3054</v>
-      </c>
-      <c r="F14" s="16">
-        <v>0.35010000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15">
-        <v>723</v>
-      </c>
-      <c r="E15" s="16">
-        <v>0.13969999999999999</v>
-      </c>
-      <c r="F15" s="16">
-        <v>0.52429999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16">
-        <v>720</v>
-      </c>
-      <c r="E16" s="16">
-        <v>0.28949999999999998</v>
-      </c>
-      <c r="F16" s="16">
-        <v>0.58589999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17">
-        <v>691</v>
-      </c>
-      <c r="E17" s="16">
-        <v>7.7399999999999997E-2</v>
-      </c>
-      <c r="F17" s="16">
-        <v>0.46889999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18">
-        <v>671</v>
-      </c>
-      <c r="E18" s="16">
-        <v>0.61729999999999996</v>
-      </c>
-      <c r="F18" s="16">
-        <v>0.41980000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19">
-        <v>594</v>
-      </c>
-      <c r="E19" s="16">
-        <v>0.29260000000000003</v>
-      </c>
-      <c r="F19" s="16">
-        <v>0.45290000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20">
-        <v>510</v>
-      </c>
-      <c r="E20" s="16">
-        <v>0.3054</v>
-      </c>
-      <c r="F20" s="16">
-        <v>0.35010000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="B21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" t="s">
-        <v>119</v>
-      </c>
-      <c r="D21">
-        <v>482</v>
-      </c>
-      <c r="E21" s="16">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F21" s="16">
-        <v>0.61419999999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22">
-        <v>329</v>
-      </c>
-      <c r="E22" s="16">
-        <v>0.22270000000000001</v>
-      </c>
-      <c r="F22" s="16">
-        <v>0.46539999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23">
-        <v>243</v>
-      </c>
-      <c r="E23" s="16">
-        <v>0.56579999999999997</v>
-      </c>
-      <c r="F23" s="16">
-        <v>0.38379999999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="B24" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D24">
-        <v>238</v>
-      </c>
-      <c r="E24" s="16">
-        <v>0.66259999999999997</v>
-      </c>
-      <c r="F24" s="16">
-        <v>0.35560000000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25">
-        <v>177</v>
-      </c>
-      <c r="E25" s="16">
-        <v>7.3099999999999998E-2</v>
-      </c>
-      <c r="F25" s="16">
-        <v>0.67710000000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B26" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26">
-        <v>133</v>
-      </c>
-      <c r="E26" s="16">
-        <v>0.26529999999999998</v>
-      </c>
-      <c r="F26" s="16">
-        <v>0.52059999999999995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="B27" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27">
-        <v>89</v>
-      </c>
-      <c r="E27" s="16">
-        <v>0.76180000000000003</v>
-      </c>
-      <c r="F27" s="16">
-        <v>0.33350000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" t="s">
-        <v>140</v>
-      </c>
-      <c r="D28">
-        <v>75</v>
-      </c>
-      <c r="E28" s="16">
-        <v>6.59E-2</v>
-      </c>
-      <c r="F28" s="16">
-        <v>0.65329999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="B29" t="s">
-        <v>146</v>
-      </c>
-      <c r="C29" t="s">
-        <v>147</v>
-      </c>
-      <c r="D29">
-        <v>20</v>
-      </c>
-      <c r="E29" s="16">
-        <v>0.75549999999999995</v>
-      </c>
-      <c r="F29" s="16">
-        <v>0.74129999999999996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="B30" t="s">
-        <v>142</v>
-      </c>
-      <c r="C30" t="s">
-        <v>143</v>
-      </c>
-      <c r="D30">
-        <v>20</v>
-      </c>
-      <c r="E30" s="16">
-        <v>0.12529999999999999</v>
-      </c>
-      <c r="F30" s="16">
-        <v>0.70030000000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F30">
-    <sortCondition descending="1" ref="D1:D30"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C3:I17"/>
   <sheetViews>
@@ -3144,7 +4031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/基金总结.xlsx
+++ b/基金总结.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6945236B-CAB3-4C89-B900-D8CA263F84E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF754D8B-E286-4467-BF32-4A9C7861D24D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="动平衡策略2021" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="164">
   <si>
     <t>今年收益率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -636,6 +636,50 @@
   </si>
   <si>
     <t>2020/12/31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/01/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/03/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/04/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/05/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/06/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/07/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/08/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/10/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/12/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/09/15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -762,7 +806,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -836,6 +880,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -904,9 +951,57 @@
             <c:strRef>
               <c:f>动平衡策略2021!$B$5:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>2020/5/17</c:v>
+                  <c:v>2020/01/15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020/01/15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020/02/15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020/02/15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020/03/15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020/03/15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020/04/15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020/04/15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020/05/15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020/05/15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020/06/15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020/06/15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2020/07/15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020/07/15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2020/08/15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020/08/15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2020/09/15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -917,9 +1012,6 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>1.67E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1036,13 +1128,81 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>日定投策略2021!$A$5:$A$27</c:f>
-              <c:numCache>
-                <c:formatCode>m"月"d"日"yyyy"年"</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="23"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>2020/01/15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020/02/15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020/02/15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020/03/15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020/03/15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020/04/15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020/04/15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020/05/15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020/05/15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020/06/15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020/06/15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020/07/15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2020/07/15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020/08/15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2020/08/15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020/09/15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2020/09/15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2020/10/15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020/10/15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2020/11/15</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020/11/15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2020/12/15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020/12/15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1050,9 +1210,6 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1082,7 +1239,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;yyyy&quot;年&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2062,10 +2219,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BB7658-6EAC-4FE6-A4FE-B920758165AD}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2083,12 +2240,12 @@
       <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
@@ -2097,11 +2254,11 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="31">
         <v>113160</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
@@ -2142,68 +2299,80 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="27">
-        <v>2342.16</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C5" s="27"/>
       <c r="D5" s="27"/>
-      <c r="E5" s="3">
-        <v>1.67E-2</v>
-      </c>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="3"/>
@@ -2228,7 +2397,9 @@
     </row>
     <row r="14" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="3"/>
@@ -2258,87 +2429,101 @@
     </row>
     <row r="15" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
     </row>
     <row r="16" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
     </row>
     <row r="17" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
     </row>
     <row r="18" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
     </row>
     <row r="19" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
     </row>
     <row r="20" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
     </row>
     <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
       <c r="E21" s="3"/>
@@ -2360,7 +2545,9 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
-      <c r="B22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="3"/>
@@ -2381,6 +2568,60 @@
         <f>(F22*G22+I22*J22)/(F22+I22)</f>
         <v>26.83467296511628</v>
       </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2397,10 +2638,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98601414-D147-462A-838B-4D41594349C1}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2414,141 +2655,250 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="31">
         <v>13546.06</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="33"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="32">
-        <v>-1.49</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
+      <c r="A5" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
+      <c r="A6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
+      <c r="A7" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
+      <c r="A8" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
+      <c r="A9" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
+      <c r="A10" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
+      <c r="A11" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
+      <c r="A12" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
+      <c r="A13" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="3"/>
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
+      <c r="A14" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
+      <c r="A15" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
+      <c r="A16" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
+      <c r="A17" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
+      <c r="A18" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
+      <c r="A19" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="27">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -2556,18 +2906,6 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2580,7 +2918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -3223,12 +3561,12 @@
       <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
@@ -3237,11 +3575,11 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="31">
         <v>113160</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
@@ -3468,14 +3806,14 @@
       <c r="E15" s="3">
         <v>8.0799999999999997E-2</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
     </row>
     <row r="16" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
@@ -3491,12 +3829,12 @@
       <c r="E16" s="3">
         <v>7.9399999999999998E-2</v>
       </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
     </row>
     <row r="17" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
@@ -3512,12 +3850,12 @@
       <c r="E17" s="3">
         <v>7.8E-2</v>
       </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
     </row>
     <row r="18" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
@@ -3533,12 +3871,12 @@
       <c r="E18" s="3">
         <v>8.4099999999999994E-2</v>
       </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
     </row>
     <row r="19" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
@@ -3554,12 +3892,12 @@
       <c r="E19" s="3">
         <v>8.4500000000000006E-2</v>
       </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
     </row>
     <row r="20" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
@@ -3575,12 +3913,12 @@
       <c r="E20" s="3">
         <v>8.7099999999999997E-2</v>
       </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
     </row>
     <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
@@ -3679,31 +4017,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="31">
         <v>13546.06</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="33"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
@@ -3712,10 +4050,10 @@
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="33">
         <v>-1.49</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="3">
         <v>0</v>
       </c>
@@ -3724,10 +4062,10 @@
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="33">
         <v>-0.06</v>
       </c>
-      <c r="C5" s="32"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="3">
         <v>-3.0000000000000001E-3</v>
       </c>
@@ -3736,10 +4074,10 @@
       <c r="A6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="33">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C6" s="32"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -3748,10 +4086,10 @@
       <c r="A7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="33">
         <v>14.52</v>
       </c>
-      <c r="C7" s="32"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="3">
         <v>1.1999999999999999E-3</v>
       </c>
@@ -3760,10 +4098,10 @@
       <c r="A8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="33">
         <v>9.6300000000000008</v>
       </c>
-      <c r="C8" s="32"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="3">
         <v>5.1000000000000004E-3</v>
       </c>
@@ -3772,10 +4110,10 @@
       <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="33">
         <v>4.66</v>
       </c>
-      <c r="C9" s="32"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="3">
         <v>4.4999999999999997E-3</v>
       </c>
@@ -3784,10 +4122,10 @@
       <c r="A10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="33">
         <v>14.48</v>
       </c>
-      <c r="C10" s="32"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="3">
         <v>1.8E-3</v>
       </c>
@@ -3796,10 +4134,10 @@
       <c r="A11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="33">
         <v>24.22</v>
       </c>
-      <c r="C11" s="32"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="3">
         <v>4.4000000000000003E-3</v>
       </c>
@@ -3808,10 +4146,10 @@
       <c r="A12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="33">
         <v>51.62</v>
       </c>
-      <c r="C12" s="32"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="3">
         <v>7.3000000000000001E-3</v>
       </c>
@@ -3820,10 +4158,10 @@
       <c r="A13" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="33">
         <v>72.09</v>
       </c>
-      <c r="C13" s="32"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="3">
         <v>6.8999999999999999E-3</v>
       </c>
@@ -3833,10 +4171,10 @@
       <c r="A14" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="33">
         <v>76.31</v>
       </c>
-      <c r="C14" s="32"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
@@ -3845,10 +4183,10 @@
       <c r="A15" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="33">
         <v>134.65</v>
       </c>
-      <c r="C15" s="32"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="3">
         <v>1.12E-2</v>
       </c>
@@ -3857,35 +4195,38 @@
       <c r="A16" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="33">
         <v>236.67</v>
       </c>
-      <c r="C16" s="32"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="3">
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
@@ -3902,9 +4243,6 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/基金总结.xlsx
+++ b/基金总结.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF754D8B-E286-4467-BF32-4A9C7861D24D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="动平衡策略2021" sheetId="8" r:id="rId1"/>
@@ -16,7 +15,7 @@
     <sheet name="投资准则" sheetId="2" r:id="rId6"/>
     <sheet name="草稿" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -686,7 +685,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -916,7 +915,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -930,6 +929,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1016,7 +1016,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BBF4-4D0D-8E02-26CC045C6C86}"/>
             </c:ext>
@@ -1030,12 +1030,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="65476864"/>
-        <c:axId val="80168064"/>
+        <c:axId val="71765376"/>
+        <c:axId val="100702080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65476864"/>
+        <c:axId val="71765376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1055,7 +1056,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80168064"/>
+        <c:crossAx val="100702080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1063,7 +1064,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80168064"/>
+        <c:axId val="100702080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1074,13 +1075,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65476864"/>
+        <c:crossAx val="71765376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1096,7 +1098,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1110,6 +1112,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1214,7 +1217,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D938-45C6-B97E-CB794A5F4D62}"/>
             </c:ext>
@@ -1228,12 +1231,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80189696"/>
-        <c:axId val="98705408"/>
+        <c:axId val="100723712"/>
+        <c:axId val="101335808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80189696"/>
+        <c:axId val="100723712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1253,7 +1257,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98705408"/>
+        <c:crossAx val="101335808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1261,7 +1265,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98705408"/>
+        <c:axId val="101335808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1272,13 +1276,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80189696"/>
+        <c:crossAx val="100723712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1294,7 +1299,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1445,7 +1450,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EB63-4157-8834-0BCD530F2FDA}"/>
             </c:ext>
@@ -1459,12 +1464,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="65476864"/>
-        <c:axId val="80168064"/>
+        <c:axId val="101405824"/>
+        <c:axId val="101407360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65476864"/>
+        <c:axId val="101405824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1484,7 +1490,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80168064"/>
+        <c:crossAx val="101407360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1492,7 +1498,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80168064"/>
+        <c:axId val="101407360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1503,7 +1509,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65476864"/>
+        <c:crossAx val="101405824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1525,7 +1531,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1649,7 +1655,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F617-4238-8B1A-FAB98821962D}"/>
             </c:ext>
@@ -1663,12 +1669,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80189696"/>
-        <c:axId val="98705408"/>
+        <c:axId val="101498880"/>
+        <c:axId val="101500416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80189696"/>
+        <c:axId val="101498880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1688,7 +1695,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98705408"/>
+        <c:crossAx val="101500416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1696,7 +1703,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98705408"/>
+        <c:axId val="101500416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1707,7 +1714,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80189696"/>
+        <c:crossAx val="101498880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1748,7 +1755,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4081951-3721-4A88-8266-BD319FBE980C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4081951-3721-4A88-8266-BD319FBE980C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1791,7 +1798,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30C67DF5-BC88-4A2F-85A6-2F0304B2CAB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30C67DF5-BC88-4A2F-85A6-2F0304B2CAB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1834,7 +1841,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1875,7 +1882,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EA48FDF-88FB-4FE0-9CAA-591832A03EF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7EA48FDF-88FB-4FE0-9CAA-591832A03EF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1941,7 +1948,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1974,26 +1981,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2026,23 +2016,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2218,25 +2191,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BB7658-6EAC-4FE6-A4FE-B920758165AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="5" width="12.6328125" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="11" max="11" width="51.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.6328125" customWidth="1"/>
+    <col min="11" max="11" width="51.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.625" customWidth="1"/>
     <col min="15" max="16" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
@@ -2247,41 +2220,41 @@
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="10">
-        <v>45170.7</v>
+        <v>45408.61</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="31">
-        <v>113160</v>
+        <v>120743</v>
       </c>
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
-        <v>24744.43</v>
+        <v>24855.73</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="9">
         <f>SUM(A2:A13)</f>
-        <v>73726.23000000001</v>
+        <v>77559.759999999995</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="6">
         <f>C2-E2-C3</f>
-        <v>39433.76999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>43183.240000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
-        <v>3811.1</v>
+        <v>7295.42</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -2296,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="2" t="s">
         <v>153</v>
@@ -2305,7 +2278,7 @@
       <c r="D5" s="27"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="2" t="s">
         <v>153</v>
@@ -2314,7 +2287,7 @@
       <c r="D6" s="27"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="2" t="s">
         <v>154</v>
@@ -2323,7 +2296,7 @@
       <c r="D7" s="27"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="2" t="s">
         <v>154</v>
@@ -2332,7 +2305,7 @@
       <c r="D8" s="27"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
         <v>155</v>
@@ -2341,7 +2314,7 @@
       <c r="D9" s="27"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="2" t="s">
         <v>155</v>
@@ -2350,7 +2323,7 @@
       <c r="D10" s="27"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="2" t="s">
         <v>156</v>
@@ -2359,7 +2332,7 @@
       <c r="D11" s="27"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="2" t="s">
         <v>156</v>
@@ -2368,7 +2341,7 @@
       <c r="D12" s="27"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="2" t="s">
         <v>157</v>
@@ -2395,7 +2368,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="2" t="s">
         <v>157</v>
@@ -2405,29 +2378,29 @@
       <c r="E14" s="3"/>
       <c r="F14" s="13">
         <f>$K$22</f>
-        <v>26.83467296511628</v>
+        <v>27.757942238267148</v>
       </c>
       <c r="G14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14">
-        <v>26.5</v>
+        <v>29</v>
       </c>
       <c r="I14">
         <f>E3/C2</f>
-        <v>0.34847799575821836</v>
+        <v>0.35764590907961541</v>
       </c>
       <c r="J14">
         <f>IF(((H14-F14)/(H14-G14))&lt;0,0,((H14-F14)/(H14-G14)))*0.7+0.3</f>
-        <v>0.3</v>
+        <v>0.36210288808664259</v>
       </c>
       <c r="K14" s="14">
         <f>(C2*J14-E3)*J14</f>
-        <v>-1645.7309999999968</v>
+        <v>194.8653130034736</v>
       </c>
       <c r="L14" s="11"/>
     </row>
-    <row r="15" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="2" t="s">
         <v>158</v>
@@ -2444,7 +2417,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="2" t="s">
         <v>158</v>
@@ -2459,7 +2432,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="B17" s="2" t="s">
         <v>159</v>
@@ -2474,7 +2447,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="2" t="s">
         <v>159</v>
@@ -2489,7 +2462,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="2" t="s">
         <v>160</v>
@@ -2504,7 +2477,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="2" t="s">
         <v>160</v>
@@ -2519,7 +2492,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="2" t="s">
         <v>163</v>
@@ -2543,7 +2516,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="2" t="s">
         <v>163</v>
@@ -2552,24 +2525,24 @@
       <c r="D22" s="27"/>
       <c r="E22" s="3"/>
       <c r="F22" s="12">
-        <v>2343</v>
+        <v>2355</v>
       </c>
       <c r="G22" s="12">
-        <v>34.51</v>
+        <v>35.950000000000003</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12">
-        <v>1785</v>
+        <v>1800</v>
       </c>
       <c r="J22" s="12">
-        <v>16.760000000000002</v>
+        <v>17.04</v>
       </c>
       <c r="K22" s="12">
         <f>(F22*G22+I22*J22)/(F22+I22)</f>
-        <v>26.83467296511628</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>27.757942238267148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="2" t="s">
         <v>161</v>
@@ -2578,7 +2551,7 @@
       <c r="D23" s="29"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="2" t="s">
         <v>161</v>
@@ -2587,7 +2560,7 @@
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="2" t="s">
         <v>56</v>
@@ -2596,7 +2569,7 @@
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
       <c r="B26" s="2" t="s">
         <v>56</v>
@@ -2605,7 +2578,7 @@
       <c r="D26" s="29"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
       <c r="B27" s="2" t="s">
         <v>162</v>
@@ -2614,7 +2587,7 @@
       <c r="D27" s="29"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
       <c r="B28" s="2" t="s">
         <v>162</v>
@@ -2637,24 +2610,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98601414-D147-462A-838B-4D41594349C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="12.6328125" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13" customWidth="1"/>
-    <col min="10" max="10" width="41.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6328125" customWidth="1"/>
+    <col min="10" max="10" width="41.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.625" customWidth="1"/>
     <col min="14" max="15" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30" t="s">
         <v>5</v>
       </c>
@@ -2662,7 +2635,7 @@
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -2672,7 +2645,7 @@
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2684,7 +2657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>153</v>
       </c>
@@ -2692,7 +2665,7 @@
       <c r="C4" s="33"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>153</v>
       </c>
@@ -2700,7 +2673,7 @@
       <c r="C5" s="33"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>154</v>
       </c>
@@ -2708,7 +2681,7 @@
       <c r="C6" s="33"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>154</v>
       </c>
@@ -2716,7 +2689,7 @@
       <c r="C7" s="33"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>155</v>
       </c>
@@ -2724,7 +2697,7 @@
       <c r="C8" s="33"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>155</v>
       </c>
@@ -2732,7 +2705,7 @@
       <c r="C9" s="33"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>156</v>
       </c>
@@ -2740,7 +2713,7 @@
       <c r="C10" s="33"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>156</v>
       </c>
@@ -2748,7 +2721,7 @@
       <c r="C11" s="33"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>157</v>
       </c>
@@ -2756,7 +2729,7 @@
       <c r="C12" s="33"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>157</v>
       </c>
@@ -2765,7 +2738,7 @@
       <c r="D13" s="3"/>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>158</v>
       </c>
@@ -2773,7 +2746,7 @@
       <c r="C14" s="33"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>158</v>
       </c>
@@ -2781,7 +2754,7 @@
       <c r="C15" s="33"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>159</v>
       </c>
@@ -2789,7 +2762,7 @@
       <c r="C16" s="33"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>159</v>
       </c>
@@ -2797,7 +2770,7 @@
       <c r="C17" s="33"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>160</v>
       </c>
@@ -2805,7 +2778,7 @@
       <c r="C18" s="33"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>160</v>
       </c>
@@ -2813,7 +2786,7 @@
       <c r="C19" s="33"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>163</v>
       </c>
@@ -2821,7 +2794,7 @@
       <c r="C20" s="33"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>163</v>
       </c>
@@ -2829,7 +2802,7 @@
       <c r="C21" s="33"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>161</v>
       </c>
@@ -2837,7 +2810,7 @@
       <c r="C22" s="33"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>161</v>
       </c>
@@ -2845,7 +2818,7 @@
       <c r="C23" s="33"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>56</v>
       </c>
@@ -2853,7 +2826,7 @@
       <c r="C24" s="33"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>56</v>
       </c>
@@ -2861,7 +2834,7 @@
       <c r="C25" s="33"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>162</v>
       </c>
@@ -2869,7 +2842,7 @@
       <c r="C26" s="33"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>162</v>
       </c>
@@ -2879,14 +2852,13 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B2:D2"/>
@@ -2899,13 +2871,14 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2915,23 +2888,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="30.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>60</v>
       </c>
@@ -2952,7 +2925,7 @@
       </c>
       <c r="G1" s="15"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
         <v>65</v>
       </c>
@@ -2970,7 +2943,7 @@
       </c>
       <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
         <v>68</v>
       </c>
@@ -2988,7 +2961,7 @@
       </c>
       <c r="F3" s="16"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="24" t="s">
         <v>70</v>
       </c>
@@ -3008,7 +2981,7 @@
         <v>0.44259999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="24" t="s">
         <v>73</v>
       </c>
@@ -3028,7 +3001,7 @@
         <v>0.24179999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="24" t="s">
         <v>76</v>
       </c>
@@ -3048,7 +3021,7 @@
         <v>0.47339999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="24" t="s">
         <v>79</v>
       </c>
@@ -3068,7 +3041,7 @@
         <v>0.45450000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="24" t="s">
         <v>82</v>
       </c>
@@ -3088,7 +3061,7 @@
         <v>0.57589999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="24" t="s">
         <v>85</v>
       </c>
@@ -3108,7 +3081,7 @@
         <v>0.56789999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="24" t="s">
         <v>87</v>
       </c>
@@ -3128,7 +3101,7 @@
         <v>0.40889999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="24" t="s">
         <v>90</v>
       </c>
@@ -3148,7 +3121,7 @@
         <v>0.70250000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="24" t="s">
         <v>93</v>
       </c>
@@ -3168,7 +3141,7 @@
         <v>0.55430000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="24" t="s">
         <v>95</v>
       </c>
@@ -3188,7 +3161,7 @@
         <v>0.37340000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="24" t="s">
         <v>98</v>
       </c>
@@ -3208,7 +3181,7 @@
         <v>0.35010000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="24" t="s">
         <v>107</v>
       </c>
@@ -3228,7 +3201,7 @@
         <v>0.52429999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="24" t="s">
         <v>101</v>
       </c>
@@ -3248,7 +3221,7 @@
         <v>0.58589999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="24" t="s">
         <v>104</v>
       </c>
@@ -3268,7 +3241,7 @@
         <v>0.46889999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="24" t="s">
         <v>110</v>
       </c>
@@ -3288,7 +3261,7 @@
         <v>0.41980000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="24" t="s">
         <v>113</v>
       </c>
@@ -3308,7 +3281,7 @@
         <v>0.45290000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="24" t="s">
         <v>116</v>
       </c>
@@ -3328,7 +3301,7 @@
         <v>0.35010000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="24" t="s">
         <v>117</v>
       </c>
@@ -3348,7 +3321,7 @@
         <v>0.61419999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="24" t="s">
         <v>120</v>
       </c>
@@ -3368,7 +3341,7 @@
         <v>0.46539999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="24" t="s">
         <v>126</v>
       </c>
@@ -3388,7 +3361,7 @@
         <v>0.38379999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="24" t="s">
         <v>123</v>
       </c>
@@ -3408,7 +3381,7 @@
         <v>0.35560000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="24" t="s">
         <v>129</v>
       </c>
@@ -3428,7 +3401,7 @@
         <v>0.67710000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="24" t="s">
         <v>132</v>
       </c>
@@ -3448,7 +3421,7 @@
         <v>0.52059999999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="24" t="s">
         <v>135</v>
       </c>
@@ -3468,7 +3441,7 @@
         <v>0.33350000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="24" t="s">
         <v>138</v>
       </c>
@@ -3488,7 +3461,7 @@
         <v>0.65329999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="24" t="s">
         <v>145</v>
       </c>
@@ -3508,7 +3481,7 @@
         <v>0.74129999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="24" t="s">
         <v>141</v>
       </c>
@@ -3529,7 +3502,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F30">
+  <sortState ref="A2:F30">
     <sortCondition descending="1" ref="D1:D30"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3539,25 +3512,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="5" width="12.6328125" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="11" max="11" width="51.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.6328125" customWidth="1"/>
+    <col min="11" max="11" width="51.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.625" customWidth="1"/>
     <col min="15" max="16" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
@@ -3568,7 +3541,7 @@
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="10">
         <v>45170.7</v>
       </c>
@@ -3581,7 +3554,7 @@
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>24744.43</v>
       </c>
@@ -3600,7 +3573,7 @@
         <v>39433.76999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>3811.1</v>
       </c>
@@ -3617,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -3630,7 +3603,7 @@
         <v>1.67E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -3643,7 +3616,7 @@
         <v>2.9899999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -3656,7 +3629,7 @@
         <v>5.8700000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="2" t="s">
         <v>10</v>
@@ -3669,7 +3642,7 @@
         <v>5.9200000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -3682,7 +3655,7 @@
         <v>6.3799999999999996E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="2" t="s">
         <v>38</v>
@@ -3695,7 +3668,7 @@
         <v>6.54E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="2" t="s">
         <v>39</v>
@@ -3708,7 +3681,7 @@
         <v>6.0199999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="2" t="s">
         <v>45</v>
@@ -3721,7 +3694,7 @@
         <v>7.1900000000000006E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="2" t="s">
         <v>51</v>
@@ -3754,7 +3727,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="2" t="s">
         <v>52</v>
@@ -3792,7 +3765,7 @@
       </c>
       <c r="L14" s="11"/>
     </row>
-    <row r="15" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="2" t="s">
         <v>56</v>
@@ -3815,7 +3788,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="2" t="s">
         <v>57</v>
@@ -3836,7 +3809,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="B17" s="2" t="s">
         <v>58</v>
@@ -3857,7 +3830,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="2" t="s">
         <v>59</v>
@@ -3878,7 +3851,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="2" t="s">
         <v>144</v>
@@ -3899,7 +3872,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="2" t="s">
         <v>150</v>
@@ -3920,7 +3893,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="2" t="s">
         <v>151</v>
@@ -3950,7 +3923,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="2" t="s">
         <v>152</v>
@@ -3983,7 +3956,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:B27">
+  <sortState ref="B5:B27">
     <sortCondition ref="B5"/>
   </sortState>
   <mergeCells count="3">
@@ -3999,24 +3972,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="12.6328125" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13" customWidth="1"/>
-    <col min="10" max="10" width="41.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6328125" customWidth="1"/>
+    <col min="10" max="10" width="41.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.625" customWidth="1"/>
     <col min="14" max="15" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30" t="s">
         <v>5</v>
       </c>
@@ -4024,7 +3997,7 @@
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -4034,7 +4007,7 @@
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4046,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
@@ -4058,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
@@ -4070,7 +4043,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>53</v>
       </c>
@@ -4082,7 +4055,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>54</v>
       </c>
@@ -4094,7 +4067,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>55</v>
       </c>
@@ -4106,7 +4079,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
@@ -4118,7 +4091,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>57</v>
       </c>
@@ -4130,7 +4103,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>58</v>
       </c>
@@ -4142,7 +4115,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>59</v>
       </c>
@@ -4154,7 +4127,7 @@
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>144</v>
       </c>
@@ -4167,7 +4140,7 @@
       </c>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>149</v>
       </c>
@@ -4179,7 +4152,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>151</v>
       </c>
@@ -4191,7 +4164,7 @@
         <v>1.12E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>152</v>
       </c>
@@ -4203,34 +4176,27 @@
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="33"/>
       <c r="C19" s="33"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B14:C14"/>
@@ -4243,6 +4209,13 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4252,16 +4225,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:I17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -4269,7 +4242,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -4277,7 +4250,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -4285,7 +4258,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -4293,7 +4266,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>18</v>
       </c>
@@ -4301,7 +4274,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>19</v>
       </c>
@@ -4309,7 +4282,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
         <v>20</v>
       </c>
@@ -4317,7 +4290,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
         <v>21</v>
       </c>
@@ -4325,7 +4298,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
         <v>22</v>
       </c>
@@ -4333,32 +4306,32 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
         <v>28</v>
       </c>
@@ -4370,14 +4343,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/基金总结.xlsx
+++ b/基金总结.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7446B732-A122-4069-83B6-7D6C499DB4F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
+    <workbookView xWindow="1730" yWindow="1180" windowWidth="16910" windowHeight="8860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="动平衡策略2021" sheetId="8" r:id="rId1"/>
@@ -15,12 +16,12 @@
     <sheet name="投资准则" sheetId="2" r:id="rId6"/>
     <sheet name="草稿" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="166">
   <si>
     <t>今年收益率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -681,11 +682,19 @@
     <t>2020/09/15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>投资金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/01/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -805,7 +814,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -882,6 +891,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -897,6 +909,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -915,7 +928,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -929,7 +942,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1016,7 +1028,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BBF4-4D0D-8E02-26CC045C6C86}"/>
             </c:ext>
@@ -1030,7 +1042,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="71765376"/>
         <c:axId val="100702080"/>
@@ -1082,7 +1093,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1098,7 +1108,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1112,7 +1122,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1132,76 +1141,79 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>日定投策略2021!$A$5:$A$27</c:f>
+              <c:f>日定投策略2021!$A$3:$A$26</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>2020/01/10</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2020/01/15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020/02/15</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2020/02/15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2020/03/15</c:v>
+                  <c:v>2020/02/15</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2020/03/15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2020/04/15</c:v>
+                  <c:v>2020/03/15</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2020/04/15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2020/05/15</c:v>
+                  <c:v>2020/04/15</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2020/05/15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2020/06/15</c:v>
+                  <c:v>2020/05/15</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2020/06/15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2020/07/15</c:v>
+                  <c:v>2020/06/15</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2020/07/15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2020/08/15</c:v>
+                  <c:v>2020/07/15</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2020/08/15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2020/09/15</c:v>
+                  <c:v>2020/08/15</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2020/09/15</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2020/10/15</c:v>
+                  <c:v>2020/09/15</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2020/10/15</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2020/11/15</c:v>
+                  <c:v>2020/10/15</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2020/11/15</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>2020/11/15</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>2020/12/15</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>2020/12/15</c:v>
                 </c:pt>
               </c:strCache>
@@ -1209,15 +1221,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日定投策略2021!$D$4:$D$27</c:f>
+              <c:f>日定投策略2021!$C$3:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>9.5999999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5999999999999992E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D938-45C6-B97E-CB794A5F4D62}"/>
             </c:ext>
@@ -1231,7 +1249,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="100723712"/>
         <c:axId val="101335808"/>
@@ -1283,7 +1300,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1299,7 +1315,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1450,7 +1466,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EB63-4157-8834-0BCD530F2FDA}"/>
             </c:ext>
@@ -1464,7 +1480,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="101405824"/>
         <c:axId val="101407360"/>
@@ -1531,7 +1546,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1655,7 +1670,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F617-4238-8B1A-FAB98821962D}"/>
             </c:ext>
@@ -1669,7 +1684,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="101498880"/>
         <c:axId val="101500416"/>
@@ -1755,7 +1769,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4081951-3721-4A88-8266-BD319FBE980C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4081951-3721-4A88-8266-BD319FBE980C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1798,7 +1812,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30C67DF5-BC88-4A2F-85A6-2F0304B2CAB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30C67DF5-BC88-4A2F-85A6-2F0304B2CAB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1841,7 +1855,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1882,7 +1896,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7EA48FDF-88FB-4FE0-9CAA-591832A03EF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EA48FDF-88FB-4FE0-9CAA-591832A03EF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1948,7 +1962,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1981,9 +1995,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2016,6 +2047,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2191,70 +2239,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="11" max="11" width="51.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.625" customWidth="1"/>
+    <col min="11" max="11" width="51.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6328125" customWidth="1"/>
     <col min="15" max="16" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45408.61</v>
+        <v>45748.49</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31">
-        <v>120743</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C2" s="32">
+        <v>121606.3</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>24855.73</v>
+        <v>25004.12</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="9">
         <f>SUM(A2:A13)</f>
-        <v>77559.759999999995</v>
+        <v>78106.45</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="6">
         <f>C2-E2-C3</f>
-        <v>43183.240000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+        <v>43499.850000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>7295.42</v>
+        <v>7353.84</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -2269,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="2" t="s">
         <v>153</v>
@@ -2278,7 +2326,7 @@
       <c r="D5" s="27"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="2" t="s">
         <v>153</v>
@@ -2287,7 +2335,7 @@
       <c r="D6" s="27"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="2" t="s">
         <v>154</v>
@@ -2296,7 +2344,7 @@
       <c r="D7" s="27"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="2" t="s">
         <v>154</v>
@@ -2305,7 +2353,7 @@
       <c r="D8" s="27"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
         <v>155</v>
@@ -2314,7 +2362,7 @@
       <c r="D9" s="27"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="2" t="s">
         <v>155</v>
@@ -2323,7 +2371,7 @@
       <c r="D10" s="27"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="2" t="s">
         <v>156</v>
@@ -2332,7 +2380,7 @@
       <c r="D11" s="27"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="2" t="s">
         <v>156</v>
@@ -2341,7 +2389,7 @@
       <c r="D12" s="27"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="2" t="s">
         <v>157</v>
@@ -2368,7 +2416,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="2" t="s">
         <v>157</v>
@@ -2378,7 +2426,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="13">
         <f>$K$22</f>
-        <v>27.757942238267148</v>
+        <v>26.820469314079421</v>
       </c>
       <c r="G14">
         <v>15</v>
@@ -2388,19 +2436,19 @@
       </c>
       <c r="I14">
         <f>E3/C2</f>
-        <v>0.35764590907961541</v>
+        <v>0.3577104969068215</v>
       </c>
       <c r="J14">
         <f>IF(((H14-F14)/(H14-G14))&lt;0,0,((H14-F14)/(H14-G14)))*0.7+0.3</f>
-        <v>0.36210288808664259</v>
+        <v>0.40897653429602893</v>
       </c>
       <c r="K14" s="14">
         <f>(C2*J14-E3)*J14</f>
-        <v>194.8653130034736</v>
+        <v>2549.6714155207715</v>
       </c>
       <c r="L14" s="11"/>
     </row>
-    <row r="15" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="2" t="s">
         <v>158</v>
@@ -2408,16 +2456,16 @@
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-    </row>
-    <row r="16" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+    </row>
+    <row r="16" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="2" t="s">
         <v>158</v>
@@ -2425,14 +2473,14 @@
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-    </row>
-    <row r="17" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+    </row>
+    <row r="17" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="2" t="s">
         <v>159</v>
@@ -2440,14 +2488,14 @@
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-    </row>
-    <row r="18" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+    </row>
+    <row r="18" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="2" t="s">
         <v>159</v>
@@ -2455,14 +2503,14 @@
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-    </row>
-    <row r="19" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+    </row>
+    <row r="19" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="2" t="s">
         <v>160</v>
@@ -2470,14 +2518,14 @@
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-    </row>
-    <row r="20" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+    </row>
+    <row r="20" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="2" t="s">
         <v>160</v>
@@ -2485,14 +2533,14 @@
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-    </row>
-    <row r="21" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+    </row>
+    <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="2" t="s">
         <v>163</v>
@@ -2516,7 +2564,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="2" t="s">
         <v>163</v>
@@ -2528,21 +2576,21 @@
         <v>2355</v>
       </c>
       <c r="G22" s="12">
-        <v>35.950000000000003</v>
+        <v>34.51</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12">
         <v>1800</v>
       </c>
       <c r="J22" s="12">
-        <v>17.04</v>
+        <v>16.760000000000002</v>
       </c>
       <c r="K22" s="12">
         <f>(F22*G22+I22*J22)/(F22+I22)</f>
-        <v>27.757942238267148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+        <v>26.820469314079421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="2" t="s">
         <v>161</v>
@@ -2551,7 +2599,7 @@
       <c r="D23" s="29"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="2" t="s">
         <v>161</v>
@@ -2560,7 +2608,7 @@
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="2" t="s">
         <v>56</v>
@@ -2569,7 +2617,7 @@
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="2" t="s">
         <v>56</v>
@@ -2578,7 +2626,7 @@
       <c r="D26" s="29"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="2" t="s">
         <v>162</v>
@@ -2587,7 +2635,7 @@
       <c r="D27" s="29"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="2" t="s">
         <v>162</v>
@@ -2610,275 +2658,254 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="12.6328125" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13" customWidth="1"/>
-    <col min="10" max="10" width="41.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.625" customWidth="1"/>
+    <col min="10" max="10" width="41.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.6328125" customWidth="1"/>
     <col min="14" max="15" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="31">
-        <v>13546.06</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D2" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="30">
+        <v>161.71</v>
+      </c>
+      <c r="C3" s="3">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="D3" s="30">
+        <v>16935.88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B4" s="30">
+        <v>161.71</v>
+      </c>
+      <c r="C4" s="3">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="D4" s="30">
+        <v>16935.88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="30"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B6" s="30"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="30"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="30"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B8" s="30"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="30"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="30"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B10" s="30"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="30"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="30"/>
+    </row>
+    <row r="12" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="30"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="30"/>
+    </row>
+    <row r="13" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="3"/>
+        <v>158</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="30"/>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="30"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="30"/>
+    </row>
+    <row r="15" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="30"/>
+    </row>
+    <row r="16" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="30"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="30"/>
+    </row>
+    <row r="17" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="30"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="30"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="30"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="30"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="30"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="30"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="30"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="30"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="30"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="30"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="30"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="30"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+      <c r="B25" s="30"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="30"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="3"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B12:C12"/>
+  <mergeCells count="2">
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2888,23 +2915,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>60</v>
       </c>
@@ -2925,7 +2952,7 @@
       </c>
       <c r="G1" s="15"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>65</v>
       </c>
@@ -2943,7 +2970,7 @@
       </c>
       <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>68</v>
       </c>
@@ -2961,7 +2988,7 @@
       </c>
       <c r="F3" s="16"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>70</v>
       </c>
@@ -2981,7 +3008,7 @@
         <v>0.44259999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>73</v>
       </c>
@@ -3001,7 +3028,7 @@
         <v>0.24179999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>76</v>
       </c>
@@ -3021,7 +3048,7 @@
         <v>0.47339999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>79</v>
       </c>
@@ -3041,7 +3068,7 @@
         <v>0.45450000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>82</v>
       </c>
@@ -3061,7 +3088,7 @@
         <v>0.57589999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>85</v>
       </c>
@@ -3081,7 +3108,7 @@
         <v>0.56789999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>87</v>
       </c>
@@ -3101,7 +3128,7 @@
         <v>0.40889999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>90</v>
       </c>
@@ -3121,7 +3148,7 @@
         <v>0.70250000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>93</v>
       </c>
@@ -3141,7 +3168,7 @@
         <v>0.55430000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>95</v>
       </c>
@@ -3161,7 +3188,7 @@
         <v>0.37340000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>98</v>
       </c>
@@ -3181,7 +3208,7 @@
         <v>0.35010000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>107</v>
       </c>
@@ -3201,7 +3228,7 @@
         <v>0.52429999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>101</v>
       </c>
@@ -3221,7 +3248,7 @@
         <v>0.58589999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>104</v>
       </c>
@@ -3241,7 +3268,7 @@
         <v>0.46889999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>110</v>
       </c>
@@ -3261,7 +3288,7 @@
         <v>0.41980000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>113</v>
       </c>
@@ -3281,7 +3308,7 @@
         <v>0.45290000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>116</v>
       </c>
@@ -3301,7 +3328,7 @@
         <v>0.35010000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>117</v>
       </c>
@@ -3321,7 +3348,7 @@
         <v>0.61419999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>120</v>
       </c>
@@ -3341,7 +3368,7 @@
         <v>0.46539999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>126</v>
       </c>
@@ -3361,7 +3388,7 @@
         <v>0.38379999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>123</v>
       </c>
@@ -3381,7 +3408,7 @@
         <v>0.35560000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>129</v>
       </c>
@@ -3401,7 +3428,7 @@
         <v>0.67710000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>132</v>
       </c>
@@ -3421,7 +3448,7 @@
         <v>0.52059999999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>135</v>
       </c>
@@ -3441,7 +3468,7 @@
         <v>0.33350000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>138</v>
       </c>
@@ -3461,7 +3488,7 @@
         <v>0.65329999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>145</v>
       </c>
@@ -3481,7 +3508,7 @@
         <v>0.74129999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>141</v>
       </c>
@@ -3502,7 +3529,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F30">
     <sortCondition descending="1" ref="D1:D30"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3512,49 +3539,49 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="11" max="11" width="51.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.625" customWidth="1"/>
+    <col min="11" max="11" width="51.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6328125" customWidth="1"/>
     <col min="15" max="16" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>45170.7</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="32">
         <v>113160</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>24744.43</v>
       </c>
@@ -3573,7 +3600,7 @@
         <v>39433.76999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3811.1</v>
       </c>
@@ -3590,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -3603,7 +3630,7 @@
         <v>1.67E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -3616,7 +3643,7 @@
         <v>2.9899999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -3629,7 +3656,7 @@
         <v>5.8700000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="2" t="s">
         <v>10</v>
@@ -3642,7 +3669,7 @@
         <v>5.9200000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -3655,7 +3682,7 @@
         <v>6.3799999999999996E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="2" t="s">
         <v>38</v>
@@ -3668,7 +3695,7 @@
         <v>6.54E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="2" t="s">
         <v>39</v>
@@ -3681,7 +3708,7 @@
         <v>6.0199999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="2" t="s">
         <v>45</v>
@@ -3694,7 +3721,7 @@
         <v>7.1900000000000006E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="2" t="s">
         <v>51</v>
@@ -3727,7 +3754,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="2" t="s">
         <v>52</v>
@@ -3765,7 +3792,7 @@
       </c>
       <c r="L14" s="11"/>
     </row>
-    <row r="15" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="2" t="s">
         <v>56</v>
@@ -3779,16 +3806,16 @@
       <c r="E15" s="3">
         <v>8.0799999999999997E-2</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-    </row>
-    <row r="16" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+    </row>
+    <row r="16" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="2" t="s">
         <v>57</v>
@@ -3802,14 +3829,14 @@
       <c r="E16" s="3">
         <v>7.9399999999999998E-2</v>
       </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-    </row>
-    <row r="17" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+    </row>
+    <row r="17" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="2" t="s">
         <v>58</v>
@@ -3823,14 +3850,14 @@
       <c r="E17" s="3">
         <v>7.8E-2</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-    </row>
-    <row r="18" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+    </row>
+    <row r="18" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="2" t="s">
         <v>59</v>
@@ -3844,14 +3871,14 @@
       <c r="E18" s="3">
         <v>8.4099999999999994E-2</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-    </row>
-    <row r="19" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+    </row>
+    <row r="19" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="2" t="s">
         <v>144</v>
@@ -3865,14 +3892,14 @@
       <c r="E19" s="3">
         <v>8.4500000000000006E-2</v>
       </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-    </row>
-    <row r="20" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+    </row>
+    <row r="20" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="2" t="s">
         <v>150</v>
@@ -3886,14 +3913,14 @@
       <c r="E20" s="3">
         <v>8.7099999999999997E-2</v>
       </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-    </row>
-    <row r="21" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+    </row>
+    <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="2" t="s">
         <v>151</v>
@@ -3923,7 +3950,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="2" t="s">
         <v>152</v>
@@ -3956,7 +3983,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B5:B27">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:B27">
     <sortCondition ref="B5"/>
   </sortState>
   <mergeCells count="3">
@@ -3972,231 +3999,235 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="12.6328125" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13" customWidth="1"/>
-    <col min="10" max="10" width="41.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.625" customWidth="1"/>
+    <col min="10" max="10" width="41.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.6328125" customWidth="1"/>
     <col min="14" max="15" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="32">
         <v>13546.06</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="34"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="34">
         <v>-1.49</v>
       </c>
-      <c r="C4" s="33"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="34">
         <v>-0.06</v>
       </c>
-      <c r="C5" s="33"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="3">
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="34">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C6" s="33"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="34">
         <v>14.52</v>
       </c>
-      <c r="C7" s="33"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="3">
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="34">
         <v>9.6300000000000008</v>
       </c>
-      <c r="C8" s="33"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="3">
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="34">
         <v>4.66</v>
       </c>
-      <c r="C9" s="33"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="3">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="34">
         <v>14.48</v>
       </c>
-      <c r="C10" s="33"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="3">
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="34">
         <v>24.22</v>
       </c>
-      <c r="C11" s="33"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="3">
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="34">
         <v>51.62</v>
       </c>
-      <c r="C12" s="33"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="3">
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="34">
         <v>72.09</v>
       </c>
-      <c r="C13" s="33"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="3">
         <v>6.8999999999999999E-3</v>
       </c>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="34">
         <v>76.31</v>
       </c>
-      <c r="C14" s="33"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="34">
         <v>134.65</v>
       </c>
-      <c r="C15" s="33"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="3">
         <v>1.12E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="34">
         <v>236.67</v>
       </c>
-      <c r="C16" s="33"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="3">
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B14:C14"/>
@@ -4212,10 +4243,6 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4225,16 +4252,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="C3:I17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -4242,7 +4269,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -4250,7 +4277,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -4258,7 +4285,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -4266,7 +4293,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>18</v>
       </c>
@@ -4274,7 +4301,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>19</v>
       </c>
@@ -4282,7 +4309,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>20</v>
       </c>
@@ -4290,7 +4317,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>21</v>
       </c>
@@ -4298,7 +4325,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>22</v>
       </c>
@@ -4306,32 +4333,32 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>28</v>
       </c>
@@ -4343,14 +4370,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/基金总结.xlsx
+++ b/基金总结.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7446B732-A122-4069-83B6-7D6C499DB4F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00625C70-2D7B-4873-85D3-F4370A4EF04E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1730" yWindow="1180" windowWidth="16910" windowHeight="8860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="167">
   <si>
     <t>今年收益率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -688,6 +688,10 @@
   </si>
   <si>
     <t>2020/01/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -814,7 +818,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -894,6 +898,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -909,7 +917,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1024,6 +1031,9 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2.1100000000000001E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2242,8 +2252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2261,12 +2271,12 @@
       <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
@@ -2275,11 +2285,11 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="34">
         <v>121606.3</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
@@ -2311,7 +2321,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>0</v>
@@ -2322,9 +2332,15 @@
       <c r="B5" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="3"/>
+      <c r="C5" s="27">
+        <v>2517.46</v>
+      </c>
+      <c r="D5" s="31">
+        <v>121606.3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.1100000000000001E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
@@ -2456,14 +2472,14 @@
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
     </row>
     <row r="16" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
@@ -2473,12 +2489,12 @@
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
     </row>
     <row r="17" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
@@ -2488,12 +2504,12 @@
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
     </row>
     <row r="18" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
@@ -2503,12 +2519,12 @@
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
     </row>
     <row r="19" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
@@ -2518,12 +2534,12 @@
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
     </row>
     <row r="20" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
@@ -2533,12 +2549,12 @@
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
     </row>
     <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
@@ -2676,18 +2692,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="32" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2898,8 +2914,8 @@
       <c r="A26" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="30"/>
     </row>
   </sheetData>
@@ -3561,12 +3577,12 @@
       <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
@@ -3575,11 +3591,11 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="34">
         <v>113160</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
@@ -3806,14 +3822,14 @@
       <c r="E15" s="3">
         <v>8.0799999999999997E-2</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
     </row>
     <row r="16" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
@@ -3829,12 +3845,12 @@
       <c r="E16" s="3">
         <v>7.9399999999999998E-2</v>
       </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
     </row>
     <row r="17" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
@@ -3850,12 +3866,12 @@
       <c r="E17" s="3">
         <v>7.8E-2</v>
       </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
     </row>
     <row r="18" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
@@ -3871,12 +3887,12 @@
       <c r="E18" s="3">
         <v>8.4099999999999994E-2</v>
       </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
     </row>
     <row r="19" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
@@ -3892,12 +3908,12 @@
       <c r="E19" s="3">
         <v>8.4500000000000006E-2</v>
       </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
     </row>
     <row r="20" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
@@ -3913,12 +3929,12 @@
       <c r="E20" s="3">
         <v>8.7099999999999997E-2</v>
       </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
     </row>
     <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
@@ -4017,31 +4033,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="34">
         <v>13546.06</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
@@ -4050,10 +4066,10 @@
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="36">
         <v>-1.49</v>
       </c>
-      <c r="C4" s="34"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="3">
         <v>0</v>
       </c>
@@ -4062,10 +4078,10 @@
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="36">
         <v>-0.06</v>
       </c>
-      <c r="C5" s="34"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="3">
         <v>-3.0000000000000001E-3</v>
       </c>
@@ -4074,10 +4090,10 @@
       <c r="A6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="36">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -4086,10 +4102,10 @@
       <c r="A7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="36">
         <v>14.52</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="3">
         <v>1.1999999999999999E-3</v>
       </c>
@@ -4098,10 +4114,10 @@
       <c r="A8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="36">
         <v>9.6300000000000008</v>
       </c>
-      <c r="C8" s="34"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="3">
         <v>5.1000000000000004E-3</v>
       </c>
@@ -4110,10 +4126,10 @@
       <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="36">
         <v>4.66</v>
       </c>
-      <c r="C9" s="34"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="3">
         <v>4.4999999999999997E-3</v>
       </c>
@@ -4122,10 +4138,10 @@
       <c r="A10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="36">
         <v>14.48</v>
       </c>
-      <c r="C10" s="34"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="3">
         <v>1.8E-3</v>
       </c>
@@ -4134,10 +4150,10 @@
       <c r="A11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="36">
         <v>24.22</v>
       </c>
-      <c r="C11" s="34"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="3">
         <v>4.4000000000000003E-3</v>
       </c>
@@ -4146,10 +4162,10 @@
       <c r="A12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="36">
         <v>51.62</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="3">
         <v>7.3000000000000001E-3</v>
       </c>
@@ -4158,10 +4174,10 @@
       <c r="A13" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="36">
         <v>72.09</v>
       </c>
-      <c r="C13" s="34"/>
+      <c r="C13" s="36"/>
       <c r="D13" s="3">
         <v>6.8999999999999999E-3</v>
       </c>
@@ -4171,10 +4187,10 @@
       <c r="A14" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="36">
         <v>76.31</v>
       </c>
-      <c r="C14" s="34"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
@@ -4183,10 +4199,10 @@
       <c r="A15" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="36">
         <v>134.65</v>
       </c>
-      <c r="C15" s="34"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="3">
         <v>1.12E-2</v>
       </c>
@@ -4195,35 +4211,38 @@
       <c r="A16" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="36">
         <v>236.67</v>
       </c>
-      <c r="C16" s="34"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="3">
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
@@ -4240,9 +4259,6 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/基金总结.xlsx
+++ b/基金总结.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00625C70-2D7B-4873-85D3-F4370A4EF04E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A63459-9070-4F55-A4D8-BD6F35740C3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1730" yWindow="1180" windowWidth="16910" windowHeight="8860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="168">
   <si>
     <t>今年收益率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -692,6 +692,10 @@
   </si>
   <si>
     <t>总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/01/17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -975,7 +979,7 @@
                   <c:v>2020/01/15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2020/01/15</c:v>
+                  <c:v>2020/01/17</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2020/02/15</c:v>
@@ -1033,6 +1037,9 @@
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2.1100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9099999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1158,7 +1165,7 @@
                   <c:v>2020/01/10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2020/01/15</c:v>
+                  <c:v>2020/01/17</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2020/02/15</c:v>
@@ -1239,7 +1246,7 @@
                   <c:v>9.5999999999999992E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.5999999999999992E-3</c:v>
+                  <c:v>7.1999999999999998E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2253,7 +2260,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2280,39 +2287,39 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45748.49</v>
+        <v>45846.45</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="34">
-        <v>121606.3</v>
+        <v>121588.86</v>
       </c>
       <c r="D2" s="34"/>
       <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>25004.12</v>
+        <v>25071</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="9">
         <f>SUM(A2:A13)</f>
-        <v>78106.45</v>
+        <v>78246.45</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="6">
         <f>C2-E2-C3</f>
-        <v>43499.850000000006</v>
+        <v>43342.41</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>7353.84</v>
+        <v>7329</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -2345,11 +2352,17 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="3"/>
+        <v>167</v>
+      </c>
+      <c r="C6" s="27">
+        <v>2276.59</v>
+      </c>
+      <c r="D6" s="27">
+        <v>121588.86</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.9099999999999999E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
@@ -2442,7 +2455,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="13">
         <f>$K$22</f>
-        <v>26.820469314079421</v>
+        <v>27.396051873198846</v>
       </c>
       <c r="G14">
         <v>15</v>
@@ -2452,15 +2465,15 @@
       </c>
       <c r="I14">
         <f>E3/C2</f>
-        <v>0.3577104969068215</v>
+        <v>0.35646694935703815</v>
       </c>
       <c r="J14">
         <f>IF(((H14-F14)/(H14-G14))&lt;0,0,((H14-F14)/(H14-G14)))*0.7+0.3</f>
-        <v>0.40897653429602893</v>
+        <v>0.38019740634005766</v>
       </c>
       <c r="K14" s="14">
         <f>(C2*J14-E3)*J14</f>
-        <v>2549.6714155207715</v>
+        <v>1097.0060887026254</v>
       </c>
       <c r="L14" s="11"/>
     </row>
@@ -2589,21 +2602,21 @@
       <c r="D22" s="27"/>
       <c r="E22" s="3"/>
       <c r="F22" s="12">
-        <v>2355</v>
+        <v>2361</v>
       </c>
       <c r="G22" s="12">
-        <v>34.51</v>
+        <v>35.19</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12">
-        <v>1800</v>
+        <v>1803</v>
       </c>
       <c r="J22" s="12">
-        <v>16.760000000000002</v>
+        <v>17.190000000000001</v>
       </c>
       <c r="K22" s="12">
         <f>(F22*G22+I22*J22)/(F22+I22)</f>
-        <v>26.820469314079421</v>
+        <v>27.396051873198846</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2677,8 +2690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2729,16 +2742,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="B4" s="30">
-        <v>161.71</v>
+        <v>142.19</v>
       </c>
       <c r="C4" s="3">
-        <v>9.5999999999999992E-3</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="D4" s="30">
-        <v>16935.88</v>
+        <v>19759.849999999999</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -4240,13 +4253,6 @@
     <row r="20" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B14:C14"/>
@@ -4259,6 +4265,13 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/基金总结.xlsx
+++ b/基金总结.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A63459-9070-4F55-A4D8-BD6F35740C3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2949B0CB-FAEA-403B-88DD-DA0BCD35EBF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1730" yWindow="1180" windowWidth="16910" windowHeight="8860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="动平衡策略2021" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="169">
   <si>
     <t>今年收益率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -696,6 +696,10 @@
   </si>
   <si>
     <t>2020/01/17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/01/23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -982,7 +986,7 @@
                   <c:v>2020/01/17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2020/02/15</c:v>
+                  <c:v>2020/01/23</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2020/02/15</c:v>
@@ -1040,6 +1044,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.9099999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0800000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1168,7 +1175,7 @@
                   <c:v>2020/01/17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2020/02/15</c:v>
+                  <c:v>2020/01/23</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2020/02/15</c:v>
@@ -1247,6 +1254,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.47E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2260,7 +2270,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2287,39 +2297,39 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45846.45</v>
+        <v>46294.699000000001</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="34">
-        <v>121588.86</v>
+        <v>124341.85</v>
       </c>
       <c r="D2" s="34"/>
       <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>25071</v>
+        <v>25277.01</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="9">
         <f>SUM(A2:A13)</f>
-        <v>78246.45</v>
+        <v>79124.219000000012</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="6">
         <f>C2-E2-C3</f>
-        <v>43342.41</v>
+        <v>45217.630999999994</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>7329</v>
+        <v>7471.85</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -2335,7 +2345,9 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="10">
+        <v>80.66</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>153</v>
       </c>
@@ -2367,11 +2379,17 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="3"/>
+        <v>168</v>
+      </c>
+      <c r="C7" s="27">
+        <v>4879.58</v>
+      </c>
+      <c r="D7" s="27">
+        <v>124341.85</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4.0800000000000003E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
@@ -2455,7 +2473,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="13">
         <f>$K$22</f>
-        <v>27.396051873198846</v>
+        <v>28.285065836724922</v>
       </c>
       <c r="G14">
         <v>15</v>
@@ -2465,15 +2483,15 @@
       </c>
       <c r="I14">
         <f>E3/C2</f>
-        <v>0.35646694935703815</v>
+        <v>0.36365576835152436</v>
       </c>
       <c r="J14">
         <f>IF(((H14-F14)/(H14-G14))&lt;0,0,((H14-F14)/(H14-G14)))*0.7+0.3</f>
-        <v>0.38019740634005766</v>
+        <v>0.3357467081637539</v>
       </c>
       <c r="K14" s="14">
         <f>(C2*J14-E3)*J14</f>
-        <v>1097.0060887026254</v>
+        <v>-1165.1297733856602</v>
       </c>
       <c r="L14" s="11"/>
     </row>
@@ -2602,21 +2620,21 @@
       <c r="D22" s="27"/>
       <c r="E22" s="3"/>
       <c r="F22" s="12">
-        <v>2361</v>
+        <v>2368</v>
       </c>
       <c r="G22" s="12">
-        <v>35.19</v>
+        <v>36.57</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12">
-        <v>1803</v>
+        <v>1809</v>
       </c>
       <c r="J22" s="12">
-        <v>17.190000000000001</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="K22" s="12">
         <f>(F22*G22+I22*J22)/(F22+I22)</f>
-        <v>27.396051873198846</v>
+        <v>28.285065836724922</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2690,8 +2708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2756,11 +2774,17 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="30"/>
+        <v>168</v>
+      </c>
+      <c r="B5" s="30">
+        <v>305</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.47E-2</v>
+      </c>
+      <c r="D5" s="30">
+        <v>21107.66</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -3572,7 +3596,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4253,6 +4277,10 @@
     <row r="20" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B14:C14"/>
@@ -4268,10 +4296,6 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/基金总结.xlsx
+++ b/基金总结.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2949B0CB-FAEA-403B-88DD-DA0BCD35EBF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B352888-5A6A-463D-B447-4F0B8EEE2E9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="163">
   <si>
     <t>今年收益率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -639,67 +639,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020/01/15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020/02/15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020/03/15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020/04/15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020/05/15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020/06/15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020/07/15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020/08/15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020/10/15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020/12/15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020/09/15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>投资金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020/01/10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>总金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020/01/17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020/01/23</t>
+    <t>2021/01/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/01/17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/01/23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/02/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/03/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/01/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/01/01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调仓金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -980,55 +956,55 @@
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>2020/01/15</c:v>
+                  <c:v>2021/01/15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2020/01/17</c:v>
+                  <c:v>2021/01/17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2020/01/23</c:v>
+                  <c:v>2021/01/23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2020/02/15</c:v>
+                  <c:v>2021/01/01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2020/03/15</c:v>
+                  <c:v>2021/01/01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2020/03/15</c:v>
+                  <c:v>2021/01/01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2020/04/15</c:v>
+                  <c:v>2021/01/01</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2020/04/15</c:v>
+                  <c:v>2021/01/01</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2020/05/15</c:v>
+                  <c:v>2021/01/01</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2020/05/15</c:v>
+                  <c:v>2021/01/01</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2020/06/15</c:v>
+                  <c:v>2021/01/01</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2020/06/15</c:v>
+                  <c:v>2021/01/01</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2020/07/15</c:v>
+                  <c:v>2021/01/01</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2020/07/15</c:v>
+                  <c:v>2021/01/01</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2020/08/15</c:v>
+                  <c:v>2021/01/01</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2020/08/15</c:v>
+                  <c:v>2021/01/01</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2020/09/15</c:v>
+                  <c:v>2021/01/01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1169,76 +1145,76 @@
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>2020/01/10</c:v>
+                  <c:v>2021/01/10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2020/01/17</c:v>
+                  <c:v>2021/01/17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2020/01/23</c:v>
+                  <c:v>2021/01/23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2020/02/15</c:v>
+                  <c:v>2021/02/15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2020/03/15</c:v>
+                  <c:v>2021/03/15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2020/03/15</c:v>
+                  <c:v>2021/03/15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2020/04/15</c:v>
+                  <c:v>2021/03/15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2020/04/15</c:v>
+                  <c:v>2021/03/15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2020/05/15</c:v>
+                  <c:v>2021/03/15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2020/05/15</c:v>
+                  <c:v>2021/03/15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2020/06/15</c:v>
+                  <c:v>2021/03/15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2020/06/15</c:v>
+                  <c:v>2021/03/15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2020/07/15</c:v>
+                  <c:v>2021/03/15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2020/07/15</c:v>
+                  <c:v>2021/03/15</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2020/08/15</c:v>
+                  <c:v>2021/03/15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2020/08/15</c:v>
+                  <c:v>2021/03/15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2020/09/15</c:v>
+                  <c:v>2021/03/15</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2020/09/15</c:v>
+                  <c:v>2021/03/15</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2020/10/15</c:v>
+                  <c:v>2021/03/15</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2020/10/15</c:v>
+                  <c:v>2021/03/15</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2020/11/15</c:v>
+                  <c:v>2021/03/15</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2020/11/15</c:v>
+                  <c:v>2021/03/15</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2020/12/15</c:v>
+                  <c:v>2021/03/15</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2020/12/15</c:v>
+                  <c:v>2021/03/15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2270,7 +2246,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="M13" activeCellId="1" sqref="M17 M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2279,7 +2255,7 @@
     <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="11" max="11" width="51.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.7265625" customWidth="1"/>
     <col min="13" max="13" width="5.6328125" customWidth="1"/>
     <col min="15" max="16" width="13" bestFit="1" customWidth="1"/>
   </cols>
@@ -2338,7 +2314,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>0</v>
@@ -2349,7 +2325,7 @@
         <v>80.66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C5" s="27">
         <v>2517.46</v>
@@ -2364,7 +2340,7 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C6" s="27">
         <v>2276.59</v>
@@ -2379,7 +2355,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C7" s="27">
         <v>4879.58</v>
@@ -2394,7 +2370,7 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -2403,7 +2379,7 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -2412,7 +2388,7 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
@@ -2421,7 +2397,7 @@
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -2430,7 +2406,7 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
@@ -2439,7 +2415,7 @@
     <row r="13" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
@@ -2460,13 +2436,13 @@
         <v>13</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>50</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
@@ -2498,7 +2474,7 @@
     <row r="15" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -2515,7 +2491,7 @@
     <row r="16" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
@@ -2530,7 +2506,7 @@
     <row r="17" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -2545,7 +2521,7 @@
     <row r="18" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
@@ -2560,7 +2536,7 @@
     <row r="19" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
@@ -2575,7 +2551,7 @@
     <row r="20" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
@@ -2590,7 +2566,7 @@
     <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -2614,7 +2590,7 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
@@ -2658,7 +2634,7 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
@@ -2667,7 +2643,7 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
@@ -2676,7 +2652,7 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
@@ -2685,7 +2661,7 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
@@ -2709,7 +2685,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2741,12 +2717,12 @@
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B3" s="30">
         <v>161.71</v>
@@ -2760,7 +2736,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B4" s="30">
         <v>142.19</v>
@@ -2774,7 +2750,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B5" s="30">
         <v>305</v>
@@ -2788,7 +2764,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="3"/>
@@ -2796,7 +2772,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="3"/>
@@ -2804,7 +2780,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="3"/>
@@ -2812,7 +2788,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="3"/>
@@ -2820,7 +2796,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="3"/>
@@ -2828,7 +2804,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="3"/>
@@ -2836,7 +2812,7 @@
     </row>
     <row r="12" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="3"/>
@@ -2844,7 +2820,7 @@
     </row>
     <row r="13" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="3"/>
@@ -2853,7 +2829,7 @@
     </row>
     <row r="14" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="3"/>
@@ -2877,7 +2853,7 @@
     </row>
     <row r="17" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="3"/>
@@ -2885,7 +2861,7 @@
     </row>
     <row r="18" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="3"/>
@@ -2893,7 +2869,7 @@
     </row>
     <row r="19" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="3"/>
@@ -2901,7 +2877,7 @@
     </row>
     <row r="20" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="3"/>
@@ -2909,7 +2885,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="3"/>
@@ -2917,7 +2893,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="3"/>
@@ -2925,7 +2901,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="3"/>
@@ -2933,7 +2909,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="3"/>
@@ -2941,7 +2917,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="3"/>
@@ -2949,7 +2925,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -4277,6 +4253,9 @@
     <row r="20" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
@@ -4293,9 +4272,6 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/基金总结.xlsx
+++ b/基金总结.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B352888-5A6A-463D-B447-4F0B8EEE2E9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF37AD9E-B194-44BD-9334-B5B3DAFC8532}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="800" windowWidth="16910" windowHeight="8860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="动平衡策略2021" sheetId="8" r:id="rId1"/>
@@ -16,12 +16,15 @@
     <sheet name="投资准则" sheetId="2" r:id="rId6"/>
     <sheet name="草稿" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">投资总结!$A$1:$K$33</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="187">
   <si>
     <t>今年收益率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -419,10 +422,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>004233</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中欧盛世成长混合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -591,18 +590,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>161903</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万家行业优选混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄兴亮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2020/12/20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -659,10 +646,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2021/02/15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2021/03/15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -676,6 +659,122 @@
   </si>
   <si>
     <t>调仓金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/01/30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中银丰利灵活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002431</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中银锦利灵活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003851</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001997</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银新趋势灵活混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何肖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>163415</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴全商业模式优选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔迁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002846</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泓德鸿华灵活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦毅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票占比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏普率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大回撤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波动率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>债券有所减仓，机构有所减仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票仓位较高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高位持仓 持股分散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓位变化大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持股分散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分散不减仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7层仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛叉7层仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓位较高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -683,7 +782,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -722,6 +821,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -802,7 +909,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -886,6 +993,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -965,7 +1074,7 @@
                   <c:v>2021/01/23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2021/01/01</c:v>
+                  <c:v>2021/01/30</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2021/01/01</c:v>
@@ -1023,6 +1132,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4.0800000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.18E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1154,7 +1266,7 @@
                   <c:v>2021/01/23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2021/02/15</c:v>
+                  <c:v>2021/01/30</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2021/03/15</c:v>
@@ -1233,6 +1345,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.47E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2245,8 +2360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M13" activeCellId="1" sqref="M17 M13"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2264,48 +2379,48 @@
       <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>46294.699000000001</v>
+        <v>45940.1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="34">
-        <v>124341.85</v>
-      </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="36">
+        <v>122265.51</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>25277.01</v>
+        <v>25122.35</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="9">
         <f>SUM(A2:A13)</f>
-        <v>79124.219000000012</v>
+        <v>78488.09</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="6">
         <f>C2-E2-C3</f>
-        <v>45217.630999999994</v>
+        <v>43777.42</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>7471.85</v>
+        <v>7298.04</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -2314,7 +2429,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>0</v>
@@ -2322,10 +2437,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>80.66</v>
+        <v>127.6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C5" s="27">
         <v>2517.46</v>
@@ -2340,7 +2455,7 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C6" s="27">
         <v>2276.59</v>
@@ -2355,7 +2470,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C7" s="27">
         <v>4879.58</v>
@@ -2370,16 +2485,22 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="3"/>
+        <v>158</v>
+      </c>
+      <c r="C8" s="27">
+        <v>2603.2399999999998</v>
+      </c>
+      <c r="D8" s="27">
+        <v>122265.51</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2.18E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -2388,7 +2509,7 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
@@ -2397,7 +2518,7 @@
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -2406,7 +2527,7 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
@@ -2415,7 +2536,7 @@
     <row r="13" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
@@ -2436,20 +2557,20 @@
         <v>13</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="3"/>
       <c r="F14" s="13">
         <f>$K$22</f>
-        <v>28.285065836724922</v>
+        <v>27.024013377926423</v>
       </c>
       <c r="G14">
         <v>15</v>
@@ -2459,114 +2580,114 @@
       </c>
       <c r="I14">
         <f>E3/C2</f>
-        <v>0.36365576835152436</v>
+        <v>0.35805207862789762</v>
       </c>
       <c r="J14">
         <f>IF(((H14-F14)/(H14-G14))&lt;0,0,((H14-F14)/(H14-G14)))*0.7+0.3</f>
-        <v>0.3357467081637539</v>
+        <v>0.39879933110367882</v>
       </c>
       <c r="K14" s="14">
         <f>(C2*J14-E3)*J14</f>
-        <v>-1165.1297733856602</v>
+        <v>1986.8117292634961</v>
       </c>
       <c r="L14" s="11"/>
     </row>
     <row r="15" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
     </row>
     <row r="16" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
     </row>
     <row r="17" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
     </row>
     <row r="18" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
     </row>
     <row r="19" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
     </row>
     <row r="20" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
     </row>
     <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -2590,33 +2711,33 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="3"/>
       <c r="F22" s="12">
-        <v>2368</v>
+        <v>2373</v>
       </c>
       <c r="G22" s="12">
-        <v>36.57</v>
+        <v>34.82</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12">
-        <v>1809</v>
+        <v>1813</v>
       </c>
       <c r="J22" s="12">
-        <v>17.440000000000001</v>
+        <v>16.82</v>
       </c>
       <c r="K22" s="12">
         <f>(F22*G22+I22*J22)/(F22+I22)</f>
-        <v>28.285065836724922</v>
+        <v>27.024013377926423</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
@@ -2625,7 +2746,7 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
@@ -2634,7 +2755,7 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
@@ -2643,7 +2764,7 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
@@ -2652,7 +2773,7 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
@@ -2661,7 +2782,7 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
@@ -2685,7 +2806,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2699,12 +2820,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2717,12 +2838,12 @@
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B3" s="30">
         <v>161.71</v>
@@ -2736,7 +2857,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B4" s="30">
         <v>142.19</v>
@@ -2750,7 +2871,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B5" s="30">
         <v>305</v>
@@ -2766,13 +2887,19 @@
       <c r="A6" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="30"/>
+      <c r="B6" s="30">
+        <v>79.72</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3.8E-3</v>
+      </c>
+      <c r="D6" s="30">
+        <v>21122.38</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="3"/>
@@ -2780,7 +2907,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="3"/>
@@ -2788,7 +2915,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="3"/>
@@ -2796,7 +2923,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="3"/>
@@ -2804,7 +2931,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="3"/>
@@ -2812,7 +2939,7 @@
     </row>
     <row r="12" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="3"/>
@@ -2820,7 +2947,7 @@
     </row>
     <row r="13" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="3"/>
@@ -2829,7 +2956,7 @@
     </row>
     <row r="14" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="3"/>
@@ -2837,7 +2964,7 @@
     </row>
     <row r="15" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="3"/>
@@ -2845,7 +2972,7 @@
     </row>
     <row r="16" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="3"/>
@@ -2853,7 +2980,7 @@
     </row>
     <row r="17" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="3"/>
@@ -2861,7 +2988,7 @@
     </row>
     <row r="18" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="3"/>
@@ -2869,7 +2996,7 @@
     </row>
     <row r="19" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="3"/>
@@ -2877,7 +3004,7 @@
     </row>
     <row r="20" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="3"/>
@@ -2885,7 +3012,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="3"/>
@@ -2893,7 +3020,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="3"/>
@@ -2901,7 +3028,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="3"/>
@@ -2909,7 +3036,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="3"/>
@@ -2917,7 +3044,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="3"/>
@@ -2925,10 +3052,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
+        <v>154</v>
+      </c>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="30"/>
     </row>
   </sheetData>
@@ -2945,10 +3072,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G30"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2958,9 +3087,12 @@
     <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>60</v>
       </c>
@@ -2977,131 +3109,233 @@
         <v>64</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="G1" s="15"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D2">
-        <v>44854</v>
+        <v>5317</v>
       </c>
       <c r="E2" s="16">
-        <v>0.90039999999999998</v>
-      </c>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.14810000000000001</v>
+      </c>
+      <c r="F2" s="16">
+        <v>0.51890000000000003</v>
+      </c>
+      <c r="G2" s="16">
+        <v>0.69069999999999998</v>
+      </c>
+      <c r="H2" s="16">
+        <v>0.16969999999999999</v>
+      </c>
+      <c r="I2" s="16">
+        <v>2.5899999999999999E-2</v>
+      </c>
+      <c r="J2" s="16">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D3">
-        <v>24586</v>
+        <v>4761</v>
       </c>
       <c r="E3" s="16">
-        <v>0.69120000000000004</v>
-      </c>
-      <c r="F3" s="16"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.64</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0.23080000000000001</v>
+      </c>
+      <c r="G3" s="16">
+        <v>0.39069999999999999</v>
+      </c>
+      <c r="H3" s="16">
+        <v>0.1072</v>
+      </c>
+      <c r="I3" s="16">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="J3" s="16">
+        <v>9.4399999999999998E-2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4">
+        <v>723</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0.13969999999999999</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0.52429999999999999</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0.85340000000000005</v>
+      </c>
+      <c r="H4" s="16">
+        <v>0.23130000000000001</v>
+      </c>
+      <c r="I4" s="16">
+        <v>2.9500000000000002E-2</v>
+      </c>
+      <c r="J4" s="16">
+        <v>9.8299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
         <v>72</v>
       </c>
-      <c r="D4">
-        <v>5317</v>
-      </c>
-      <c r="E4" s="16">
-        <v>0.14810000000000001</v>
-      </c>
-      <c r="F4" s="16">
-        <v>0.44259999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
       <c r="D5">
-        <v>4761</v>
+        <v>1615</v>
       </c>
       <c r="E5" s="16">
-        <v>0.64</v>
+        <v>0.4289</v>
       </c>
       <c r="F5" s="16">
-        <v>0.24179999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.55430000000000001</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.87660000000000005</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0.21160000000000001</v>
+      </c>
+      <c r="I5" s="16">
+        <v>2.5099999999999997E-2</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0.1143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6">
+        <v>594</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.29260000000000003</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0.45290000000000002</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0.74729999999999996</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0.19289999999999999</v>
+      </c>
+      <c r="I6" s="16">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0.1176</v>
+      </c>
+      <c r="K6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>78</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>4047</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E7" s="16">
         <v>4.36E-2</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F7" s="16">
         <v>0.47339999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7">
-        <v>3528</v>
-      </c>
-      <c r="E7" s="16">
-        <v>0.1152</v>
-      </c>
-      <c r="F7" s="16">
-        <v>0.45450000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="16">
+        <v>0.78720000000000001</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0.17269999999999999</v>
+      </c>
+      <c r="I7" s="16">
+        <v>1.52E-2</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0.12839999999999999</v>
+      </c>
+      <c r="K7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="33" t="s">
         <v>83</v>
       </c>
       <c r="C8" t="s">
@@ -3116,450 +3350,841 @@
       <c r="F8" s="16">
         <v>0.57589999999999997</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="16">
+        <v>0.89529999999999998</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0.2036</v>
+      </c>
+      <c r="I8" s="16">
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0.1326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0.3281</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0.90769999999999995</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0.24779999999999999</v>
+      </c>
+      <c r="I9" s="16">
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0.13669999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>78</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>2387</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E10" s="16">
         <v>0.83460000000000001</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F10" s="16">
         <v>0.56789999999999996</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="G10" s="16">
+        <v>0.84840000000000004</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0.1956</v>
+      </c>
+      <c r="I10" s="16">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J10" s="16">
+        <v>0.13869999999999999</v>
+      </c>
+      <c r="N10">
+        <f ca="1">N10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11">
+        <v>329</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0.22270000000000001</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0.46539999999999998</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0.93310000000000004</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0.21820000000000001</v>
+      </c>
+      <c r="I11" s="16">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0.1389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12">
+        <v>243</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0.56579999999999997</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0.49580000000000002</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="H12" s="16">
+        <v>0.23130000000000001</v>
+      </c>
+      <c r="I12" s="16">
+        <v>2.24E-2</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="K12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13">
+        <v>75</v>
+      </c>
+      <c r="E13" s="16">
+        <v>6.59E-2</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0.65329999999999999</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0.94389999999999996</v>
+      </c>
+      <c r="H13" s="16">
+        <v>0.24460000000000001</v>
+      </c>
+      <c r="I13" s="16">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="J13" s="16">
+        <v>0.1512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0.39360000000000001</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0.91520000000000001</v>
+      </c>
+      <c r="H14" s="16">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="I14" s="16">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="J14" s="16">
+        <v>0.15509999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15">
+        <v>1809</v>
+      </c>
+      <c r="E15" s="16">
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0.70250000000000001</v>
+      </c>
+      <c r="G15" s="16">
+        <v>0.92349999999999999</v>
+      </c>
+      <c r="H15" s="16">
+        <v>0.21890000000000001</v>
+      </c>
+      <c r="I15" s="16">
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="J15" s="16">
+        <v>0.15740000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16">
+        <v>177</v>
+      </c>
+      <c r="E16" s="16">
+        <v>7.3099999999999998E-2</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0.67710000000000004</v>
+      </c>
+      <c r="G16" s="16">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="H16" s="16">
+        <v>0.25629999999999997</v>
+      </c>
+      <c r="I16" s="16">
+        <v>2.6699999999999998E-2</v>
+      </c>
+      <c r="J16" s="16">
+        <v>0.1585</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17">
+        <v>671</v>
+      </c>
+      <c r="E17" s="16">
+        <v>0.61729999999999996</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0.41980000000000001</v>
+      </c>
+      <c r="G17" s="16">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="H17" s="16">
+        <v>0.2349</v>
+      </c>
+      <c r="I17" s="16">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="J17" s="16">
+        <v>0.16070000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B18" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C18" t="s">
         <v>89</v>
       </c>
-      <c r="D10">
+      <c r="D18">
         <v>2274</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E18" s="16">
         <v>8.3699999999999997E-2</v>
       </c>
-      <c r="F10" s="16">
-        <v>0.40889999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11">
-        <v>1809</v>
-      </c>
-      <c r="E11" s="16">
-        <v>5.6500000000000002E-2</v>
-      </c>
-      <c r="F11" s="16">
-        <v>0.70250000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12">
-        <v>1615</v>
-      </c>
-      <c r="E12" s="16">
-        <v>0.4289</v>
-      </c>
-      <c r="F12" s="16">
-        <v>0.55430000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="F18" s="16">
+        <v>0.41120000000000001</v>
+      </c>
+      <c r="G18" s="16">
+        <v>0.86939999999999995</v>
+      </c>
+      <c r="H18" s="16">
+        <v>0.21820000000000001</v>
+      </c>
+      <c r="I18" s="16">
+        <v>2.64E-2</v>
+      </c>
+      <c r="J18" s="16">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="K18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19">
+        <v>133</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0.26529999999999998</v>
+      </c>
+      <c r="F19" s="16">
+        <v>0.56859999999999999</v>
+      </c>
+      <c r="G19" s="16">
+        <v>0.91790000000000005</v>
+      </c>
+      <c r="H19" s="16">
+        <v>0.22939999999999999</v>
+      </c>
+      <c r="I19" s="16">
+        <v>2.3E-2</v>
+      </c>
+      <c r="J19" s="16">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="K19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B20" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C20" t="s">
         <v>97</v>
       </c>
-      <c r="D13">
+      <c r="D20">
         <v>1355</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E20" s="16">
         <v>0.1487</v>
       </c>
-      <c r="F13" s="16">
-        <v>0.37340000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="F20" s="16">
+        <v>0.36549999999999999</v>
+      </c>
+      <c r="G20" s="16">
+        <v>0.94289999999999996</v>
+      </c>
+      <c r="H20" s="16">
+        <v>0.22370000000000001</v>
+      </c>
+      <c r="I20" s="16">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="J20" s="16">
+        <v>0.16869999999999999</v>
+      </c>
+      <c r="K20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21">
+        <v>3528</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0.1152</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0.55349999999999999</v>
+      </c>
+      <c r="G21" s="16">
+        <v>0.95489999999999997</v>
+      </c>
+      <c r="H21" s="16">
+        <v>0.2555</v>
+      </c>
+      <c r="I21" s="16">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="J21" s="16">
+        <v>0.17100000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22">
+        <v>238</v>
+      </c>
+      <c r="E22" s="16">
+        <v>0.66259999999999997</v>
+      </c>
+      <c r="F22" s="16">
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="G22" s="16">
+        <v>0.89970000000000006</v>
+      </c>
+      <c r="H22" s="16">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="I22" s="16">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="J22" s="16">
+        <v>0.1769</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" t="s">
+        <v>172</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0.4773</v>
+      </c>
+      <c r="G23" s="16">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="H23" s="16">
+        <v>0.2432</v>
+      </c>
+      <c r="I23" s="16">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="J23" s="16">
+        <v>0.18179999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24">
+        <v>89</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0.76180000000000003</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0.37130000000000002</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0.93020000000000003</v>
+      </c>
+      <c r="H24" s="16">
+        <v>0.24260000000000001</v>
+      </c>
+      <c r="I24" s="16">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="J24" s="16">
+        <v>0.18329999999999999</v>
+      </c>
+      <c r="K24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25">
+        <v>720</v>
+      </c>
+      <c r="E25" s="16">
+        <v>0.28949999999999998</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0.58589999999999998</v>
+      </c>
+      <c r="G25" s="16">
+        <v>0.81340000000000001</v>
+      </c>
+      <c r="H25" s="16">
+        <v>0.25559999999999999</v>
+      </c>
+      <c r="I25" s="16">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="J25" s="16">
+        <v>0.18759999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
+      <c r="E26" s="16">
+        <v>0.75549999999999995</v>
+      </c>
+      <c r="F26" s="16">
+        <v>0.70479999999999998</v>
+      </c>
+      <c r="G26" s="16">
+        <v>0.92769999999999997</v>
+      </c>
+      <c r="H26" s="16">
+        <v>0.22370000000000001</v>
+      </c>
+      <c r="I26" s="16">
+        <v>2.4700000000000003E-2</v>
+      </c>
+      <c r="J26" s="16">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="K26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27">
+        <v>691</v>
+      </c>
+      <c r="E27" s="16">
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="F27" s="16">
+        <v>0.46889999999999998</v>
+      </c>
+      <c r="G27" s="16">
+        <v>0.84960000000000002</v>
+      </c>
+      <c r="H27" s="16">
+        <v>0.2828</v>
+      </c>
+      <c r="I27" s="16">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="J27" s="16">
+        <v>0.20669999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="C28" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14">
-        <v>870</v>
-      </c>
-      <c r="E14" s="16">
+      <c r="D28">
+        <v>510</v>
+      </c>
+      <c r="E28" s="16">
         <v>0.3054</v>
       </c>
-      <c r="F14" s="16">
-        <v>0.35010000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15">
-        <v>723</v>
-      </c>
-      <c r="E15" s="16">
-        <v>0.13969999999999999</v>
-      </c>
-      <c r="F15" s="16">
-        <v>0.52429999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16">
-        <v>720</v>
-      </c>
-      <c r="E16" s="16">
-        <v>0.28949999999999998</v>
-      </c>
-      <c r="F16" s="16">
-        <v>0.58589999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17">
-        <v>691</v>
-      </c>
-      <c r="E17" s="16">
-        <v>7.7399999999999997E-2</v>
-      </c>
-      <c r="F17" s="16">
-        <v>0.46889999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18">
-        <v>671</v>
-      </c>
-      <c r="E18" s="16">
-        <v>0.61729999999999996</v>
-      </c>
-      <c r="F18" s="16">
-        <v>0.41980000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19">
-        <v>594</v>
-      </c>
-      <c r="E19" s="16">
-        <v>0.29260000000000003</v>
-      </c>
-      <c r="F19" s="16">
-        <v>0.45290000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+      <c r="F28" s="16">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="G28" s="16">
+        <v>0.8125</v>
+      </c>
+      <c r="H28" s="16">
+        <v>0.25619999999999998</v>
+      </c>
+      <c r="I28" s="16">
+        <v>2.5100000000000001E-2</v>
+      </c>
+      <c r="J28" s="16">
+        <v>0.2079</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20">
-        <v>510</v>
-      </c>
-      <c r="E20" s="16">
-        <v>0.3054</v>
-      </c>
-      <c r="F20" s="16">
-        <v>0.35010000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="B29" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C29" t="s">
         <v>118</v>
       </c>
-      <c r="C21" t="s">
-        <v>119</v>
-      </c>
-      <c r="D21">
+      <c r="D29">
         <v>482</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E29" s="16">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F29" s="16">
         <v>0.61419999999999997</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22">
-        <v>329</v>
-      </c>
-      <c r="E22" s="16">
-        <v>0.22270000000000001</v>
-      </c>
-      <c r="F22" s="16">
-        <v>0.46539999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23">
-        <v>243</v>
-      </c>
-      <c r="E23" s="16">
-        <v>0.56579999999999997</v>
-      </c>
-      <c r="F23" s="16">
-        <v>0.38379999999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="B24" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D24">
-        <v>238</v>
-      </c>
-      <c r="E24" s="16">
-        <v>0.66259999999999997</v>
-      </c>
-      <c r="F24" s="16">
-        <v>0.35560000000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25">
-        <v>177</v>
-      </c>
-      <c r="E25" s="16">
-        <v>7.3099999999999998E-2</v>
-      </c>
-      <c r="F25" s="16">
-        <v>0.67710000000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="B26" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26">
-        <v>133</v>
-      </c>
-      <c r="E26" s="16">
-        <v>0.26529999999999998</v>
-      </c>
-      <c r="F26" s="16">
-        <v>0.52059999999999995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="B27" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27">
-        <v>89</v>
-      </c>
-      <c r="E27" s="16">
-        <v>0.76180000000000003</v>
-      </c>
-      <c r="F27" s="16">
-        <v>0.33350000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" t="s">
-        <v>140</v>
-      </c>
-      <c r="D28">
-        <v>75</v>
-      </c>
-      <c r="E28" s="16">
-        <v>6.59E-2</v>
-      </c>
-      <c r="F28" s="16">
-        <v>0.65329999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="B29" t="s">
-        <v>146</v>
-      </c>
-      <c r="C29" t="s">
-        <v>147</v>
-      </c>
-      <c r="D29">
-        <v>20</v>
-      </c>
-      <c r="E29" s="16">
-        <v>0.75549999999999995</v>
-      </c>
-      <c r="F29" s="16">
-        <v>0.74129999999999996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="16">
+        <v>0.83689999999999998</v>
+      </c>
+      <c r="H29" s="16">
+        <v>0.3397</v>
+      </c>
+      <c r="I29" s="16">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="J29" s="16">
+        <v>0.25469999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="B30" t="s">
-        <v>142</v>
+        <v>65</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>44854</v>
       </c>
       <c r="E30" s="16">
-        <v>0.12529999999999999</v>
-      </c>
-      <c r="F30" s="16">
-        <v>0.70030000000000003</v>
-      </c>
+        <v>0.90039999999999998</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="J30" s="16"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31">
+        <v>24586</v>
+      </c>
+      <c r="E31" s="16">
+        <v>0.69120000000000004</v>
+      </c>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="J31" s="16"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" t="s">
+        <v>161</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="J32" s="16"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" t="s">
+        <v>161</v>
+      </c>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="J33" s="16"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F30">
-    <sortCondition descending="1" ref="D1:D30"/>
+  <autoFilter ref="A1:K33" xr:uid="{C6A7F759-5C47-4AE7-88CA-CBFE12680C6D}">
+    <filterColumn colId="7">
+      <filters blank="1">
+        <filter val="10.72%"/>
+        <filter val="16.97%"/>
+        <filter val="19.29%"/>
+        <filter val="20.36%"/>
+        <filter val="21.16%"/>
+        <filter val="21.82%"/>
+        <filter val="21.89%"/>
+        <filter val="22.37%"/>
+        <filter val="22.94%"/>
+        <filter val="23.13%"/>
+        <filter val="23.40%"/>
+        <filter val="23.49%"/>
+        <filter val="24.20%"/>
+        <filter val="24.26%"/>
+        <filter val="24.32%"/>
+        <filter val="24.46%"/>
+        <filter val="24.78%"/>
+        <filter val="28.28%"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="8">
+      <filters blank="1">
+        <filter val="2.08%"/>
+        <filter val="2.13%"/>
+        <filter val="2.19%"/>
+        <filter val="2.22%"/>
+        <filter val="2.24%"/>
+        <filter val="2.30%"/>
+        <filter val="2.33%"/>
+        <filter val="2.34%"/>
+        <filter val="2.36%"/>
+        <filter val="2.44%"/>
+        <filter val="2.45%"/>
+        <filter val="2.47%"/>
+        <filter val="2.51%"/>
+        <filter val="2.59%"/>
+        <filter val="2.64%"/>
+        <filter val="2.67%"/>
+        <filter val="2.74%"/>
+        <filter val="2.78%"/>
+        <filter val="2.82%"/>
+        <filter val="2.88%"/>
+        <filter val="2.95%"/>
+        <filter val="3.17%"/>
+        <filter val="3.18%"/>
+        <filter val="3.35%"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters blank="1">
+        <filter val="11.43%"/>
+        <filter val="11.76%"/>
+        <filter val="13.26%"/>
+        <filter val="13.67%"/>
+        <filter val="13.89%"/>
+        <filter val="14.40%"/>
+        <filter val="15.12%"/>
+        <filter val="15.51%"/>
+        <filter val="15.74%"/>
+        <filter val="16.07%"/>
+        <filter val="16.20%"/>
+        <filter val="16.40%"/>
+        <filter val="16.87%"/>
+        <filter val="17.69%"/>
+        <filter val="8.60%"/>
+        <filter val="9.44%"/>
+        <filter val="9.83%"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K33">
+    <sortCondition ref="J1:J33"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3590,12 +4215,12 @@
       <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
@@ -3604,11 +4229,11 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="36">
         <v>113160</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
@@ -3835,14 +4460,14 @@
       <c r="E15" s="3">
         <v>8.0799999999999997E-2</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
     </row>
     <row r="16" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
@@ -3858,12 +4483,12 @@
       <c r="E16" s="3">
         <v>7.9399999999999998E-2</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
     </row>
     <row r="17" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
@@ -3879,12 +4504,12 @@
       <c r="E17" s="3">
         <v>7.8E-2</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
     </row>
     <row r="18" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
@@ -3900,17 +4525,17 @@
       <c r="E18" s="3">
         <v>8.4099999999999994E-2</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
     </row>
     <row r="19" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C19" s="23">
         <v>13208.35</v>
@@ -3921,17 +4546,17 @@
       <c r="E19" s="3">
         <v>8.4500000000000006E-2</v>
       </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
     </row>
     <row r="20" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C20" s="25">
         <v>14101.95</v>
@@ -3942,17 +4567,17 @@
       <c r="E20" s="3">
         <v>8.7099999999999997E-2</v>
       </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
     </row>
     <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C21" s="26">
         <v>14690.65</v>
@@ -3982,7 +4607,7 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C22" s="27">
         <v>16361.16</v>
@@ -4046,31 +4671,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="36">
         <v>13546.06</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
@@ -4079,10 +4704,10 @@
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="38">
         <v>-1.49</v>
       </c>
-      <c r="C4" s="36"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="3">
         <v>0</v>
       </c>
@@ -4091,10 +4716,10 @@
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="38">
         <v>-0.06</v>
       </c>
-      <c r="C5" s="36"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="3">
         <v>-3.0000000000000001E-3</v>
       </c>
@@ -4103,10 +4728,10 @@
       <c r="A6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="38">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -4115,10 +4740,10 @@
       <c r="A7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="38">
         <v>14.52</v>
       </c>
-      <c r="C7" s="36"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="3">
         <v>1.1999999999999999E-3</v>
       </c>
@@ -4127,10 +4752,10 @@
       <c r="A8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="38">
         <v>9.6300000000000008</v>
       </c>
-      <c r="C8" s="36"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="3">
         <v>5.1000000000000004E-3</v>
       </c>
@@ -4139,10 +4764,10 @@
       <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="38">
         <v>4.66</v>
       </c>
-      <c r="C9" s="36"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="3">
         <v>4.4999999999999997E-3</v>
       </c>
@@ -4151,10 +4776,10 @@
       <c r="A10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="38">
         <v>14.48</v>
       </c>
-      <c r="C10" s="36"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="3">
         <v>1.8E-3</v>
       </c>
@@ -4163,10 +4788,10 @@
       <c r="A11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="38">
         <v>24.22</v>
       </c>
-      <c r="C11" s="36"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="3">
         <v>4.4000000000000003E-3</v>
       </c>
@@ -4175,22 +4800,22 @@
       <c r="A12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="38">
         <v>51.62</v>
       </c>
-      <c r="C12" s="36"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="3">
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B13" s="36">
+        <v>140</v>
+      </c>
+      <c r="B13" s="38">
         <v>72.09</v>
       </c>
-      <c r="C13" s="36"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="3">
         <v>6.8999999999999999E-3</v>
       </c>
@@ -4198,56 +4823,56 @@
     </row>
     <row r="14" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B14" s="36">
+        <v>145</v>
+      </c>
+      <c r="B14" s="38">
         <v>76.31</v>
       </c>
-      <c r="C14" s="36"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B15" s="36">
+        <v>147</v>
+      </c>
+      <c r="B15" s="38">
         <v>134.65</v>
       </c>
-      <c r="C15" s="36"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="3">
         <v>1.12E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B16" s="36">
+        <v>148</v>
+      </c>
+      <c r="B16" s="38">
         <v>236.67</v>
       </c>
-      <c r="C16" s="36"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="3">
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/基金总结.xlsx
+++ b/基金总结.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF37AD9E-B194-44BD-9334-B5B3DAFC8532}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="800" windowWidth="16910" windowHeight="8860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="795" windowWidth="16905" windowHeight="8865"/>
   </bookViews>
   <sheets>
     <sheet name="动平衡策略2021" sheetId="8" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">投资总结!$A$1:$K$33</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -781,7 +780,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1028,7 +1027,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1042,6 +1041,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1140,7 +1140,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BBF4-4D0D-8E02-26CC045C6C86}"/>
             </c:ext>
@@ -1154,12 +1154,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71765376"/>
-        <c:axId val="100702080"/>
+        <c:axId val="51610368"/>
+        <c:axId val="51611520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71765376"/>
+        <c:axId val="51610368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1179,7 +1180,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100702080"/>
+        <c:crossAx val="51611520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1187,7 +1188,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100702080"/>
+        <c:axId val="51611520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1198,13 +1199,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71765376"/>
+        <c:crossAx val="51610368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1220,7 +1222,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1353,7 +1355,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D938-45C6-B97E-CB794A5F4D62}"/>
             </c:ext>
@@ -1367,12 +1369,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100723712"/>
-        <c:axId val="101335808"/>
+        <c:axId val="51637248"/>
+        <c:axId val="52253440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100723712"/>
+        <c:axId val="51637248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1392,7 +1395,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101335808"/>
+        <c:crossAx val="52253440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1400,7 +1403,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101335808"/>
+        <c:axId val="52253440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1411,7 +1414,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100723712"/>
+        <c:crossAx val="51637248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1433,7 +1436,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1584,7 +1587,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EB63-4157-8834-0BCD530F2FDA}"/>
             </c:ext>
@@ -1598,12 +1601,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101405824"/>
-        <c:axId val="101407360"/>
+        <c:axId val="52331648"/>
+        <c:axId val="52333184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101405824"/>
+        <c:axId val="52331648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1623,7 +1627,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101407360"/>
+        <c:crossAx val="52333184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1631,7 +1635,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101407360"/>
+        <c:axId val="52333184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1642,7 +1646,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101405824"/>
+        <c:crossAx val="52331648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1664,7 +1668,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1788,7 +1792,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F617-4238-8B1A-FAB98821962D}"/>
             </c:ext>
@@ -1802,12 +1806,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101498880"/>
-        <c:axId val="101500416"/>
+        <c:axId val="52416512"/>
+        <c:axId val="52418048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101498880"/>
+        <c:axId val="52416512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1827,7 +1832,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101500416"/>
+        <c:crossAx val="52418048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1835,7 +1840,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101500416"/>
+        <c:axId val="52418048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1846,7 +1851,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101498880"/>
+        <c:crossAx val="52416512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1887,7 +1892,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4081951-3721-4A88-8266-BD319FBE980C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4081951-3721-4A88-8266-BD319FBE980C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1930,7 +1935,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30C67DF5-BC88-4A2F-85A6-2F0304B2CAB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30C67DF5-BC88-4A2F-85A6-2F0304B2CAB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1973,7 +1978,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2014,7 +2019,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EA48FDF-88FB-4FE0-9CAA-591832A03EF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7EA48FDF-88FB-4FE0-9CAA-591832A03EF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2080,7 +2085,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2113,26 +2118,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2165,23 +2153,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2357,25 +2328,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="5" width="12.6328125" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="11" max="11" width="40.7265625" customWidth="1"/>
-    <col min="13" max="13" width="5.6328125" customWidth="1"/>
+    <col min="11" max="11" width="40.75" customWidth="1"/>
+    <col min="13" max="13" width="5.625" customWidth="1"/>
     <col min="15" max="16" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
@@ -2386,9 +2357,9 @@
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="10">
-        <v>45940.1</v>
+        <v>42246</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
@@ -2399,28 +2370,28 @@
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
-        <v>25122.35</v>
+        <v>25271</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="9">
         <f>SUM(A2:A13)</f>
-        <v>78488.09</v>
+        <v>74973</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="6">
         <f>C2-E2-C3</f>
-        <v>43777.42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>47292.509999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
-        <v>7298.04</v>
+        <v>7406</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -2435,9 +2406,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
-        <v>127.6</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>155</v>
@@ -2452,7 +2423,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="2" t="s">
         <v>152</v>
@@ -2467,7 +2438,7 @@
         <v>1.9099999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="2" t="s">
         <v>153</v>
@@ -2482,7 +2453,7 @@
         <v>4.0800000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="2" t="s">
         <v>158</v>
@@ -2497,7 +2468,7 @@
         <v>2.18E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
         <v>156</v>
@@ -2506,7 +2477,7 @@
       <c r="D9" s="27"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="2" t="s">
         <v>156</v>
@@ -2515,7 +2486,7 @@
       <c r="D10" s="27"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="2" t="s">
         <v>156</v>
@@ -2524,7 +2495,7 @@
       <c r="D11" s="27"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="2" t="s">
         <v>156</v>
@@ -2533,7 +2504,7 @@
       <c r="D12" s="27"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="2" t="s">
         <v>156</v>
@@ -2560,7 +2531,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="2" t="s">
         <v>156</v>
@@ -2570,29 +2541,29 @@
       <c r="E14" s="3"/>
       <c r="F14" s="13">
         <f>$K$22</f>
-        <v>27.024013377926423</v>
+        <v>27.72752508361204</v>
       </c>
       <c r="G14">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H14">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I14">
         <f>E3/C2</f>
-        <v>0.35805207862789762</v>
+        <v>0.38680172356047093</v>
       </c>
       <c r="J14">
-        <f>IF(((H14-F14)/(H14-G14))&lt;0,0,((H14-F14)/(H14-G14)))*0.7+0.3</f>
-        <v>0.39879933110367882</v>
+        <f>IF(((H14-F14)/(H14-G14))&lt;0,0,((H14-F14)/(H14-G14)))*0.9+0.1</f>
+        <v>0.3403267140468228</v>
       </c>
       <c r="K14" s="14">
         <f>(C2*J14-E3)*J14</f>
-        <v>1986.8117292634961</v>
+        <v>-1933.8353359529881</v>
       </c>
       <c r="L14" s="11"/>
     </row>
-    <row r="15" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="2" t="s">
         <v>156</v>
@@ -2609,7 +2580,7 @@
       <c r="J15" s="37"/>
       <c r="K15" s="37"/>
     </row>
-    <row r="16" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="2" t="s">
         <v>156</v>
@@ -2624,7 +2595,7 @@
       <c r="J16" s="37"/>
       <c r="K16" s="37"/>
     </row>
-    <row r="17" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="B17" s="2" t="s">
         <v>156</v>
@@ -2639,7 +2610,7 @@
       <c r="J17" s="37"/>
       <c r="K17" s="37"/>
     </row>
-    <row r="18" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="2" t="s">
         <v>156</v>
@@ -2654,7 +2625,7 @@
       <c r="J18" s="37"/>
       <c r="K18" s="37"/>
     </row>
-    <row r="19" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="2" t="s">
         <v>156</v>
@@ -2669,7 +2640,7 @@
       <c r="J19" s="37"/>
       <c r="K19" s="37"/>
     </row>
-    <row r="20" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="2" t="s">
         <v>156</v>
@@ -2684,7 +2655,7 @@
       <c r="J20" s="37"/>
       <c r="K20" s="37"/>
     </row>
-    <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="2" t="s">
         <v>156</v>
@@ -2708,7 +2679,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="2" t="s">
         <v>156</v>
@@ -2720,21 +2691,21 @@
         <v>2373</v>
       </c>
       <c r="G22" s="12">
-        <v>34.82</v>
+        <v>35.869999999999997</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12">
         <v>1813</v>
       </c>
       <c r="J22" s="12">
-        <v>16.82</v>
+        <v>17.07</v>
       </c>
       <c r="K22" s="12">
         <f>(F22*G22+I22*J22)/(F22+I22)</f>
-        <v>27.024013377926423</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>27.72752508361204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="2" t="s">
         <v>156</v>
@@ -2743,7 +2714,7 @@
       <c r="D23" s="29"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="2" t="s">
         <v>156</v>
@@ -2752,7 +2723,7 @@
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="2" t="s">
         <v>156</v>
@@ -2761,7 +2732,7 @@
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
       <c r="B26" s="2" t="s">
         <v>156</v>
@@ -2770,7 +2741,7 @@
       <c r="D26" s="29"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
       <c r="B27" s="2" t="s">
         <v>156</v>
@@ -2779,7 +2750,7 @@
       <c r="D27" s="29"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
       <c r="B28" s="2" t="s">
         <v>156</v>
@@ -2802,24 +2773,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="12.6328125" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13" customWidth="1"/>
-    <col min="10" max="10" width="41.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6328125" customWidth="1"/>
+    <col min="10" max="10" width="41.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.625" customWidth="1"/>
     <col min="14" max="15" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
         <v>5</v>
       </c>
@@ -2827,7 +2798,7 @@
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2841,7 +2812,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>151</v>
       </c>
@@ -2855,7 +2826,7 @@
         <v>16935.88</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>152</v>
       </c>
@@ -2869,7 +2840,7 @@
         <v>19759.849999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>153</v>
       </c>
@@ -2883,7 +2854,7 @@
         <v>21107.66</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>158</v>
       </c>
@@ -2897,7 +2868,7 @@
         <v>21122.38</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>154</v>
       </c>
@@ -2905,7 +2876,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="30"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>154</v>
       </c>
@@ -2913,7 +2884,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="30"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>154</v>
       </c>
@@ -2921,7 +2892,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="30"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>154</v>
       </c>
@@ -2929,7 +2900,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="30"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>154</v>
       </c>
@@ -2937,7 +2908,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="30"/>
     </row>
-    <row r="12" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>154</v>
       </c>
@@ -2945,7 +2916,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="30"/>
     </row>
-    <row r="13" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>154</v>
       </c>
@@ -2954,7 +2925,7 @@
       <c r="D13" s="30"/>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>154</v>
       </c>
@@ -2962,7 +2933,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="30"/>
     </row>
-    <row r="15" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>154</v>
       </c>
@@ -2970,7 +2941,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="30"/>
     </row>
-    <row r="16" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>154</v>
       </c>
@@ -2978,7 +2949,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="30"/>
     </row>
-    <row r="17" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>154</v>
       </c>
@@ -2986,7 +2957,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="30"/>
     </row>
-    <row r="18" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>154</v>
       </c>
@@ -2994,7 +2965,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="30"/>
     </row>
-    <row r="19" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>154</v>
       </c>
@@ -3002,7 +2973,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="30"/>
     </row>
-    <row r="20" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>154</v>
       </c>
@@ -3010,7 +2981,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="30"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>154</v>
       </c>
@@ -3018,7 +2989,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="30"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>154</v>
       </c>
@@ -3026,7 +2997,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="30"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>154</v>
       </c>
@@ -3034,7 +3005,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="30"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>154</v>
       </c>
@@ -3042,7 +3013,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="30"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>154</v>
       </c>
@@ -3050,7 +3021,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="30"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>154</v>
       </c>
@@ -3071,28 +3042,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="30.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>60</v>
       </c>
@@ -3127,7 +3098,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
         <v>70</v>
       </c>
@@ -3162,7 +3133,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
         <v>73</v>
       </c>
@@ -3197,7 +3168,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="24" t="s">
         <v>106</v>
       </c>
@@ -3229,7 +3200,7 @@
         <v>9.8299999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="24" t="s">
         <v>93</v>
       </c>
@@ -3261,7 +3232,7 @@
         <v>0.1143</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="24" t="s">
         <v>112</v>
       </c>
@@ -3296,7 +3267,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="24" t="s">
         <v>76</v>
       </c>
@@ -3331,7 +3302,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="24" t="s">
         <v>82</v>
       </c>
@@ -3363,7 +3334,7 @@
         <v>0.1326</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="24" t="s">
         <v>164</v>
       </c>
@@ -3389,7 +3360,7 @@
         <v>0.13669999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="24" t="s">
         <v>85</v>
       </c>
@@ -3425,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="24" t="s">
         <v>119</v>
       </c>
@@ -3457,7 +3428,7 @@
         <v>0.1389</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="24" t="s">
         <v>125</v>
       </c>
@@ -3492,7 +3463,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="24" t="s">
         <v>137</v>
       </c>
@@ -3524,7 +3495,7 @@
         <v>0.1512</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="24" t="s">
         <v>167</v>
       </c>
@@ -3550,7 +3521,7 @@
         <v>0.15509999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="24" t="s">
         <v>90</v>
       </c>
@@ -3582,7 +3553,7 @@
         <v>0.15740000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="24" t="s">
         <v>128</v>
       </c>
@@ -3614,7 +3585,7 @@
         <v>0.1585</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="24" t="s">
         <v>109</v>
       </c>
@@ -3646,7 +3617,7 @@
         <v>0.16070000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="24" t="s">
         <v>87</v>
       </c>
@@ -3681,7 +3652,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="24" t="s">
         <v>131</v>
       </c>
@@ -3716,7 +3687,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="24" t="s">
         <v>95</v>
       </c>
@@ -3751,7 +3722,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="24" t="s">
         <v>79</v>
       </c>
@@ -3783,7 +3754,7 @@
         <v>0.17100000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="24" t="s">
         <v>122</v>
       </c>
@@ -3815,7 +3786,7 @@
         <v>0.1769</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="24" t="s">
         <v>170</v>
       </c>
@@ -3841,7 +3812,7 @@
         <v>0.18179999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="24" t="s">
         <v>134</v>
       </c>
@@ -3876,7 +3847,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="24" t="s">
         <v>100</v>
       </c>
@@ -3908,7 +3879,7 @@
         <v>0.18759999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="24" t="s">
         <v>141</v>
       </c>
@@ -3943,7 +3914,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="24" t="s">
         <v>103</v>
       </c>
@@ -3975,7 +3946,7 @@
         <v>0.20669999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="24" t="s">
         <v>115</v>
       </c>
@@ -4007,7 +3978,7 @@
         <v>0.2079</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="24" t="s">
         <v>116</v>
       </c>
@@ -4039,7 +4010,7 @@
         <v>0.25469999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="24" t="s">
         <v>65</v>
       </c>
@@ -4060,7 +4031,7 @@
       <c r="H30" s="16"/>
       <c r="J30" s="16"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="24" t="s">
         <v>68</v>
       </c>
@@ -4081,7 +4052,7 @@
       <c r="H31" s="16"/>
       <c r="J31" s="16"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="24" t="s">
         <v>160</v>
       </c>
@@ -4095,7 +4066,7 @@
       <c r="H32" s="16"/>
       <c r="J32" s="16"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="24" t="s">
         <v>163</v>
       </c>
@@ -4110,7 +4081,7 @@
       <c r="J33" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K33" xr:uid="{C6A7F759-5C47-4AE7-88CA-CBFE12680C6D}">
+  <autoFilter ref="A1:K33">
     <filterColumn colId="7">
       <filters blank="1">
         <filter val="10.72%"/>
@@ -4183,7 +4154,7 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K33">
+  <sortState ref="A2:K33">
     <sortCondition ref="J1:J33"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4193,25 +4164,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="5" width="12.6328125" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="11" max="11" width="51.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.6328125" customWidth="1"/>
+    <col min="11" max="11" width="51.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.625" customWidth="1"/>
     <col min="15" max="16" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
@@ -4222,7 +4193,7 @@
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="10">
         <v>45170.7</v>
       </c>
@@ -4235,7 +4206,7 @@
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>24744.43</v>
       </c>
@@ -4254,7 +4225,7 @@
         <v>39433.76999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>3811.1</v>
       </c>
@@ -4271,7 +4242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -4284,7 +4255,7 @@
         <v>1.67E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -4297,7 +4268,7 @@
         <v>2.9899999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -4310,7 +4281,7 @@
         <v>5.8700000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="2" t="s">
         <v>10</v>
@@ -4323,7 +4294,7 @@
         <v>5.9200000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -4336,7 +4307,7 @@
         <v>6.3799999999999996E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="2" t="s">
         <v>38</v>
@@ -4349,7 +4320,7 @@
         <v>6.54E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="2" t="s">
         <v>39</v>
@@ -4362,7 +4333,7 @@
         <v>6.0199999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="2" t="s">
         <v>45</v>
@@ -4375,7 +4346,7 @@
         <v>7.1900000000000006E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="2" t="s">
         <v>51</v>
@@ -4408,7 +4379,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="2" t="s">
         <v>52</v>
@@ -4446,7 +4417,7 @@
       </c>
       <c r="L14" s="11"/>
     </row>
-    <row r="15" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="2" t="s">
         <v>56</v>
@@ -4469,7 +4440,7 @@
       <c r="J15" s="37"/>
       <c r="K15" s="37"/>
     </row>
-    <row r="16" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="2" t="s">
         <v>57</v>
@@ -4490,7 +4461,7 @@
       <c r="J16" s="37"/>
       <c r="K16" s="37"/>
     </row>
-    <row r="17" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="B17" s="2" t="s">
         <v>58</v>
@@ -4511,7 +4482,7 @@
       <c r="J17" s="37"/>
       <c r="K17" s="37"/>
     </row>
-    <row r="18" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="2" t="s">
         <v>59</v>
@@ -4532,7 +4503,7 @@
       <c r="J18" s="37"/>
       <c r="K18" s="37"/>
     </row>
-    <row r="19" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="2" t="s">
         <v>140</v>
@@ -4553,7 +4524,7 @@
       <c r="J19" s="37"/>
       <c r="K19" s="37"/>
     </row>
-    <row r="20" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="2" t="s">
         <v>146</v>
@@ -4574,7 +4545,7 @@
       <c r="J20" s="37"/>
       <c r="K20" s="37"/>
     </row>
-    <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="2" t="s">
         <v>147</v>
@@ -4604,7 +4575,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="2" t="s">
         <v>148</v>
@@ -4637,7 +4608,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:B27">
+  <sortState ref="B5:B27">
     <sortCondition ref="B5"/>
   </sortState>
   <mergeCells count="3">
@@ -4653,24 +4624,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="12.6328125" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13" customWidth="1"/>
-    <col min="10" max="10" width="41.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6328125" customWidth="1"/>
+    <col min="10" max="10" width="41.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.625" customWidth="1"/>
     <col min="14" max="15" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
         <v>5</v>
       </c>
@@ -4678,7 +4649,7 @@
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -4688,7 +4659,7 @@
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4700,7 +4671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
@@ -4712,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
@@ -4724,7 +4695,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>53</v>
       </c>
@@ -4736,7 +4707,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>54</v>
       </c>
@@ -4748,7 +4719,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>55</v>
       </c>
@@ -4760,7 +4731,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
@@ -4772,7 +4743,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>57</v>
       </c>
@@ -4784,7 +4755,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>58</v>
       </c>
@@ -4796,7 +4767,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>59</v>
       </c>
@@ -4808,7 +4779,7 @@
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>140</v>
       </c>
@@ -4821,7 +4792,7 @@
       </c>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>145</v>
       </c>
@@ -4833,7 +4804,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>147</v>
       </c>
@@ -4845,7 +4816,7 @@
         <v>1.12E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>148</v>
       </c>
@@ -4857,34 +4828,27 @@
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="38"/>
       <c r="C17" s="38"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="38"/>
       <c r="C18" s="38"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B14:C14"/>
@@ -4897,6 +4861,13 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4906,16 +4877,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:I17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -4923,7 +4894,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -4931,7 +4902,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -4939,7 +4910,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -4947,7 +4918,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>18</v>
       </c>
@@ -4955,7 +4926,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>19</v>
       </c>
@@ -4963,7 +4934,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
         <v>20</v>
       </c>
@@ -4971,7 +4942,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
         <v>21</v>
       </c>
@@ -4979,7 +4950,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
         <v>22</v>
       </c>
@@ -4987,32 +4958,32 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
         <v>28</v>
       </c>
@@ -5024,14 +4995,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/基金总结.xlsx
+++ b/基金总结.xlsx
@@ -7,23 +7,21 @@
     <workbookView xWindow="1020" yWindow="795" windowWidth="16905" windowHeight="8865"/>
   </bookViews>
   <sheets>
-    <sheet name="动平衡策略2021" sheetId="8" r:id="rId1"/>
-    <sheet name="日定投策略2021" sheetId="9" r:id="rId2"/>
-    <sheet name="投资总结" sheetId="6" r:id="rId3"/>
-    <sheet name="动平衡策略2020" sheetId="1" r:id="rId4"/>
-    <sheet name="日定投策略2020" sheetId="4" r:id="rId5"/>
-    <sheet name="投资准则" sheetId="2" r:id="rId6"/>
-    <sheet name="草稿" sheetId="7" r:id="rId7"/>
+    <sheet name="基金投资2021" sheetId="8" r:id="rId1"/>
+    <sheet name="投资总结" sheetId="10" r:id="rId2"/>
+    <sheet name="基金投资2020" sheetId="1" r:id="rId3"/>
+    <sheet name="投资研究" sheetId="6" r:id="rId4"/>
+    <sheet name="草稿" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">投资总结!$A$1:$K$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">投资研究!$A$1:$K$33</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="164">
   <si>
     <t>今年收益率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,102 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.减少交易频率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.关注政策形势</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.关注外围市场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.躲避风险火车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.坚持投资纪律</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.适当利用别人的恐慌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.利用钟摆效应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.适当双向思考</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.机会是等来的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.不要在拐点做决策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.不要让盈利变为亏损离场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.悲观中诞生，怀疑中成长，乐观中成熟，兴奋中死亡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13.量能与估值的金字塔策略</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14.关注WM双顶及双底</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15长期看经济国际形势，中期看IPO利率，短期看供求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信公众号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双社保</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双支付宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双中信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>河北农合卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房子押金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浦发卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交银兴中富银京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招农大浦河</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2020/9/26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,10 +96,6 @@
   </si>
   <si>
     <t>最高点位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020/10/18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -241,18 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020/11/07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020/11/10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020/11/12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2020/11/15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -613,10 +499,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020/12/22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2020/12/26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -625,155 +507,179 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/01/17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/01/23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/01/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/01/01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/01/30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中银丰利灵活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002431</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中银锦利灵活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003851</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001997</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银新趋势灵活混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何肖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>163415</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴全商业模式优选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔迁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002846</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泓德鸿华灵活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦毅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票占比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏普率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大回撤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波动率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>债券有所减仓，机构有所减仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票仓位较高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高位持仓 持股分散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓位变化大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持股分散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分散不减仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7层仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛叉7层仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓位较高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/02/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>投资金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021/01/10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021/01/17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021/01/23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021/03/15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021/01/15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021/01/01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调仓金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021/01/30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中银丰利灵活</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002431</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中银锦利灵活</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>003851</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001997</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工银新趋势灵活混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何肖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>163415</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴全商业模式优选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乔迁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002846</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泓德鸿华灵活</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秦毅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>股票占比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏普率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大回撤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>波动率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>债券有所减仓，机构有所减仓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>股票仓位较高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高位持仓 持股分散</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓位变化大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持股分散</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分散不减仓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7层仓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛叉7层仓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓位较高</t>
+    <t>动平衡策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险火车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待机会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远离拐点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/03/12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -781,7 +687,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -833,8 +739,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -877,6 +792,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -908,7 +847,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -988,12 +927,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1003,17 +947,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1061,7 +1027,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>动平衡策略2021!$B$5:$B$21</c:f>
+              <c:f>基金投资2021!$B$5:$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
@@ -1077,10 +1043,10 @@
                   <c:v>2021/01/30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2021/01/01</c:v>
+                  <c:v>2021/02/15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2021/01/01</c:v>
+                  <c:v>2021/03/12</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2021/01/01</c:v>
@@ -1120,7 +1086,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>动平衡策略2021!$E$5:$E$21</c:f>
+              <c:f>基金投资2021!$E$5:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1135,6 +1101,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.18E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.13E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1156,11 +1128,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="51610368"/>
-        <c:axId val="51611520"/>
+        <c:axId val="83558784"/>
+        <c:axId val="96909952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51610368"/>
+        <c:axId val="83558784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1180,7 +1152,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51611520"/>
+        <c:crossAx val="96909952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1188,7 +1160,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51611520"/>
+        <c:axId val="96909952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1199,7 +1171,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51610368"/>
+        <c:crossAx val="83558784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1236,6 +1208,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1255,280 +1228,66 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>日定投策略2021!$A$3:$A$26</c:f>
+              <c:f>基金投资2020!$B$5:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>2021/01/10</c:v>
+                  <c:v>2020/5/17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2021/01/17</c:v>
+                  <c:v>2020/6/26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2021/01/23</c:v>
+                  <c:v>2020/7/26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2021/01/30</c:v>
+                  <c:v>2020/8/16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2021/03/15</c:v>
+                  <c:v>2020/8/23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2021/03/15</c:v>
+                  <c:v>2020/9/26</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2021/03/15</c:v>
+                  <c:v>2020/9/28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2021/03/15</c:v>
+                  <c:v>2020/10/25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2021/03/15</c:v>
+                  <c:v>2020/10/29</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2021/03/15</c:v>
+                  <c:v>2020/11/7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2021/03/15</c:v>
+                  <c:v>2020/11/15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2021/03/15</c:v>
+                  <c:v>2020/11/21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2021/03/15</c:v>
+                  <c:v>2020/11/29</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2021/03/15</c:v>
+                  <c:v>2020/12/06</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2021/03/15</c:v>
+                  <c:v>2020/12/20</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2021/03/15</c:v>
+                  <c:v>2020/12/22</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2021/03/15</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2021/03/15</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2021/03/15</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2021/03/15</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2021/03/15</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2021/03/15</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2021/03/15</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2021/03/15</c:v>
+                  <c:v>2020/12/26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日定投策略2021!$C$3:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>9.5999999999999992E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.1999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.47E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.8E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D938-45C6-B97E-CB794A5F4D62}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="51637248"/>
-        <c:axId val="52253440"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="51637248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="eaVert"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="52253440"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="52253440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51637248"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>今年收益率</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>动平衡策略2020!$B$5:$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>2020/5/17</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020/6/26</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2020/7/26</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2020/8/16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2020/8/23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2020/9/26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2020/9/28</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020/10/25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2020/10/29</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2020/11/7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2020/11/15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2020/11/21</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2020/11/29</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2020/12/06</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2020/12/20</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2020/12/22</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2020/12/26</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>动平衡策略2020!$E$5:$E$21</c:f>
+              <c:f>基金投资2020!$E$5:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1603,11 +1362,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="52331648"/>
-        <c:axId val="52333184"/>
+        <c:axId val="97728768"/>
+        <c:axId val="97730560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="52331648"/>
+        <c:axId val="97728768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1627,7 +1386,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52333184"/>
+        <c:crossAx val="97730560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1635,7 +1394,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52333184"/>
+        <c:axId val="97730560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1646,218 +1405,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52331648"/>
+        <c:crossAx val="97728768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>今年收益率</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>日定投策略2020!$A$5:$A$27</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2020/10/29</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020/11/07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2020/11/10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2020/11/12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2020/11/15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2020/11/21</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2020/11/29</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020/12/06</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2020/12/20</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2020/12/22</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2020/12/26</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2020/12/31</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>日定投策略2020!$D$4:$D$27</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1999999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.1000000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.8E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.4000000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.3000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.8999999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.12E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.7399999999999999E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F617-4238-8B1A-FAB98821962D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="52416512"/>
-        <c:axId val="52418048"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="52416512"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="eaVert"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="52418048"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="52418048"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52416512"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1883,9 +1438,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>2870200</xdr:colOff>
+      <xdr:colOff>3081618</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1916,49 +1471,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>130174</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30C67DF5-BC88-4A2F-85A6-2F0304B2CAB7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1999,47 +1511,16 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>130174</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7EA48FDF-88FB-4FE0-9CAA-591832A03EF5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:C19" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="A2:C19"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="年份" dataDxfId="2"/>
+    <tableColumn id="2" name="收益率" dataDxfId="1"/>
+    <tableColumn id="3" name="投资金额" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2332,7 +1813,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2348,50 +1829,50 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="10">
-        <v>42246</v>
+        <v>29563</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36">
-        <v>122265.51</v>
-      </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="C2" s="37">
+        <v>42746.6</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
-        <v>25271</v>
+        <v>3003.62</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="9">
         <f>SUM(A2:A13)</f>
-        <v>74973</v>
+        <v>41566.619999999995</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="6">
         <f>C2-E2-C3</f>
-        <v>47292.509999999995</v>
+        <v>1179.9800000000032</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
-        <v>7406</v>
+        <v>3000</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -2400,7 +1881,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>0</v>
@@ -2408,118 +1889,784 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
-        <v>50</v>
+        <v>3000</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C5" s="27">
         <v>2517.46</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="30">
         <v>121606.3</v>
       </c>
       <c r="E5" s="3">
         <v>2.1100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="10">
+        <v>3000</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="27">
+        <v>2276.59</v>
+      </c>
+      <c r="D6" s="27">
+        <v>121588.86</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.9099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="10"/>
+      <c r="B7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="27">
+        <v>4879.58</v>
+      </c>
+      <c r="D7" s="27">
+        <v>124341.85</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4.0800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="10"/>
+      <c r="B8" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="27">
+        <v>2603.2399999999998</v>
+      </c>
+      <c r="D8" s="27">
+        <v>122265.51</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2.18E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="10"/>
+      <c r="B9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="27">
+        <v>7440.52</v>
+      </c>
+      <c r="D9" s="27">
+        <v>126256.48</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6.13E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="10"/>
+      <c r="B10" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="27">
+        <v>1670.63</v>
+      </c>
+      <c r="D10" s="27">
+        <v>42746.6</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="10"/>
+      <c r="B11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="10"/>
+      <c r="B13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="K13" s="41"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10"/>
+      <c r="B14" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+    </row>
+    <row r="16" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10"/>
+      <c r="B16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+    </row>
+    <row r="17" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10"/>
+      <c r="B17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+    </row>
+    <row r="18" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10"/>
+      <c r="B18" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+    </row>
+    <row r="19" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="10"/>
+      <c r="B19" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+    </row>
+    <row r="20" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="10"/>
+      <c r="B20" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+    </row>
+    <row r="21" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="10"/>
+      <c r="B21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="K21" s="43"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="10"/>
+      <c r="B22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" s="10"/>
+      <c r="B23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" s="10"/>
+      <c r="B24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" s="10"/>
+      <c r="B25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" s="10"/>
+      <c r="B26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27" s="10"/>
+      <c r="B27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" s="10"/>
+      <c r="B28" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F21:I28"/>
+    <mergeCell ref="J21:K28"/>
+    <mergeCell ref="F13:I20"/>
+    <mergeCell ref="J13:K20"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="42.5" customWidth="1"/>
+    <col min="2" max="2" width="36.125" customWidth="1"/>
+    <col min="3" max="3" width="41.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="33">
+        <v>2020</v>
+      </c>
+      <c r="B3" s="34">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="C3" s="33">
+        <v>113160.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="33">
+        <v>2021</v>
+      </c>
+      <c r="B4" s="35">
+        <v>6.13E-2</v>
+      </c>
+      <c r="C4" s="33">
+        <v>126256.53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="33">
+        <v>2022</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="33">
+        <v>2023</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="33">
+        <v>2024</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="33">
+        <v>2025</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="33">
+        <v>2026</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="33">
+        <v>2027</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="33">
+        <v>2028</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="33">
+        <v>2029</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="33">
+        <v>2030</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="33">
+        <v>2031</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="33">
+        <v>2032</v>
+      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="33">
+        <v>2033</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="33">
+        <v>2034</v>
+      </c>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="33">
+        <v>2035</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="33">
+        <v>2036</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="11" max="11" width="51.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.625" customWidth="1"/>
+    <col min="15" max="16" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="10">
+        <v>45170.7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="37">
+        <v>113160</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="10">
+        <v>24744.43</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="9">
+        <f>SUM(A2:A13)</f>
+        <v>73726.23000000001</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6">
+        <f>C2-E2-C3</f>
+        <v>39433.76999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="10">
+        <v>3811.1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="10"/>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="17">
+        <v>2342.16</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="3">
+        <v>1.67E-2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="27">
-        <v>2276.59</v>
-      </c>
-      <c r="D6" s="27">
-        <v>121588.86</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C6" s="17">
+        <v>4544.74</v>
+      </c>
+      <c r="D6" s="17"/>
       <c r="E6" s="3">
-        <v>1.9099999999999999E-2</v>
+        <v>2.9899999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="27">
-        <v>4879.58</v>
-      </c>
-      <c r="D7" s="27">
-        <v>124341.85</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C7" s="17">
+        <v>7626.98</v>
+      </c>
+      <c r="D7" s="17"/>
       <c r="E7" s="3">
-        <v>4.0800000000000003E-2</v>
+        <v>5.8700000000000002E-2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" s="27">
-        <v>2603.2399999999998</v>
-      </c>
-      <c r="D8" s="27">
-        <v>122265.51</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C8" s="17">
+        <v>9451.59</v>
+      </c>
+      <c r="D8" s="17"/>
       <c r="E8" s="3">
-        <v>2.18E-2</v>
+        <v>5.9200000000000003E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="C9" s="17">
+        <v>9607.81</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="3">
+        <v>6.3799999999999996E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="C10" s="17">
+        <v>9719.7099999999991</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="3">
+        <v>6.54E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="C11" s="17">
+        <v>9118.0400000000009</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="3">
+        <v>6.0199999999999997E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="C12" s="17">
+        <v>10050.39</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="3">
+        <v>7.1900000000000006E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="C13" s="17">
+        <v>10782.94</v>
+      </c>
+      <c r="D13" s="17">
+        <v>25.67</v>
+      </c>
+      <c r="E13" s="3">
+        <v>6.6699999999999995E-2</v>
+      </c>
       <c r="F13" s="8" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>12</v>
@@ -2528,238 +2675,241 @@
         <v>13</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="C14" s="17">
+        <v>12238.76</v>
+      </c>
+      <c r="D14" s="17">
+        <v>25.93</v>
+      </c>
+      <c r="E14" s="3">
+        <v>7.6100000000000001E-2</v>
+      </c>
       <c r="F14" s="13">
         <f>$K$22</f>
-        <v>27.72752508361204</v>
+        <v>26.83467296511628</v>
       </c>
       <c r="G14">
         <v>16</v>
       </c>
       <c r="H14">
-        <v>32</v>
+        <v>26.5</v>
       </c>
       <c r="I14">
         <f>E3/C2</f>
-        <v>0.38680172356047093</v>
+        <v>0.34847799575821836</v>
       </c>
       <c r="J14">
-        <f>IF(((H14-F14)/(H14-G14))&lt;0,0,((H14-F14)/(H14-G14)))*0.9+0.1</f>
-        <v>0.3403267140468228</v>
+        <f>IF(((H14-F14)/(H14-G14))&lt;0,0,((H14-F14)/(H14-G14)))*0.7+0.3</f>
+        <v>0.3</v>
       </c>
       <c r="K14" s="14">
         <f>(C2*J14-E3)*J14</f>
-        <v>-1933.8353359529881</v>
+        <v>-1645.7309999999968</v>
       </c>
       <c r="L14" s="11"/>
     </row>
     <row r="15" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
+        <v>28</v>
+      </c>
+      <c r="C15" s="19">
+        <v>12095.71</v>
+      </c>
+      <c r="D15" s="19">
+        <v>25.81</v>
+      </c>
+      <c r="E15" s="3">
+        <v>8.0799999999999997E-2</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
     </row>
     <row r="16" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
+        <v>29</v>
+      </c>
+      <c r="C16" s="20">
+        <v>12631.63</v>
+      </c>
+      <c r="D16" s="20">
+        <v>26.14</v>
+      </c>
+      <c r="E16" s="3">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
     </row>
     <row r="17" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="B17" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
+        <v>30</v>
+      </c>
+      <c r="C17" s="21">
+        <v>12200.58</v>
+      </c>
+      <c r="D17" s="21">
+        <v>25.89</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
     </row>
     <row r="18" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
+        <v>31</v>
+      </c>
+      <c r="C18" s="22">
+        <v>13144.84</v>
+      </c>
+      <c r="D18" s="22">
+        <v>26.4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
     </row>
     <row r="19" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
+        <v>112</v>
+      </c>
+      <c r="C19" s="23">
+        <v>13208.35</v>
+      </c>
+      <c r="D19" s="23">
+        <v>26</v>
+      </c>
+      <c r="E19" s="3">
+        <v>8.4500000000000006E-2</v>
+      </c>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
     </row>
     <row r="20" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
+        <v>117</v>
+      </c>
+      <c r="C20" s="25">
+        <v>14101.95</v>
+      </c>
+      <c r="D20" s="25">
+        <v>25.96</v>
+      </c>
+      <c r="E20" s="3">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
     </row>
     <row r="21" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="3"/>
+        <v>118</v>
+      </c>
+      <c r="C21" s="26">
+        <v>14690.65</v>
+      </c>
+      <c r="D21" s="26">
+        <v>26.1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>9.3899999999999997E-2</v>
+      </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="K21" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="3"/>
+        <v>119</v>
+      </c>
+      <c r="C22" s="27">
+        <v>16361.16</v>
+      </c>
+      <c r="D22" s="27">
+        <v>26.83</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.14199999999999999</v>
+      </c>
       <c r="F22" s="12">
-        <v>2373</v>
+        <v>2343</v>
       </c>
       <c r="G22" s="12">
-        <v>35.869999999999997</v>
+        <v>34.51</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12">
-        <v>1813</v>
+        <v>1785</v>
       </c>
       <c r="J22" s="12">
-        <v>17.07</v>
+        <v>16.760000000000002</v>
       </c>
       <c r="K22" s="12">
         <f>(F22*G22+I22*J22)/(F22+I22)</f>
-        <v>27.72752508361204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A25" s="10"/>
-      <c r="B25" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
-      <c r="B26" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A28" s="10"/>
-      <c r="B28" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="3"/>
+        <v>26.83467296511628</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="B5:B27">
+    <sortCondition ref="B5"/>
+  </sortState>
   <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="C2:E2"/>
@@ -2772,283 +2922,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13" customWidth="1"/>
-    <col min="10" max="10" width="41.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.625" customWidth="1"/>
-    <col min="14" max="15" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" s="30">
-        <v>161.71</v>
-      </c>
-      <c r="C3" s="3">
-        <v>9.5999999999999992E-3</v>
-      </c>
-      <c r="D3" s="30">
-        <v>16935.88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="30">
-        <v>142.19</v>
-      </c>
-      <c r="C4" s="3">
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="D4" s="30">
-        <v>19759.849999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="30">
-        <v>305</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1.47E-2</v>
-      </c>
-      <c r="D5" s="30">
-        <v>21107.66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B6" s="30">
-        <v>79.72</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3.8E-3</v>
-      </c>
-      <c r="D6" s="30">
-        <v>21122.38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="30"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="30"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="30"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="30"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="30"/>
-    </row>
-    <row r="12" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="30"/>
-    </row>
-    <row r="13" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="30"/>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="30"/>
-    </row>
-    <row r="15" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="30"/>
-    </row>
-    <row r="16" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="30"/>
-    </row>
-    <row r="17" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="30"/>
-    </row>
-    <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="30"/>
-    </row>
-    <row r="19" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="30"/>
-    </row>
-    <row r="20" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="30"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="30"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="30"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="30"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="30"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="30"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="30"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
+      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3065,48 +2946,48 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="F1" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>71</v>
+        <v>42</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>5317</v>
@@ -3130,18 +3011,18 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="K2" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>74</v>
+        <v>45</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="D3">
         <v>4761</v>
@@ -3165,18 +3046,18 @@
         <v>9.4399999999999998E-2</v>
       </c>
       <c r="K3" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>107</v>
+        <v>78</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>79</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="D4">
         <v>723</v>
@@ -3202,13 +3083,13 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>94</v>
+        <v>65</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D5">
         <v>1615</v>
@@ -3234,13 +3115,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>113</v>
+        <v>84</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="D6">
         <v>594</v>
@@ -3264,18 +3145,18 @@
         <v>0.1176</v>
       </c>
       <c r="K6" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>77</v>
+        <v>48</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="D7">
         <v>4047</v>
@@ -3299,18 +3180,18 @@
         <v>0.12839999999999999</v>
       </c>
       <c r="K7" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>83</v>
+        <v>54</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D8">
         <v>3037</v>
@@ -3336,13 +3217,13 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>165</v>
+        <v>131</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="F9" s="16">
         <v>0.3281</v>
@@ -3362,13 +3243,13 @@
     </row>
     <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>86</v>
+        <v>57</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="D10">
         <v>2387</v>
@@ -3398,13 +3279,13 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>120</v>
+        <v>91</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>92</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="D11">
         <v>329</v>
@@ -3430,13 +3311,13 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>126</v>
+        <v>97</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="D12">
         <v>243</v>
@@ -3460,18 +3341,18 @@
         <v>0.14399999999999999</v>
       </c>
       <c r="K12" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>138</v>
+        <v>109</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="D13">
         <v>75</v>
@@ -3497,13 +3378,13 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>168</v>
+        <v>134</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>135</v>
       </c>
       <c r="C14" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="F14" s="16">
         <v>0.39360000000000001</v>
@@ -3523,13 +3404,13 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>91</v>
+        <v>62</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D15">
         <v>1809</v>
@@ -3555,13 +3436,13 @@
     </row>
     <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>129</v>
+        <v>100</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="D16">
         <v>177</v>
@@ -3587,13 +3468,13 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>110</v>
+        <v>81</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="D17">
         <v>671</v>
@@ -3619,13 +3500,13 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>88</v>
+        <v>59</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="D18">
         <v>2274</v>
@@ -3649,18 +3530,18 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="K18" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>132</v>
+        <v>103</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="D19">
         <v>133</v>
@@ -3684,18 +3565,18 @@
         <v>0.16400000000000001</v>
       </c>
       <c r="K19" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>96</v>
+        <v>67</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="D20">
         <v>1355</v>
@@ -3719,18 +3600,18 @@
         <v>0.16869999999999999</v>
       </c>
       <c r="K20" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>80</v>
+        <v>51</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="D21">
         <v>3528</v>
@@ -3756,13 +3637,13 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>123</v>
+        <v>94</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>95</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="D22">
         <v>238</v>
@@ -3788,13 +3669,13 @@
     </row>
     <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>171</v>
+        <v>137</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>138</v>
       </c>
       <c r="C23" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="F23" s="16">
         <v>0.4773</v>
@@ -3814,13 +3695,13 @@
     </row>
     <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>135</v>
+        <v>106</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>107</v>
       </c>
       <c r="C24" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="D24">
         <v>89</v>
@@ -3844,18 +3725,18 @@
         <v>0.18329999999999999</v>
       </c>
       <c r="K24" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>101</v>
+        <v>72</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="D25">
         <v>720</v>
@@ -3881,13 +3762,13 @@
     </row>
     <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>142</v>
+        <v>113</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>114</v>
       </c>
       <c r="C26" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="D26">
         <v>20</v>
@@ -3911,18 +3792,18 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="K26" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>104</v>
+        <v>75</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="D27">
         <v>691</v>
@@ -3948,13 +3829,13 @@
     </row>
     <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>98</v>
+        <v>87</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>70</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="D28">
         <v>510</v>
@@ -3980,13 +3861,13 @@
     </row>
     <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>117</v>
+        <v>88</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="D29">
         <v>482</v>
@@ -4012,13 +3893,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>66</v>
+        <v>37</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="D30">
         <v>44854</v>
@@ -4033,13 +3914,13 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>69</v>
+        <v>40</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="D31">
         <v>24586</v>
@@ -4054,13 +3935,13 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>159</v>
+        <v>127</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>126</v>
       </c>
       <c r="C32" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
@@ -4068,13 +3949,13 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>162</v>
+        <v>130</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>129</v>
       </c>
       <c r="C33" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
@@ -4163,843 +4044,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="11" max="11" width="51.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.625" customWidth="1"/>
-    <col min="15" max="16" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="10">
-        <v>45170.7</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="36">
-        <v>113160</v>
-      </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="10">
-        <v>24744.43</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="9">
-        <f>SUM(A2:A13)</f>
-        <v>73726.23000000001</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="6">
-        <f>C2-E2-C3</f>
-        <v>39433.76999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="10">
-        <v>3811.1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="17">
-        <v>2342.16</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="3">
-        <v>1.67E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="17">
-        <v>4544.74</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="3">
-        <v>2.9899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="17">
-        <v>7626.98</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="3">
-        <v>5.8700000000000002E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="17">
-        <v>9451.59</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="3">
-        <v>5.9200000000000003E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="17">
-        <v>9607.81</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="3">
-        <v>6.3799999999999996E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="17">
-        <v>9719.7099999999991</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="3">
-        <v>6.54E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="17">
-        <v>9118.0400000000009</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="3">
-        <v>6.0199999999999997E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="17">
-        <v>10050.39</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="3">
-        <v>7.1900000000000006E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="17">
-        <v>10782.94</v>
-      </c>
-      <c r="D13" s="17">
-        <v>25.67</v>
-      </c>
-      <c r="E13" s="3">
-        <v>6.6699999999999995E-2</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="17">
-        <v>12238.76</v>
-      </c>
-      <c r="D14" s="17">
-        <v>25.93</v>
-      </c>
-      <c r="E14" s="3">
-        <v>7.6100000000000001E-2</v>
-      </c>
-      <c r="F14" s="13">
-        <f>$K$22</f>
-        <v>26.83467296511628</v>
-      </c>
-      <c r="G14">
-        <v>16</v>
-      </c>
-      <c r="H14">
-        <v>26.5</v>
-      </c>
-      <c r="I14">
-        <f>E3/C2</f>
-        <v>0.34847799575821836</v>
-      </c>
-      <c r="J14">
-        <f>IF(((H14-F14)/(H14-G14))&lt;0,0,((H14-F14)/(H14-G14)))*0.7+0.3</f>
-        <v>0.3</v>
-      </c>
-      <c r="K14" s="14">
-        <f>(C2*J14-E3)*J14</f>
-        <v>-1645.7309999999968</v>
-      </c>
-      <c r="L14" s="11"/>
-    </row>
-    <row r="15" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="19">
-        <v>12095.71</v>
-      </c>
-      <c r="D15" s="19">
-        <v>25.81</v>
-      </c>
-      <c r="E15" s="3">
-        <v>8.0799999999999997E-2</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-    </row>
-    <row r="16" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10"/>
-      <c r="B16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="20">
-        <v>12631.63</v>
-      </c>
-      <c r="D16" s="20">
-        <v>26.14</v>
-      </c>
-      <c r="E16" s="3">
-        <v>7.9399999999999998E-2</v>
-      </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-    </row>
-    <row r="17" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10"/>
-      <c r="B17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="21">
-        <v>12200.58</v>
-      </c>
-      <c r="D17" s="21">
-        <v>25.89</v>
-      </c>
-      <c r="E17" s="3">
-        <v>7.8E-2</v>
-      </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-    </row>
-    <row r="18" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="22">
-        <v>13144.84</v>
-      </c>
-      <c r="D18" s="22">
-        <v>26.4</v>
-      </c>
-      <c r="E18" s="3">
-        <v>8.4099999999999994E-2</v>
-      </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-    </row>
-    <row r="19" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10"/>
-      <c r="B19" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C19" s="23">
-        <v>13208.35</v>
-      </c>
-      <c r="D19" s="23">
-        <v>26</v>
-      </c>
-      <c r="E19" s="3">
-        <v>8.4500000000000006E-2</v>
-      </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-    </row>
-    <row r="20" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="25">
-        <v>14101.95</v>
-      </c>
-      <c r="D20" s="25">
-        <v>25.96</v>
-      </c>
-      <c r="E20" s="3">
-        <v>8.7099999999999997E-2</v>
-      </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-    </row>
-    <row r="21" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C21" s="26">
-        <v>14690.65</v>
-      </c>
-      <c r="D21" s="26">
-        <v>26.1</v>
-      </c>
-      <c r="E21" s="3">
-        <v>9.3899999999999997E-2</v>
-      </c>
-      <c r="F21" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" t="s">
-        <v>46</v>
-      </c>
-      <c r="J21" t="s">
-        <v>48</v>
-      </c>
-      <c r="K21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" s="27">
-        <v>16361.16</v>
-      </c>
-      <c r="D22" s="27">
-        <v>26.83</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="F22" s="12">
-        <v>2343</v>
-      </c>
-      <c r="G22" s="12">
-        <v>34.51</v>
-      </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12">
-        <v>1785</v>
-      </c>
-      <c r="J22" s="12">
-        <v>16.760000000000002</v>
-      </c>
-      <c r="K22" s="12">
-        <f>(F22*G22+I22*J22)/(F22+I22)</f>
-        <v>26.83467296511628</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="B5:B27">
-    <sortCondition ref="B5"/>
-  </sortState>
-  <mergeCells count="3">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F15:K20"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13" customWidth="1"/>
-    <col min="10" max="10" width="41.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.625" customWidth="1"/>
-    <col min="14" max="15" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="36">
-        <v>13546.06</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="38">
-        <v>-1.49</v>
-      </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="38">
-        <v>-0.06</v>
-      </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="3">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="38">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="38">
-        <v>14.52</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="3">
-        <v>1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="38">
-        <v>9.6300000000000008</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="3">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="38">
-        <v>4.66</v>
-      </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="3">
-        <v>4.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="38">
-        <v>14.48</v>
-      </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="3">
-        <v>1.8E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="38">
-        <v>24.22</v>
-      </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="3">
-        <v>4.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="38">
-        <v>51.62</v>
-      </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="3">
-        <v>7.3000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B13" s="38">
-        <v>72.09</v>
-      </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="3">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B14" s="38">
-        <v>76.31</v>
-      </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="3">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B15" s="38">
-        <v>134.65</v>
-      </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="3">
-        <v>1.12E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B16" s="38">
-        <v>236.67</v>
-      </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="3">
-        <v>1.7399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:I17"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
